--- a/SOC_Photon/Battery State/BattleBorn.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t xml:space="preserve">       W - hr</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>VoC50fit</t>
+  </si>
+  <si>
+    <t>soc</t>
   </si>
 </sst>
 </file>
@@ -626,11 +629,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556104272"/>
-        <c:axId val="556104664"/>
+        <c:axId val="658478032"/>
+        <c:axId val="658478816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556104272"/>
+        <c:axId val="658478032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -757,12 +760,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556104664"/>
+        <c:crossAx val="658478816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556104664"/>
+        <c:axId val="658478816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -883,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556104272"/>
+        <c:crossAx val="658478032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1321,11 +1324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="560109392"/>
-        <c:axId val="560114096"/>
+        <c:axId val="627404768"/>
+        <c:axId val="627408688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="560109392"/>
+        <c:axId val="627404768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1383,12 +1386,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560114096"/>
+        <c:crossAx val="627408688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560114096"/>
+        <c:axId val="627408688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -1447,7 +1450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560109392"/>
+        <c:crossAx val="627404768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1912,11 +1915,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="560105080"/>
-        <c:axId val="560105472"/>
+        <c:axId val="627405160"/>
+        <c:axId val="627401632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="560105080"/>
+        <c:axId val="627405160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1974,12 +1977,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560105472"/>
+        <c:crossAx val="627401632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560105472"/>
+        <c:axId val="627401632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -2038,7 +2041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560105080"/>
+        <c:crossAx val="627405160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2503,11 +2506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="560112920"/>
-        <c:axId val="560107040"/>
+        <c:axId val="627405552"/>
+        <c:axId val="627406336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="560112920"/>
+        <c:axId val="627405552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2565,12 +2568,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560107040"/>
+        <c:crossAx val="627406336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560107040"/>
+        <c:axId val="627406336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -2629,7 +2632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560112920"/>
+        <c:crossAx val="627405552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3107,11 +3110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="560118408"/>
-        <c:axId val="560118800"/>
+        <c:axId val="627354984"/>
+        <c:axId val="627357336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="560118408"/>
+        <c:axId val="627354984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,7 +3171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560118800"/>
+        <c:crossAx val="627357336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3176,7 +3179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="560118800"/>
+        <c:axId val="627357336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3233,7 +3236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560118408"/>
+        <c:crossAx val="627354984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3391,8 +3394,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7897071513321115E-2"/>
-          <c:y val="8.9321468298109025E-2"/>
+          <c:x val="7.3627665120627045E-2"/>
+          <c:y val="6.3366703744901748E-2"/>
           <c:w val="0.87420338510768347"/>
           <c:h val="0.68283832429733826"/>
         </c:manualLayout>
@@ -4321,11 +4324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="550834328"/>
-        <c:axId val="550837072"/>
+        <c:axId val="627347928"/>
+        <c:axId val="627350280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="550834328"/>
+        <c:axId val="627347928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4383,12 +4386,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550837072"/>
+        <c:crossAx val="627350280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="550837072"/>
+        <c:axId val="627350280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -4447,7 +4450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550834328"/>
+        <c:crossAx val="627347928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5740,11 +5743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="550839032"/>
-        <c:axId val="550810808"/>
+        <c:axId val="627363216"/>
+        <c:axId val="627376544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="550839032"/>
+        <c:axId val="627363216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5866,13 +5869,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550810808"/>
+        <c:crossAx val="627376544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="550810808"/>
+        <c:axId val="627376544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -5987,7 +5990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550839032"/>
+        <c:crossAx val="627363216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6388,11 +6391,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556116816"/>
-        <c:axId val="556123480"/>
+        <c:axId val="658490968"/>
+        <c:axId val="658485872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556116816"/>
+        <c:axId val="658490968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6451,12 +6454,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556123480"/>
+        <c:crossAx val="658485872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556123480"/>
+        <c:axId val="658485872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.8"/>
@@ -6515,7 +6518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556116816"/>
+        <c:crossAx val="658490968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -7808,11 +7811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556126224"/>
-        <c:axId val="556125048"/>
+        <c:axId val="658486264"/>
+        <c:axId val="658487440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556126224"/>
+        <c:axId val="658486264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7934,13 +7937,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556125048"/>
+        <c:crossAx val="658487440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556125048"/>
+        <c:axId val="658487440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -8054,7 +8057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556126224"/>
+        <c:crossAx val="658486264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9131,11 +9134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556128576"/>
-        <c:axId val="556137984"/>
+        <c:axId val="658488224"/>
+        <c:axId val="658489400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556128576"/>
+        <c:axId val="658488224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9256,13 +9259,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556137984"/>
+        <c:crossAx val="658489400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556137984"/>
+        <c:axId val="658489400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -9381,7 +9384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556128576"/>
+        <c:crossAx val="658488224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9739,11 +9742,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556132888"/>
-        <c:axId val="556133280"/>
+        <c:axId val="627386736"/>
+        <c:axId val="627392616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556132888"/>
+        <c:axId val="627386736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9800,12 +9803,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556133280"/>
+        <c:crossAx val="627392616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556133280"/>
+        <c:axId val="627392616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5"/>
@@ -9864,7 +9867,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556132888"/>
+        <c:crossAx val="627386736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10276,11 +10279,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556136024"/>
-        <c:axId val="556136808"/>
+        <c:axId val="627387912"/>
+        <c:axId val="627390656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556136024"/>
+        <c:axId val="627387912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10338,12 +10341,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556136808"/>
+        <c:crossAx val="627390656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556136808"/>
+        <c:axId val="627390656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.5"/>
@@ -10402,7 +10405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556136024"/>
+        <c:crossAx val="627387912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10866,11 +10869,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556147000"/>
-        <c:axId val="556157584"/>
+        <c:axId val="627389088"/>
+        <c:axId val="627393792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556147000"/>
+        <c:axId val="627389088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10928,12 +10931,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556157584"/>
+        <c:crossAx val="627393792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556157584"/>
+        <c:axId val="627393792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -10992,7 +10995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556147000"/>
+        <c:crossAx val="627389088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -11457,11 +11460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="560108216"/>
-        <c:axId val="560115664"/>
+        <c:axId val="627394576"/>
+        <c:axId val="627385952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="560108216"/>
+        <c:axId val="627394576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11519,12 +11522,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560115664"/>
+        <c:crossAx val="627385952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560115664"/>
+        <c:axId val="627385952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -11583,7 +11586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560108216"/>
+        <c:crossAx val="627394576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -12045,11 +12048,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="560110568"/>
-        <c:axId val="560104688"/>
+        <c:axId val="627395360"/>
+        <c:axId val="627389872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="560110568"/>
+        <c:axId val="627395360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12107,12 +12110,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560104688"/>
+        <c:crossAx val="627389872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560104688"/>
+        <c:axId val="627389872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -12171,7 +12174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560110568"/>
+        <c:crossAx val="627395360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -21164,16 +21167,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22705,8 +22708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22904,7 +22907,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B13" t="str">
         <f>'Cap Curves'!C1</f>

--- a/SOC_Photon/Battery State/BattleBorn.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,21 +13,21 @@
     <sheet name="Model" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Model!$A$14:$L$27</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Model!$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Model!$A$15:$L$28</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Model!$C$9</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Model!$B$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Model!$B$9</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Model!$B$9</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Model!$B$9</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Model!$B$11</definedName>
-    <definedName name="solver_lhs6" localSheetId="3" hidden="1">Model!$B$11</definedName>
-    <definedName name="solver_lhs7" localSheetId="3" hidden="1">Model!$B$11</definedName>
-    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Model!$B$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Model!$B$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Model!$B$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Model!$B$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Model!$B$10</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Model!$B$12</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">Model!$B$12</definedName>
+    <definedName name="solver_lhs7" localSheetId="3" hidden="1">Model!$B$12</definedName>
+    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Model!$B$12</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
@@ -36,7 +36,7 @@
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Model!$G$28</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Model!$G$29</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t xml:space="preserve">       W - hr</t>
   </si>
@@ -185,6 +185,19 @@
   </si>
   <si>
     <t>soc</t>
+  </si>
+  <si>
+    <t>Zhang, et al A Generalized SOC-OCV Model for Lithium-Ion
+Batteries and the SOC Estimation for LNMCO Battery, GeneralizedSOC-OCV Model Zhang et al.pdf</t>
+  </si>
+  <si>
+    <t>T, C</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>DoD @ 12.5 v</t>
   </si>
 </sst>
 </file>
@@ -352,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -394,6 +407,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,11 +644,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="658478032"/>
-        <c:axId val="658478816"/>
+        <c:axId val="668727520"/>
+        <c:axId val="668720856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="658478032"/>
+        <c:axId val="668727520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -760,12 +775,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658478816"/>
+        <c:crossAx val="668720856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="658478816"/>
+        <c:axId val="668720856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -886,7 +901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658478032"/>
+        <c:crossAx val="668727520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -971,7 +986,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>50 deg C</a:t>
+              <a:t>10 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -979,14 +994,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30196566338298619"/>
-          <c:y val="1.9493177387914229E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1023,8 +1031,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1578994325314079"/>
-          <c:y val="4.3846629560915298E-2"/>
+          <c:x val="0.14346956630421198"/>
+          <c:y val="9.5828664691767332E-2"/>
           <c:w val="0.75461703650680023"/>
           <c:h val="0.67122210373054014"/>
         </c:manualLayout>
@@ -1037,11 +1045,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$T$13</c:f>
+              <c:f>Model!$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 50C</c:v>
+                  <c:v>VoC 10C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1072,7 +1080,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1123,51 +1131,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$T$14:$T$27</c:f>
+              <c:f>Model!$H$15:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.35</c:v>
+                  <c:v>13.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.15</c:v>
+                  <c:v>12.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.08</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.05</c:v>
+                  <c:v>12.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.046666666666667</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.043333333333333</c:v>
+                  <c:v>12.74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.04</c:v>
+                  <c:v>12.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.01</c:v>
+                  <c:v>12.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.95</c:v>
+                  <c:v>12.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.87</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.66</c:v>
+                  <c:v>11.78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.43</c:v>
+                  <c:v>11.05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,11 +1184,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$U$13</c:f>
+              <c:f>Model!$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC50fit</c:v>
+                  <c:v>VoC10fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1214,7 +1219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1265,51 +1270,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$U$14:$U$27</c:f>
+              <c:f>Model!$I$15:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.624053515884519</c:v>
+                  <c:v>14.070119209456456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.371313929135514</c:v>
+                  <c:v>13.448235768192433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.257989878502613</c:v>
+                  <c:v>13.181231787744885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.154253690818782</c:v>
+                  <c:v>12.946625989261019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.048426735079993</c:v>
+                  <c:v>12.720529065294167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.997426724505619</c:v>
+                  <c:v>12.616567473248011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.971312912373676</c:v>
+                  <c:v>12.560202683949628</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.955576936829443</c:v>
+                  <c:v>12.515604476107436</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.938278089573135</c:v>
+                  <c:v>12.453364056775865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.904323459173444</c:v>
+                  <c:v>12.336139301290785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.826050649375436</c:v>
+                  <c:v>12.095020186823675</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.625056630335575</c:v>
+                  <c:v>11.533727939027212</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.377172654874936</c:v>
+                  <c:v>10.878757772181494</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.981614391065904</c:v>
+                  <c:v>7.3412397741583799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,11 +1329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627404768"/>
-        <c:axId val="627408688"/>
+        <c:axId val="668731832"/>
+        <c:axId val="668727128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627404768"/>
+        <c:axId val="668731832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1386,12 +1391,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627408688"/>
+        <c:crossAx val="668727128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627408688"/>
+        <c:axId val="668727128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -1450,7 +1455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627404768"/>
+        <c:crossAx val="668731832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1569,7 +1574,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>30 deg C</a:t>
+              <a:t>50 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -1577,7 +1582,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30196566338298619"/>
+          <c:y val="1.9493177387914229E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1614,8 +1626,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15789958073422641"/>
-          <c:y val="3.7349132528024638E-2"/>
+          <c:x val="0.1578994325314079"/>
+          <c:y val="4.3846629560915298E-2"/>
           <c:w val="0.75461703650680023"/>
           <c:h val="0.67122210373054014"/>
         </c:manualLayout>
@@ -1628,11 +1640,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$N$13</c:f>
+              <c:f>Model!$T$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 30C</c:v>
+                  <c:v>VoC 50C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1663,7 +1675,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1714,51 +1726,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$N$14:$N$27</c:f>
+              <c:f>Model!$T$15:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.31</c:v>
+                  <c:v>13.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>13.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.046666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.043333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>12.95</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.944285714285714</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.932857142857143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.921428571428571</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.84</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.7</c:v>
+                  <c:v>12.87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.4</c:v>
+                  <c:v>12.66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.85</c:v>
+                  <c:v>12.43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.3</c:v>
+                  <c:v>12.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.45</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1770,11 +1782,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$O$13</c:f>
+              <c:f>Model!$U$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC30fit</c:v>
+                  <c:v>VoC50fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1805,7 +1817,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1856,51 +1868,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$O$14:$O$27</c:f>
+              <c:f>Model!$U$15:$U$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.661752674608037</c:v>
+                  <c:v>13.624053515884519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.353751841677095</c:v>
+                  <c:v>13.371313929135514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.214412746343285</c:v>
+                  <c:v>13.257989878502613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.085128044822085</c:v>
+                  <c:v>13.154253690818782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.948318063358611</c:v>
+                  <c:v>13.048426735079993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.875904887578359</c:v>
+                  <c:v>12.997426724505619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.831606888470063</c:v>
+                  <c:v>12.971312912373676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.797884176747626</c:v>
+                  <c:v>12.955576936829443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.760312443751097</c:v>
+                  <c:v>12.938278089573135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.700635400087616</c:v>
+                  <c:v>12.904323459173444</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.585326090090515</c:v>
+                  <c:v>12.826050649375436</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.31922199096425</c:v>
+                  <c:v>12.625056630335575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.006517216642484</c:v>
+                  <c:v>12.377172654874936</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.299613848224887</c:v>
+                  <c:v>10.981614391065904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,11 +1927,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627405160"/>
-        <c:axId val="627401632"/>
+        <c:axId val="668729480"/>
+        <c:axId val="668722816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627405160"/>
+        <c:axId val="668729480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1977,12 +1989,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627401632"/>
+        <c:crossAx val="668722816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627401632"/>
+        <c:axId val="668722816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -2041,7 +2053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627405160"/>
+        <c:crossAx val="668729480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2160,7 +2172,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>40 deg C</a:t>
+              <a:t>30 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -2205,8 +2217,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1578994325314079"/>
-          <c:y val="4.3846629560915298E-2"/>
+          <c:x val="0.15789958073422641"/>
+          <c:y val="3.7349132528024638E-2"/>
           <c:w val="0.75461703650680023"/>
           <c:h val="0.67122210373054014"/>
         </c:manualLayout>
@@ -2219,11 +2231,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$Q$13</c:f>
+              <c:f>Model!$N$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 40C</c:v>
+                  <c:v>VoC 30C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2254,7 +2266,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2305,51 +2317,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$Q$14:$Q$27</c:f>
+              <c:f>Model!$N$15:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.32</c:v>
+                  <c:v>13.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.1</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.03</c:v>
+                  <c:v>12.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.01</c:v>
+                  <c:v>12.944285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.006666666666666</c:v>
+                  <c:v>12.932857142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.003333333333334</c:v>
+                  <c:v>12.921428571428571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>12.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.97</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.91</c:v>
+                  <c:v>12.84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.77</c:v>
+                  <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.55</c:v>
+                  <c:v>12.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.2</c:v>
+                  <c:v>11.85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.6</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.51</c:v>
+                  <c:v>10.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2361,11 +2373,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$R$13</c:f>
+              <c:f>Model!$O$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC40fit</c:v>
+                  <c:v>VoC30fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2396,7 +2408,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2447,51 +2459,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$R$14:$R$27</c:f>
+              <c:f>Model!$O$15:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.704112851056955</c:v>
+                  <c:v>13.661752674608037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.396454479272043</c:v>
+                  <c:v>13.353751841677095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.259843363933317</c:v>
+                  <c:v>13.214412746343285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.135798657924287</c:v>
+                  <c:v>13.085128044822085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.010251731572101</c:v>
+                  <c:v>12.948318063358611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.949474177939177</c:v>
+                  <c:v>12.875904887578359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.916937509273122</c:v>
+                  <c:v>12.831606888470063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.894983815007649</c:v>
+                  <c:v>12.797884176747626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.869092096711494</c:v>
+                  <c:v>12.760312443751097</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.820882910600099</c:v>
+                  <c:v>12.700635400087616</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.716600986130778</c:v>
+                  <c:v>12.585326090090515</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.460431331790987</c:v>
+                  <c:v>12.31922199096425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.151437632178304</c:v>
+                  <c:v>12.006517216642484</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.438523136048317</c:v>
+                  <c:v>10.299613848224887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2506,11 +2518,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627405552"/>
-        <c:axId val="627406336"/>
+        <c:axId val="668729872"/>
+        <c:axId val="668739672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627405552"/>
+        <c:axId val="668729872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2568,12 +2580,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627406336"/>
+        <c:crossAx val="668739672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627406336"/>
+        <c:axId val="668739672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -2632,7 +2644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627405552"/>
+        <c:crossAx val="668729872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2748,9 +2760,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Model Coefficients vs OAT, C</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>40 deg C</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2791,25 +2808,25 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8233814523184605E-2"/>
-          <c:y val="0.15319444444444447"/>
-          <c:w val="0.90787729658792649"/>
-          <c:h val="0.6714577865266842"/>
+          <c:x val="0.1578994325314079"/>
+          <c:y val="4.3846629560915298E-2"/>
+          <c:w val="0.75461703650680023"/>
+          <c:h val="0.67122210373054014"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$8</c:f>
+              <c:f>Model!$Q$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>a</c:v>
+                  <c:v>VoC 40C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2817,7 +2834,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2828,88 +2845,130 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Model!$B$5:$H$5</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Model!$B$8:$H$8</c:f>
+              <c:f>Model!$Q$15:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.3483399767315909</c:v>
+                  <c:v>13.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5247557002832086</c:v>
+                  <c:v>13.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5539644353434743</c:v>
+                  <c:v>13.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7782710208104895</c:v>
+                  <c:v>13.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8069059976624819</c:v>
+                  <c:v>13.006666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8512557761146389</c:v>
+                  <c:v>13.003333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7310417617626701</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$7</c:f>
+              <c:f>Model!$R$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>b</c:v>
+                  <c:v>VoC40fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2917,7 +2976,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2928,176 +2987,118 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Model!$B$5:$H$5</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Model!$B$7:$H$7</c:f>
+              <c:f>Model!$R$15:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-1.143251503157807</c:v>
+                  <c:v>13.704112851056955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.143251503157807</c:v>
+                  <c:v>13.396454479272043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.143251503157807</c:v>
+                  <c:v>13.259843363933317</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.57795540028306935</c:v>
+                  <c:v>13.135798657924287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.55329798798696006</c:v>
+                  <c:v>13.010251731572101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.55710475700016193</c:v>
+                  <c:v>12.949474177939177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.45551626024511238</c:v>
+                  <c:v>12.916937509273122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.894983815007649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.869092096711494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.820882910600099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.716600986130778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.460431331790987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.151437632178304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.438523136048317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>c</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Model!$B$5:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Model!$B$9:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>-1.7704346329793603</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.7704346329793603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.7704346329793603</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.0994517959124805</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.1254678290104727</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.1592275633503999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.0590283827915401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -3108,15 +3109,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="627354984"/>
-        <c:axId val="627357336"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="627354984"/>
+        <c:axId val="668738104"/>
+        <c:axId val="668736928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="668738104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3171,17 +3171,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627357336"/>
+        <c:crossAx val="668736928"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="627357336"/>
+        <c:axId val="668736928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3236,9 +3235,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627354984"/>
+        <c:crossAx val="668738104"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3352,7 +3352,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Model</a:t>
+              <a:t>Model Coefficients vs OAT, C</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3394,25 +3394,25 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3627665120627045E-2"/>
-          <c:y val="6.3366703744901748E-2"/>
-          <c:w val="0.87420338510768347"/>
-          <c:h val="0.68283832429733826"/>
+          <c:x val="7.8233814523184605E-2"/>
+          <c:y val="0.15319444444444447"/>
+          <c:w val="0.90787729658792649"/>
+          <c:h val="0.6714577865266842"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$C$13</c:f>
+              <c:f>Model!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC-10fit</c:v>
+                  <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3420,129 +3420,99 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Model!$C$14:$C$27</c:f>
+              <c:f>Model!$B$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.247621375008922</c:v>
+                  <c:v>3.3483399767315909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.625737933744901</c:v>
+                  <c:v>3.5247557002832086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.358733953297351</c:v>
+                  <c:v>3.5539644353434743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.124128154813484</c:v>
+                  <c:v>2.7782710208104895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.898031230846634</c:v>
+                  <c:v>2.8069059976624819</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.79406963880048</c:v>
+                  <c:v>2.8512557761146389</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.737704849502094</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.693106641659902</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.630866222328329</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.513641466843254</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.272522352376143</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.71123010457968</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.056259937733962</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5187419397108455</c:v>
+                  <c:v>2.7310417617626701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$F$13</c:f>
+              <c:f>Model!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC0fit</c:v>
+                  <c:v>b</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3550,129 +3520,99 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Model!$F$14:$F$27</c:f>
+              <c:f>Model!$B$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.953284269215393</c:v>
+                  <c:v>-1.143251503157807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.33140082795137</c:v>
+                  <c:v>-1.143251503157807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.064396847503822</c:v>
+                  <c:v>-1.143251503157807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.829791049019956</c:v>
+                  <c:v>-0.57795540028306935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.603694125053105</c:v>
+                  <c:v>-0.55329798798696006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.499732533006949</c:v>
+                  <c:v>-0.55710475700016193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.443367743708565</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.398769535866373</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.336529116534802</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.219304361049723</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.978185246582612</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.41689299878615</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.761922831940431</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.2244048339173172</c:v>
+                  <c:v>-0.45551626024511238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="5"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$I$13</c:f>
+              <c:f>Model!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC10fit</c:v>
+                  <c:v>c</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3680,640 +3620,87 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Model!$I$14:$I$27</c:f>
+              <c:f>Model!$B$10:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.070119209456456</c:v>
+                  <c:v>-1.7704346329793603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.448235768192433</c:v>
+                  <c:v>-1.7704346329793603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.181231787744885</c:v>
+                  <c:v>-1.7704346329793603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.946625989261019</c:v>
+                  <c:v>-1.0994517959124805</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.720529065294167</c:v>
+                  <c:v>-1.1254678290104727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.616567473248011</c:v>
+                  <c:v>-1.1592275633503999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.560202683949628</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.515604476107436</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.453364056775865</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.336139301290785</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.095020186823675</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.533727939027212</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.878757772181494</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.3412397741583799</c:v>
+                  <c:v>-1.0590283827915401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$L$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC20fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$L$14:$L$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.651276899592036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.32591936036253</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.174887714615567</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.030606512523184</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.868875635416604</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.773954775560256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.707963337013783</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.65259697660499</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.592805101403084</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.509533719658675</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.367777022112602</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.068146279937437</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.73054179566167</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.9367442821549403</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$O$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC30fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$O$14:$O$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.661752674608037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.353751841677095</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.214412746343285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.085128044822085</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.948318063358611</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.875904887578359</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.831606888470063</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.797884176747626</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.760312443751097</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.700635400087616</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.585326090090515</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.31922199096425</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.006517216642484</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.299613848224887</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$R$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC40fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$R$14:$R$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.704112851056955</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.396454479272043</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.259843363933317</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.135798657924287</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.010251731572101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.949474177939177</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.916937509273122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.894983815007649</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.869092096711494</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.820882910600099</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.716600986130778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.460431331790987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.151437632178304</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.438523136048317</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$U$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC50fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$U$14:$U$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.624053515884519</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.371313929135514</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.257989878502613</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.154253690818782</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.048426735079993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.997426724505619</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.971312912373676</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.955576936829443</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.938278089573135</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.904323459173444</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.826050649375436</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.625056630335575</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.377172654874936</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.981614391065904</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -4324,14 +3711,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627347928"/>
-        <c:axId val="627350280"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="627347928"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="668738888"/>
+        <c:axId val="668736536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="668738888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4386,16 +3774,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627350280"/>
+        <c:crossAx val="668736536"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="627350280"/>
+        <c:axId val="668736536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="13.5"/>
-          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4450,9 +3839,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627347928"/>
+        <c:crossAx val="668738888"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4566,6 +3955,1220 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Model</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3627665120627045E-2"/>
+          <c:y val="6.3366703744901748E-2"/>
+          <c:w val="0.87420338510768347"/>
+          <c:h val="0.68283832429733826"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC-10fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$15:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$C$15:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.247621375008922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.625737933744901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.358733953297351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.124128154813484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.898031230846634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.79406963880048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.737704849502094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.693106641659902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.630866222328329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.513641466843254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.272522352376143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.71123010457968</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.056259937733962</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5187419397108455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC0fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$15:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$F$15:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.953284269215393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.33140082795137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.064396847503822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.829791049019956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.603694125053105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.499732533006949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.443367743708565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.398769535866373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.336529116534802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.219304361049723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.978185246582612</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.41689299878615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.761922831940431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2244048339173172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC10fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$15:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$I$15:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>14.070119209456456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.448235768192433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.181231787744885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.946625989261019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.720529065294167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.616567473248011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.560202683949628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.515604476107436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.453364056775865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.336139301290785</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.095020186823675</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.533727939027212</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.878757772181494</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3412397741583799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC20fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$15:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$L$15:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.651276899592036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.32591936036253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.174887714615567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.030606512523184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.868875635416604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.773954775560256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.707963337013783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.65259697660499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.592805101403084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.509533719658675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.367777022112602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.068146279937437</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.73054179566167</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9367442821549403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC30fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$15:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$O$15:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.661752674608037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.353751841677095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.214412746343285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.085128044822085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.948318063358611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.875904887578359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.831606888470063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.797884176747626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.760312443751097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.700635400087616</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.585326090090515</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.31922199096425</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.006517216642484</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.299613848224887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$R$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC40fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$15:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$R$15:$R$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.704112851056955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.396454479272043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.259843363933317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.135798657924287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.010251731572101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.949474177939177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.916937509273122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.894983815007649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.869092096711494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.820882910600099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.716600986130778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.460431331790987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.151437632178304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.438523136048317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$U$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC50fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$A$15:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$U$15:$U$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.624053515884519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.371313929135514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.257989878502613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.154253690818782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.048426735079993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.997426724505619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.971312912373676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.955576936829443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.938278089573135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.904323459173444</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.826050649375436</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.625056630335575</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.377172654874936</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.981614391065904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="668733008"/>
+        <c:axId val="668733400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="668733008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668733400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="668733400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13.5"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668733008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>State</a:t>
             </a:r>
             <a:r>
@@ -5672,7 +6275,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -5743,11 +6346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627363216"/>
-        <c:axId val="627376544"/>
+        <c:axId val="668734184"/>
+        <c:axId val="668734576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627363216"/>
+        <c:axId val="668734184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5869,13 +6472,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627376544"/>
+        <c:crossAx val="668734576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627376544"/>
+        <c:axId val="668734576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -5990,7 +6593,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627363216"/>
+        <c:crossAx val="668734184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6391,11 +6994,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="658490968"/>
-        <c:axId val="658485872"/>
+        <c:axId val="668723600"/>
+        <c:axId val="668720464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="658490968"/>
+        <c:axId val="668723600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6454,12 +7057,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658485872"/>
+        <c:crossAx val="668720464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="658485872"/>
+        <c:axId val="668720464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.8"/>
@@ -6518,7 +7121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658490968"/>
+        <c:crossAx val="668723600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -6653,6 +7256,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7740,7 +8344,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -7811,11 +8415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="658486264"/>
-        <c:axId val="658487440"/>
+        <c:axId val="668730264"/>
+        <c:axId val="668724776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="658486264"/>
+        <c:axId val="668730264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7937,13 +8541,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658487440"/>
+        <c:crossAx val="668724776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="658487440"/>
+        <c:axId val="668724776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7991,6 +8595,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8057,7 +8662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658486264"/>
+        <c:crossAx val="668730264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8187,6 +8792,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9134,11 +9740,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="658488224"/>
-        <c:axId val="658489400"/>
+        <c:axId val="668726736"/>
+        <c:axId val="668731048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="658488224"/>
+        <c:axId val="668726736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9259,13 +9865,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658489400"/>
+        <c:crossAx val="668731048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="658489400"/>
+        <c:axId val="668731048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -9318,6 +9924,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9384,7 +9991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658488224"/>
+        <c:crossAx val="668726736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9488,6 +10095,384 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cap Curves'!$T$3:$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DoD @ 12.5 v</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>--</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1592300962379704E-2"/>
+                  <c:y val="0.19865740740740739"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cap Curves'!$S$5:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cap Curves'!$T$5:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="712609632"/>
+        <c:axId val="712608848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="712609632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712608848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="712608848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712609632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -9533,7 +10518,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -9648,7 +10633,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -9742,11 +10727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627386736"/>
-        <c:axId val="627392616"/>
+        <c:axId val="668721640"/>
+        <c:axId val="668723992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627386736"/>
+        <c:axId val="668721640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9803,12 +10788,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627392616"/>
+        <c:crossAx val="668723992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627392616"/>
+        <c:axId val="668723992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5"/>
@@ -9867,7 +10852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627386736"/>
+        <c:crossAx val="668721640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9916,7 +10901,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10007,7 +10992,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$13</c:f>
+              <c:f>Model!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10042,7 +11027,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -10093,7 +11078,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$B$14:$B$27</c:f>
+              <c:f>Model!$B$15:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -10134,7 +11119,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$C$13</c:f>
+              <c:f>Model!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10169,7 +11154,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -10220,7 +11205,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$C$14:$C$27</c:f>
+              <c:f>Model!$C$15:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -10279,11 +11264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627387912"/>
-        <c:axId val="627390656"/>
+        <c:axId val="668722032"/>
+        <c:axId val="668727912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627387912"/>
+        <c:axId val="668722032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10341,12 +11326,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627390656"/>
+        <c:crossAx val="668727912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627390656"/>
+        <c:axId val="668727912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.5"/>
@@ -10405,600 +11390,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627387912"/>
+        <c:crossAx val="668722032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>20 deg C</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1578994325314079"/>
-          <c:y val="4.3846629560915298E-2"/>
-          <c:w val="0.75461703650680023"/>
-          <c:h val="0.67122210373054014"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$K$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC 20C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$K$14:$K$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.845000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.831250000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.831250000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.831250000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.65</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.41</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.59</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.95</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$L$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC20fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Model!$L$14:$L$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.651276899592036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.32591936036253</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.174887714615567</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.030606512523184</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.868875635416604</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.773954775560256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.707963337013783</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.65259697660499</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.592805101403084</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.509533719658675</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.367777022112602</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.068146279937437</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.73054179566167</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.9367442821549403</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="627389088"/>
-        <c:axId val="627393792"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="627389088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="627393792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="627393792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="14"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="627389088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11114,7 +11508,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>0 deg C</a:t>
+              <a:t>20 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -11173,11 +11567,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$E$13</c:f>
+              <c:f>Model!$K$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 0C</c:v>
+                  <c:v>VoC 20C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11208,7 +11602,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -11259,51 +11653,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$E$14:$E$27</c:f>
+              <c:f>Model!$K$15:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.9</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>12.85</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.77</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.74</c:v>
+                  <c:v>12.845000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.68</c:v>
+                  <c:v>12.831250000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.64</c:v>
+                  <c:v>12.831250000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.6</c:v>
+                  <c:v>12.831250000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.5</c:v>
+                  <c:v>12.79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.37</c:v>
+                  <c:v>12.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.97</c:v>
+                  <c:v>12.41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.4</c:v>
+                  <c:v>12.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>11.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11315,11 +11709,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$F$13</c:f>
+              <c:f>Model!$L$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC0fit</c:v>
+                  <c:v>VoC20fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11350,7 +11744,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -11401,51 +11795,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$F$14:$F$27</c:f>
+              <c:f>Model!$L$15:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.953284269215393</c:v>
+                  <c:v>13.651276899592036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.33140082795137</c:v>
+                  <c:v>13.32591936036253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.064396847503822</c:v>
+                  <c:v>13.174887714615567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.829791049019956</c:v>
+                  <c:v>13.030606512523184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.603694125053105</c:v>
+                  <c:v>12.868875635416604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.499732533006949</c:v>
+                  <c:v>12.773954775560256</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.443367743708565</c:v>
+                  <c:v>12.707963337013783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.398769535866373</c:v>
+                  <c:v>12.65259697660499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.336529116534802</c:v>
+                  <c:v>12.592805101403084</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.219304361049723</c:v>
+                  <c:v>12.509533719658675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.978185246582612</c:v>
+                  <c:v>12.367777022112602</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.41689299878615</c:v>
+                  <c:v>12.068146279937437</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.761922831940431</c:v>
+                  <c:v>11.73054179566167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2244048339173172</c:v>
+                  <c:v>9.9367442821549403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11460,11 +11854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627394576"/>
-        <c:axId val="627385952"/>
+        <c:axId val="668725168"/>
+        <c:axId val="668722424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627394576"/>
+        <c:axId val="668725168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11522,12 +11916,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627385952"/>
+        <c:crossAx val="668722424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627385952"/>
+        <c:axId val="668722424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -11586,7 +11980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627394576"/>
+        <c:crossAx val="668725168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -11705,7 +12099,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>10 deg C</a:t>
+              <a:t>0 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -11750,8 +12144,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14346956630421198"/>
-          <c:y val="9.5828664691767332E-2"/>
+          <c:x val="0.1578994325314079"/>
+          <c:y val="4.3846629560915298E-2"/>
           <c:w val="0.75461703650680023"/>
           <c:h val="0.67122210373054014"/>
         </c:manualLayout>
@@ -11764,11 +12158,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$H$13</c:f>
+              <c:f>Model!$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 10C</c:v>
+                  <c:v>VoC 0C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11799,7 +12193,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -11850,48 +12244,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$H$14:$H$27</c:f>
+              <c:f>Model!$E$15:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.1</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.8</c:v>
+                  <c:v>12.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.77</c:v>
+                  <c:v>12.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.75</c:v>
+                  <c:v>12.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.74</c:v>
+                  <c:v>12.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.71</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.65</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.49</c:v>
+                  <c:v>12.37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.25</c:v>
+                  <c:v>11.97</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.78</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.05</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.1</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11903,11 +12300,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$I$13</c:f>
+              <c:f>Model!$F$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC10fit</c:v>
+                  <c:v>VoC0fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11938,7 +12335,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$A$14:$A$27</c:f>
+              <c:f>Model!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -11989,51 +12386,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$I$14:$I$27</c:f>
+              <c:f>Model!$F$15:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>14.070119209456456</c:v>
+                  <c:v>13.953284269215393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.448235768192433</c:v>
+                  <c:v>13.33140082795137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.181231787744885</c:v>
+                  <c:v>13.064396847503822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.946625989261019</c:v>
+                  <c:v>12.829791049019956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.720529065294167</c:v>
+                  <c:v>12.603694125053105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.616567473248011</c:v>
+                  <c:v>12.499732533006949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.560202683949628</c:v>
+                  <c:v>12.443367743708565</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.515604476107436</c:v>
+                  <c:v>12.398769535866373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.453364056775865</c:v>
+                  <c:v>12.336529116534802</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.336139301290785</c:v>
+                  <c:v>12.219304361049723</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.095020186823675</c:v>
+                  <c:v>11.978185246582612</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.533727939027212</c:v>
+                  <c:v>11.41689299878615</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.878757772181494</c:v>
+                  <c:v>10.761922831940431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3412397741583799</c:v>
+                  <c:v>7.2244048339173172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12048,11 +12445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627395360"/>
-        <c:axId val="627389872"/>
+        <c:axId val="668728696"/>
+        <c:axId val="668725952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627395360"/>
+        <c:axId val="668728696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12110,12 +12507,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627389872"/>
+        <c:crossAx val="668725952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627389872"/>
+        <c:axId val="668725952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -12174,7 +12571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627395360"/>
+        <c:crossAx val="668728696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -12497,6 +12894,46 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16468,6 +16905,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -20766,6 +21719,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20775,13 +21758,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>137787</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>55736</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20813,13 +21796,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>599374</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>148688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20851,13 +21834,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>281283</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>93766</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20889,13 +21872,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>430530</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20919,13 +21902,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20949,13 +21932,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20979,13 +21962,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21011,13 +21994,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21043,13 +22026,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21075,13 +22058,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21107,13 +22090,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21139,13 +22122,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21169,13 +22152,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21199,13 +22182,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -22252,15 +23235,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="20" max="20" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -22289,7 +23275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -22319,7 +23305,7 @@
         <v>13.35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22348,8 +23334,14 @@
       <c r="I3">
         <v>13.15</v>
       </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -22378,8 +23370,14 @@
       <c r="I4">
         <v>13.08</v>
       </c>
+      <c r="S4">
+        <v>-10</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -22409,8 +23407,14 @@
       <c r="I5">
         <v>13.05</v>
       </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -22443,8 +23447,14 @@
         <f>I$5+($A6-$A$5)/($A$8-$A$5)*(I$8-I$5)</f>
         <v>13.046666666666667</v>
       </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>30</v>
       </c>
@@ -22477,8 +23487,14 @@
         <f>I$5+($A7-$A$5)/($A$8-$A$5)*(I$8-I$5)</f>
         <v>13.043333333333333</v>
       </c>
+      <c r="S7">
+        <v>20</v>
+      </c>
+      <c r="T7">
+        <v>65</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>40</v>
       </c>
@@ -22508,8 +23524,14 @@
       <c r="I8">
         <v>13.04</v>
       </c>
+      <c r="S8">
+        <v>30</v>
+      </c>
+      <c r="T8">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>50</v>
       </c>
@@ -22538,8 +23560,14 @@
       <c r="I9">
         <v>13.01</v>
       </c>
+      <c r="S9">
+        <v>40</v>
+      </c>
+      <c r="T9">
+        <v>81</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>60</v>
       </c>
@@ -22568,8 +23596,14 @@
       <c r="I10">
         <v>12.95</v>
       </c>
+      <c r="S10">
+        <v>50</v>
+      </c>
+      <c r="T10">
+        <v>87</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>70</v>
       </c>
@@ -22599,7 +23633,7 @@
         <v>12.87</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>80</v>
       </c>
@@ -22626,7 +23660,7 @@
         <v>12.66</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>90</v>
       </c>
@@ -22653,7 +23687,7 @@
         <v>12.43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>95</v>
       </c>
@@ -22677,7 +23711,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>100</v>
       </c>
@@ -22706,1497 +23740,1502 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="21">
-        <v>-10</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <v>10</v>
-      </c>
-      <c r="E5" s="21">
-        <v>20</v>
-      </c>
-      <c r="F5" s="21">
-        <v>30</v>
-      </c>
-      <c r="G5" s="21">
-        <v>40</v>
-      </c>
-      <c r="H5" s="21">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" s="21">
-        <v>0.47799999999999998</v>
+        <v>-10</v>
       </c>
       <c r="C6" s="21">
-        <v>0.47799999999999998</v>
+        <v>0</v>
       </c>
       <c r="D6" s="21">
-        <v>0.47799999999999998</v>
+        <v>10</v>
       </c>
       <c r="E6" s="21">
-        <v>0.47799999999999998</v>
+        <v>20</v>
       </c>
       <c r="F6" s="21">
-        <v>0.47799999999999998</v>
+        <v>30</v>
       </c>
       <c r="G6" s="21">
-        <v>0.47799999999999998</v>
+        <v>40</v>
       </c>
       <c r="H6" s="21">
-        <v>0.47799999999999998</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="22">
-        <v>-1.143251503157807</v>
-      </c>
-      <c r="C7" s="22">
-        <v>-1.143251503157807</v>
-      </c>
-      <c r="D7" s="22">
-        <v>-1.143251503157807</v>
-      </c>
-      <c r="E7" s="22">
-        <v>-0.57795540028306935</v>
-      </c>
-      <c r="F7" s="22">
-        <v>-0.55329798798696006</v>
-      </c>
-      <c r="G7" s="22">
-        <v>-0.55710475700016193</v>
-      </c>
-      <c r="H7" s="22">
-        <v>-0.45551626024511238</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="T7" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.47799999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>3.3483399767315909</v>
-      </c>
-      <c r="C8">
-        <v>3.5247557002832086</v>
-      </c>
-      <c r="D8">
-        <v>3.5539644353434743</v>
-      </c>
-      <c r="E8">
-        <v>2.7782710208104895</v>
-      </c>
-      <c r="F8">
-        <v>2.8069059976624819</v>
-      </c>
-      <c r="G8">
-        <v>2.8512557761146389</v>
-      </c>
-      <c r="H8">
-        <v>2.7310417617626701</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B8" s="22">
+        <v>-1.143251503157807</v>
+      </c>
+      <c r="C8" s="22">
+        <v>-1.143251503157807</v>
+      </c>
+      <c r="D8" s="22">
+        <v>-1.143251503157807</v>
+      </c>
+      <c r="E8" s="22">
+        <v>-0.57795540028306935</v>
+      </c>
+      <c r="F8" s="22">
+        <v>-0.55329798798696006</v>
+      </c>
+      <c r="G8" s="22">
+        <v>-0.55710475700016193</v>
+      </c>
+      <c r="H8" s="22">
+        <v>-0.45551626024511238</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="T8" s="22"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-1.7704346329793603</v>
+        <v>3.3483399767315909</v>
       </c>
       <c r="C9">
-        <v>-1.7704346329793603</v>
+        <v>3.5247557002832086</v>
       </c>
       <c r="D9">
-        <v>-1.7704346329793603</v>
+        <v>3.5539644353434743</v>
       </c>
       <c r="E9">
-        <v>-1.0994517959124805</v>
+        <v>2.7782710208104895</v>
       </c>
       <c r="F9">
-        <v>-1.1254678290104727</v>
+        <v>2.8069059976624819</v>
       </c>
       <c r="G9">
-        <v>-1.1592275633503999</v>
+        <v>2.8512557761146389</v>
       </c>
       <c r="H9">
-        <v>-1.0590283827915401</v>
+        <v>2.7310417617626701</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="C10" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0.4</v>
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-1.7704346329793603</v>
+      </c>
+      <c r="C10">
+        <v>-1.7704346329793603</v>
+      </c>
+      <c r="D10">
+        <v>-1.7704346329793603</v>
+      </c>
+      <c r="E10">
+        <v>-1.0994517959124805</v>
+      </c>
+      <c r="F10">
+        <v>-1.1254678290104727</v>
+      </c>
+      <c r="G10">
+        <v>-1.1592275633503999</v>
+      </c>
+      <c r="H10">
+        <v>-1.0590283827915401</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B12" s="21">
         <v>1.734</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C12" s="21">
         <v>1.734</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D12" s="21">
         <v>1.734</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E12" s="21">
         <v>1.734</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F12" s="21">
         <v>1.734</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G12" s="21">
         <v>1.734</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H12" s="21">
         <v>1.734</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B14" t="str">
         <f>'Cap Curves'!C1</f>
         <v>VoC -10C</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E14" t="str">
         <f>'Cap Curves'!D1</f>
         <v>VoC 0C</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>28</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H14" t="str">
         <f>'Cap Curves'!E1</f>
         <v>VoC 10C</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>30</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J14" t="s">
         <v>31</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K14" t="str">
         <f>'Cap Curves'!F1</f>
         <v>VoC 20C</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L14" t="s">
         <v>25</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M14" t="s">
         <v>24</v>
       </c>
-      <c r="N13" t="str">
+      <c r="N14" t="str">
         <f>'Cap Curves'!G1</f>
         <v>VoC 30C</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O14" t="s">
         <v>32</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P14" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="Q14" t="str">
         <f>'Cap Curves'!H1</f>
         <v>VoC 40C</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R14" t="s">
         <v>34</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S14" t="s">
         <v>35</v>
       </c>
-      <c r="T13" t="str">
+      <c r="T14" t="str">
         <f>'Cap Curves'!I1</f>
         <v>VoC 50C</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U14" t="s">
         <v>36</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V14" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <f>'Cap Curves'!C2</f>
-        <v>12.68</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:C22" si="0">4*(B$8+B$7*(-LN($A14))^B$6 + B$9*$A14 + B$11*EXP(B$10*($A14-1)))</f>
-        <v>13.247621375008922</v>
-      </c>
-      <c r="D14">
-        <f>((C14-B14)/12*100)^2</f>
-        <v>22.374585094931938</v>
-      </c>
-      <c r="E14">
-        <f>'Cap Curves'!D2</f>
-        <v>12.9</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ref="F14:F25" si="1">(C$8+C$7*(-LN($A14))^C$6 + C$9*$A14 + C$11*EXP(C$10*($A14-1)))*4</f>
-        <v>13.953284269215393</v>
-      </c>
-      <c r="G14">
-        <f>((F14-E14)/12*100)^2</f>
-        <v>77.042204984486403</v>
-      </c>
-      <c r="H14">
-        <f>'Cap Curves'!E2</f>
-        <v>13.1</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ref="I14:I27" si="2">(D$8+D$7*(-LN($A14))^D$6 + D$9*$A14 + D$11*EXP(D$10*($A14-1)))*4</f>
-        <v>14.070119209456456</v>
-      </c>
-      <c r="J14">
-        <f>((I14-H14)/12*100)^2</f>
-        <v>65.356338927529109</v>
-      </c>
-      <c r="K14">
-        <f>'Cap Curves'!F2</f>
-        <v>13.3</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ref="L14:L27" si="3">(E$8+E$7*(-LN($A14))^E$6 + E$9*$A14 + E$11*EXP(E$10*($A14-1)))*4</f>
-        <v>13.651276899592036</v>
-      </c>
-      <c r="M14">
-        <f>((L14-K14)/12*100)^2</f>
-        <v>8.5691291796522648</v>
-      </c>
-      <c r="N14">
-        <f>'Cap Curves'!G2</f>
-        <v>13.31</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O27" si="4">(F$8+F$7*(-LN($A14))^F$6 + F$9*$A14 + F$11*EXP(F$10*($A14-1)))*4</f>
-        <v>13.661752674608037</v>
-      </c>
-      <c r="P14">
-        <f>((O14-N14)/12*100)^2</f>
-        <v>8.5923572287435519</v>
-      </c>
-      <c r="Q14">
-        <f>'Cap Curves'!H2</f>
-        <v>13.32</v>
-      </c>
-      <c r="R14">
-        <f t="shared" ref="R14:R27" si="5">(G$8+G$7*(-LN($A14))^G$6 + G$9*$A14 + G$11*EXP(G$10*($A14-1)))*4</f>
-        <v>13.704112851056955</v>
-      </c>
-      <c r="S14">
-        <f>((R14-Q14)/12*100)^2</f>
-        <v>10.246019607437656</v>
-      </c>
-      <c r="T14">
-        <f>'Cap Curves'!I2</f>
-        <v>13.35</v>
-      </c>
-      <c r="U14">
-        <f t="shared" ref="U14:U27" si="6">(H$8+H$7*(-LN($A14))^H$6 + H$9*$A14 + H$11*EXP(H$10*($A14-1)))*4</f>
-        <v>13.624053515884519</v>
-      </c>
-      <c r="V14">
-        <f>((U14-T14)/12*100)^2</f>
-        <v>5.2156478867129561</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <f>'Cap Curves'!C3</f>
-        <v>12.38</v>
+        <f>'Cap Curves'!C2</f>
+        <v>12.68</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>12.625737933744901</v>
+        <f t="shared" ref="C15:C23" si="0">4*(B$9+B$8*(-LN($A15))^B$7 + B$10*$A15 + B$12*EXP(B$11*($A15-1)))</f>
+        <v>13.247621375008922</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D22" si="7">((C15-B15)/12*100)^2</f>
-        <v>4.1935508389731213</v>
+        <f>((C15-B15)/12*100)^2</f>
+        <v>22.374585094931938</v>
       </c>
       <c r="E15">
-        <f>'Cap Curves'!D3</f>
-        <v>12.85</v>
+        <f>'Cap Curves'!D2</f>
+        <v>12.9</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>13.33140082795137</v>
+        <f t="shared" ref="F15:F26" si="1">(C$9+C$8*(-LN($A15))^C$7 + C$10*$A15 + C$12*EXP(C$11*($A15-1)))*4</f>
+        <v>13.953284269215393</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G25" si="8">((F15-E15)/12*100)^2</f>
-        <v>16.093524802240619</v>
+        <f>((F15-E15)/12*100)^2</f>
+        <v>77.042204984486403</v>
       </c>
       <c r="H15">
-        <f>'Cap Curves'!E3</f>
-        <v>12.85</v>
+        <f>'Cap Curves'!E2</f>
+        <v>13.1</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
-        <v>13.448235768192433</v>
+        <f t="shared" ref="I15:I28" si="2">(D$9+D$8*(-LN($A15))^D$7 + D$10*$A15 + D$12*EXP(D$11*($A15-1)))*4</f>
+        <v>14.070119209456456</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J26" si="9">((I15-H15)/12*100)^2</f>
-        <v>24.853196829499336</v>
+        <f>((I15-H15)/12*100)^2</f>
+        <v>65.356338927529109</v>
       </c>
       <c r="K15">
-        <f>'Cap Curves'!F3</f>
-        <v>12.9</v>
+        <f>'Cap Curves'!F2</f>
+        <v>13.3</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
-        <v>13.32591936036253</v>
+        <f t="shared" ref="L15:L28" si="3">(E$9+E$8*(-LN($A15))^E$7 + E$10*$A15 + E$12*EXP(E$11*($A15-1)))*4</f>
+        <v>13.651276899592036</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15:M27" si="10">((L15-K15)/12*100)^2</f>
-        <v>12.597729273029604</v>
+        <f>((L15-K15)/12*100)^2</f>
+        <v>8.5691291796522648</v>
       </c>
       <c r="N15">
-        <f>'Cap Curves'!G3</f>
-        <v>13</v>
+        <f>'Cap Curves'!G2</f>
+        <v>13.31</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
-        <v>13.353751841677095</v>
+        <f t="shared" ref="O15:O28" si="4">(F$9+F$8*(-LN($A15))^F$7 + F$10*$A15 + F$12*EXP(F$11*($A15-1)))*4</f>
+        <v>13.661752674608037</v>
       </c>
       <c r="P15">
-        <f t="shared" ref="P15:P27" si="11">((O15-N15)/12*100)^2</f>
-        <v>8.6903031590233688</v>
+        <f>((O15-N15)/12*100)^2</f>
+        <v>8.5923572287435519</v>
       </c>
       <c r="Q15">
-        <f>'Cap Curves'!H3</f>
-        <v>13.1</v>
+        <f>'Cap Curves'!H2</f>
+        <v>13.32</v>
       </c>
       <c r="R15">
-        <f t="shared" si="5"/>
-        <v>13.396454479272043</v>
+        <f t="shared" ref="R15:R28" si="5">(G$9+G$8*(-LN($A15))^G$7 + G$10*$A15 + G$12*EXP(G$11*($A15-1)))*4</f>
+        <v>13.704112851056955</v>
       </c>
       <c r="S15">
-        <f t="shared" ref="S15:S27" si="12">((R15-Q15)/12*100)^2</f>
-        <v>6.1031429361429339</v>
+        <f>((R15-Q15)/12*100)^2</f>
+        <v>10.246019607437656</v>
       </c>
       <c r="T15">
-        <f>'Cap Curves'!I3</f>
-        <v>13.15</v>
+        <f>'Cap Curves'!I2</f>
+        <v>13.35</v>
       </c>
       <c r="U15">
-        <f t="shared" si="6"/>
-        <v>13.371313929135514</v>
+        <f t="shared" ref="U15:U28" si="6">(H$9+H$8*(-LN($A15))^H$7 + H$10*$A15 + H$12*EXP(H$11*($A15-1)))*4</f>
+        <v>13.624053515884519</v>
       </c>
       <c r="V15">
-        <f t="shared" ref="V15:V27" si="13">((U15-T15)/12*100)^2</f>
-        <v>3.4013788353749441</v>
+        <f>((U15-T15)/12*100)^2</f>
+        <v>5.2156478867129561</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="B16">
-        <f>'Cap Curves'!C4</f>
-        <v>12.26</v>
+        <f>'Cap Curves'!C3</f>
+        <v>12.38</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>12.358733953297351</v>
+        <v>12.625737933744901</v>
       </c>
       <c r="D16">
-        <f t="shared" si="7"/>
-        <v>0.67697177317524859</v>
+        <f t="shared" ref="D16:D23" si="7">((C16-B16)/12*100)^2</f>
+        <v>4.1935508389731213</v>
       </c>
       <c r="E16">
-        <f>'Cap Curves'!D4</f>
-        <v>12.77</v>
+        <f>'Cap Curves'!D3</f>
+        <v>12.85</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>13.064396847503822</v>
+        <v>13.33140082795137</v>
       </c>
       <c r="G16">
-        <f t="shared" si="8"/>
-        <v>6.0187155430686792</v>
+        <f t="shared" ref="G16:G26" si="8">((F16-E16)/12*100)^2</f>
+        <v>16.093524802240619</v>
       </c>
       <c r="H16">
-        <f>'Cap Curves'!E4</f>
-        <v>12.8</v>
+        <f>'Cap Curves'!E3</f>
+        <v>12.85</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>13.181231787744885</v>
+        <v>13.448235768192433</v>
       </c>
       <c r="J16">
-        <f t="shared" si="9"/>
-        <v>10.092894165775023</v>
+        <f t="shared" ref="J16:J27" si="9">((I16-H16)/12*100)^2</f>
+        <v>24.853196829499336</v>
       </c>
       <c r="K16">
-        <f>'Cap Curves'!F4</f>
-        <v>12.85</v>
+        <f>'Cap Curves'!F3</f>
+        <v>12.9</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>13.174887714615567</v>
+        <v>13.32591936036253</v>
       </c>
       <c r="M16">
-        <f t="shared" si="10"/>
-        <v>7.3300018825087614</v>
+        <f t="shared" ref="M16:M28" si="10">((L16-K16)/12*100)^2</f>
+        <v>12.597729273029604</v>
       </c>
       <c r="N16">
-        <f>'Cap Curves'!G4</f>
-        <v>12.95</v>
+        <f>'Cap Curves'!G3</f>
+        <v>13</v>
       </c>
       <c r="O16">
         <f t="shared" si="4"/>
-        <v>13.214412746343285</v>
+        <v>13.353751841677095</v>
       </c>
       <c r="P16">
-        <f t="shared" si="11"/>
-        <v>4.8551458631110309</v>
+        <f t="shared" ref="P16:P28" si="11">((O16-N16)/12*100)^2</f>
+        <v>8.6903031590233688</v>
       </c>
       <c r="Q16">
-        <f>'Cap Curves'!H4</f>
-        <v>13.03</v>
+        <f>'Cap Curves'!H3</f>
+        <v>13.1</v>
       </c>
       <c r="R16">
         <f t="shared" si="5"/>
-        <v>13.259843363933317</v>
+        <v>13.396454479272043</v>
       </c>
       <c r="S16">
-        <f t="shared" si="12"/>
-        <v>3.6686091627905308</v>
+        <f t="shared" ref="S16:S28" si="12">((R16-Q16)/12*100)^2</f>
+        <v>6.1031429361429339</v>
       </c>
       <c r="T16">
-        <f>'Cap Curves'!I4</f>
-        <v>13.08</v>
+        <f>'Cap Curves'!I3</f>
+        <v>13.15</v>
       </c>
       <c r="U16">
         <f t="shared" si="6"/>
-        <v>13.257989878502613</v>
+        <v>13.371313929135514</v>
       </c>
       <c r="V16">
-        <f t="shared" si="13"/>
-        <v>2.2000275589843725</v>
+        <f t="shared" ref="V16:V28" si="13">((U16-T16)/12*100)^2</f>
+        <v>3.4013788353749441</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="B17">
-        <f>'Cap Curves'!C5</f>
-        <v>12.17</v>
+        <f>'Cap Curves'!C4</f>
+        <v>12.26</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>12.124128154813484</v>
+        <v>12.358733953297351</v>
       </c>
       <c r="D17">
         <f t="shared" si="7"/>
-        <v>0.14612681811220285</v>
+        <v>0.67697177317524859</v>
       </c>
       <c r="E17">
-        <f>'Cap Curves'!D5</f>
-        <v>12.74</v>
+        <f>'Cap Curves'!D4</f>
+        <v>12.77</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>12.829791049019956</v>
+        <v>13.064396847503822</v>
       </c>
       <c r="G17">
         <f t="shared" si="8"/>
-        <v>0.559891144729455</v>
+        <v>6.0187155430686792</v>
       </c>
       <c r="H17">
-        <f>'Cap Curves'!E5</f>
-        <v>12.77</v>
+        <f>'Cap Curves'!E4</f>
+        <v>12.8</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>12.946625989261019</v>
+        <v>13.181231787744885</v>
       </c>
       <c r="J17">
         <f t="shared" si="9"/>
-        <v>2.1664402835023426</v>
+        <v>10.092894165775023</v>
       </c>
       <c r="K17">
-        <f>'Cap Curves'!F5</f>
-        <v>12.845000000000001</v>
+        <f>'Cap Curves'!F4</f>
+        <v>12.85</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>13.030606512523184</v>
+        <v>13.174887714615567</v>
       </c>
       <c r="M17">
         <f t="shared" si="10"/>
-        <v>2.3923456590985048</v>
+        <v>7.3300018825087614</v>
       </c>
       <c r="N17">
-        <f>'Cap Curves'!G5</f>
-        <v>12.944285714285714</v>
+        <f>'Cap Curves'!G4</f>
+        <v>12.95</v>
       </c>
       <c r="O17">
         <f t="shared" si="4"/>
-        <v>13.085128044822085</v>
+        <v>13.214412746343285</v>
       </c>
       <c r="P17">
         <f t="shared" si="11"/>
-        <v>1.3775390327025241</v>
+        <v>4.8551458631110309</v>
       </c>
       <c r="Q17">
-        <f>'Cap Curves'!H5</f>
-        <v>13.01</v>
+        <f>'Cap Curves'!H4</f>
+        <v>13.03</v>
       </c>
       <c r="R17">
         <f t="shared" si="5"/>
-        <v>13.135798657924287</v>
+        <v>13.259843363933317</v>
       </c>
       <c r="S17">
         <f t="shared" si="12"/>
-        <v>1.0989793288577647</v>
+        <v>3.6686091627905308</v>
       </c>
       <c r="T17">
-        <f>'Cap Curves'!I5</f>
-        <v>13.05</v>
+        <f>'Cap Curves'!I4</f>
+        <v>13.08</v>
       </c>
       <c r="U17">
         <f t="shared" si="6"/>
-        <v>13.154253690818782</v>
+        <v>13.257989878502613</v>
       </c>
       <c r="V17">
         <f t="shared" si="13"/>
-        <v>0.75478000342625839</v>
+        <v>2.2000275589843725</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="B18">
-        <f>'Cap Curves'!C6</f>
-        <v>12.03</v>
+        <f>'Cap Curves'!C5</f>
+        <v>12.17</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>11.898031230846634</v>
+        <v>12.124128154813484</v>
       </c>
       <c r="D18">
         <f t="shared" si="7"/>
-        <v>1.2094275022121033</v>
+        <v>0.14612681811220285</v>
       </c>
       <c r="E18">
-        <f>'Cap Curves'!D6</f>
-        <v>12.68</v>
+        <f>'Cap Curves'!D5</f>
+        <v>12.74</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>12.603694125053105</v>
+        <v>12.829791049019956</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G21" si="14">((F18-E18)/12*100)^2*8</f>
-        <v>3.2347703063395441</v>
+        <f t="shared" si="8"/>
+        <v>0.559891144729455</v>
       </c>
       <c r="H18">
-        <f>'Cap Curves'!E6</f>
-        <v>12.75</v>
+        <f>'Cap Curves'!E5</f>
+        <v>12.77</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>12.720529065294167</v>
+        <v>12.946625989261019</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J21" si="15">((I18-H18)/12*100)^2*8</f>
-        <v>0.48251999579747196</v>
+        <f t="shared" si="9"/>
+        <v>2.1664402835023426</v>
       </c>
       <c r="K18">
-        <f>'Cap Curves'!F6</f>
-        <v>12.831250000000001</v>
+        <f>'Cap Curves'!F5</f>
+        <v>12.845000000000001</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>12.868875635416604</v>
+        <v>13.030606512523184</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M21" si="16">((L18-K18)/12*100)^2*8</f>
-        <v>0.7864935780572998</v>
+        <f t="shared" si="10"/>
+        <v>2.3923456590985048</v>
       </c>
       <c r="N18">
-        <f>'Cap Curves'!G6</f>
-        <v>12.932857142857143</v>
+        <f>'Cap Curves'!G5</f>
+        <v>12.944285714285714</v>
       </c>
       <c r="O18">
         <f t="shared" si="4"/>
-        <v>12.948318063358611</v>
+        <v>13.085128044822085</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:P21" si="17">((O18-N18)/12*100)^2*8</f>
-        <v>0.13280003486261802</v>
+        <f t="shared" si="11"/>
+        <v>1.3775390327025241</v>
       </c>
       <c r="Q18">
-        <f>'Cap Curves'!H6</f>
-        <v>13.006666666666666</v>
+        <f>'Cap Curves'!H5</f>
+        <v>13.01</v>
       </c>
       <c r="R18">
         <f t="shared" si="5"/>
-        <v>13.010251731572101</v>
+        <v>13.135798657924287</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:S21" si="18">((R18-Q18)/12*100)^2*8</f>
-        <v>7.1403835423230521E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.0989793288577647</v>
       </c>
       <c r="T18">
-        <f>'Cap Curves'!I6</f>
-        <v>13.046666666666667</v>
+        <f>'Cap Curves'!I5</f>
+        <v>13.05</v>
       </c>
       <c r="U18">
         <f t="shared" si="6"/>
-        <v>13.048426735079993</v>
+        <v>13.154253690818782</v>
       </c>
       <c r="V18">
-        <f t="shared" ref="V18:V21" si="19">((U18-T18)/12*100)^2*8</f>
-        <v>1.7210226775481604E-3</v>
+        <f t="shared" si="13"/>
+        <v>0.75478000342625839</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B19">
-        <f>'Cap Curves'!C7</f>
-        <v>11.98</v>
+        <f>'Cap Curves'!C6</f>
+        <v>12.03</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>11.79406963880048</v>
+        <v>11.898031230846634</v>
       </c>
       <c r="D19">
         <f t="shared" si="7"/>
-        <v>2.4007013344294661</v>
+        <v>1.2094275022121033</v>
       </c>
       <c r="E19">
-        <f>'Cap Curves'!D7</f>
-        <v>12.64</v>
+        <f>'Cap Curves'!D6</f>
+        <v>12.68</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>12.499732533006949</v>
+        <v>12.603694125053105</v>
       </c>
       <c r="G19">
-        <f t="shared" si="14"/>
-        <v>10.930534609248282</v>
+        <f t="shared" ref="G19:G22" si="14">((F19-E19)/12*100)^2*8</f>
+        <v>3.2347703063395441</v>
       </c>
       <c r="H19">
-        <f>'Cap Curves'!E7</f>
-        <v>12.74</v>
+        <f>'Cap Curves'!E6</f>
+        <v>12.75</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>12.616567473248011</v>
+        <v>12.720529065294167</v>
       </c>
       <c r="J19">
-        <f t="shared" si="15"/>
-        <v>8.4642159224335867</v>
+        <f t="shared" ref="J19:J22" si="15">((I19-H19)/12*100)^2*8</f>
+        <v>0.48251999579747196</v>
       </c>
       <c r="K19">
-        <f>'Cap Curves'!F7</f>
+        <f>'Cap Curves'!F6</f>
         <v>12.831250000000001</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>12.773954775560256</v>
+        <v>12.868875635416604</v>
       </c>
       <c r="M19">
-        <f t="shared" si="16"/>
-        <v>1.8237459686670776</v>
+        <f t="shared" ref="M19:M22" si="16">((L19-K19)/12*100)^2*8</f>
+        <v>0.7864935780572998</v>
       </c>
       <c r="N19">
-        <f>'Cap Curves'!G7</f>
-        <v>12.921428571428571</v>
+        <f>'Cap Curves'!G6</f>
+        <v>12.932857142857143</v>
       </c>
       <c r="O19">
         <f t="shared" si="4"/>
-        <v>12.875904887578359</v>
+        <v>12.948318063358611</v>
       </c>
       <c r="P19">
-        <f t="shared" si="17"/>
-        <v>1.1513365507188842</v>
+        <f t="shared" ref="P19:P22" si="17">((O19-N19)/12*100)^2*8</f>
+        <v>0.13280003486261802</v>
       </c>
       <c r="Q19">
-        <f>'Cap Curves'!H7</f>
-        <v>13.003333333333334</v>
+        <f>'Cap Curves'!H6</f>
+        <v>13.006666666666666</v>
       </c>
       <c r="R19">
         <f t="shared" si="5"/>
-        <v>12.949474177939177</v>
+        <v>13.010251731572101</v>
       </c>
       <c r="S19">
-        <f t="shared" si="18"/>
-        <v>1.6115603443177624</v>
+        <f t="shared" ref="S19:S22" si="18">((R19-Q19)/12*100)^2*8</f>
+        <v>7.1403835423230521E-3</v>
       </c>
       <c r="T19">
-        <f>'Cap Curves'!I7</f>
-        <v>13.043333333333333</v>
+        <f>'Cap Curves'!I6</f>
+        <v>13.046666666666667</v>
       </c>
       <c r="U19">
         <f t="shared" si="6"/>
-        <v>12.997426724505619</v>
+        <v>13.048426735079993</v>
       </c>
       <c r="V19">
-        <f t="shared" si="19"/>
-        <v>1.1707870744781952</v>
+        <f t="shared" ref="V19:V22" si="19">((U19-T19)/12*100)^2*8</f>
+        <v>1.7210226775481604E-3</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="B20">
-        <f>'Cap Curves'!C8</f>
-        <v>11.95</v>
+        <f>'Cap Curves'!C7</f>
+        <v>11.98</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>11.737704849502094</v>
+        <v>11.79406963880048</v>
       </c>
       <c r="D20">
         <f t="shared" si="7"/>
-        <v>3.1298077031200067</v>
+        <v>2.4007013344294661</v>
       </c>
       <c r="E20">
-        <f>'Cap Curves'!D8</f>
-        <v>12.6</v>
+        <f>'Cap Curves'!D7</f>
+        <v>12.64</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>12.443367743708565</v>
+        <v>12.499732533006949</v>
       </c>
       <c r="G20">
         <f t="shared" si="14"/>
-        <v>13.629813172747548</v>
+        <v>10.930534609248282</v>
       </c>
       <c r="H20">
-        <f>'Cap Curves'!E8</f>
-        <v>12.71</v>
+        <f>'Cap Curves'!E7</f>
+        <v>12.74</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>12.560202683949628</v>
+        <v>12.616567473248011</v>
       </c>
       <c r="J20">
         <f t="shared" si="15"/>
-        <v>12.466242164386289</v>
+        <v>8.4642159224335867</v>
       </c>
       <c r="K20">
-        <f>'Cap Curves'!F8</f>
+        <f>'Cap Curves'!F7</f>
         <v>12.831250000000001</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>12.707963337013783</v>
+        <v>12.773954775560256</v>
       </c>
       <c r="M20">
         <f t="shared" si="16"/>
-        <v>8.4442229279317331</v>
+        <v>1.8237459686670776</v>
       </c>
       <c r="N20">
-        <f>'Cap Curves'!G8</f>
-        <v>12.91</v>
+        <f>'Cap Curves'!G7</f>
+        <v>12.921428571428571</v>
       </c>
       <c r="O20">
         <f t="shared" si="4"/>
-        <v>12.831606888470063</v>
+        <v>12.875904887578359</v>
       </c>
       <c r="P20">
         <f t="shared" si="17"/>
-        <v>3.4141555196362292</v>
+        <v>1.1513365507188842</v>
       </c>
       <c r="Q20">
-        <f>'Cap Curves'!H8</f>
-        <v>13</v>
+        <f>'Cap Curves'!H7</f>
+        <v>13.003333333333334</v>
       </c>
       <c r="R20">
         <f t="shared" si="5"/>
-        <v>12.916937509273122</v>
+        <v>12.949474177939177</v>
       </c>
       <c r="S20">
         <f t="shared" si="18"/>
-        <v>3.8329874254181426</v>
+        <v>1.6115603443177624</v>
       </c>
       <c r="T20">
-        <f>'Cap Curves'!I8</f>
-        <v>13.04</v>
+        <f>'Cap Curves'!I7</f>
+        <v>13.043333333333333</v>
       </c>
       <c r="U20">
         <f t="shared" si="6"/>
-        <v>12.971312912373676</v>
+        <v>12.997426724505619</v>
       </c>
       <c r="V20">
         <f t="shared" si="19"/>
-        <v>2.6210644481034153</v>
+        <v>1.1707870744781952</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B21">
-        <f>'Cap Curves'!C9</f>
-        <v>11.9</v>
+        <f>'Cap Curves'!C8</f>
+        <v>11.95</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>11.693106641659902</v>
+        <v>11.737704849502094</v>
       </c>
       <c r="D21">
         <f t="shared" si="7"/>
-        <v>2.9725598420308477</v>
+        <v>3.1298077031200067</v>
       </c>
       <c r="E21">
-        <f>'Cap Curves'!D9</f>
-        <v>12.5</v>
+        <f>'Cap Curves'!D8</f>
+        <v>12.6</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>12.398769535866373</v>
+        <v>12.443367743708565</v>
       </c>
       <c r="G21">
         <f t="shared" si="14"/>
-        <v>5.6931149270608348</v>
+        <v>13.629813172747548</v>
       </c>
       <c r="H21">
-        <f>'Cap Curves'!E9</f>
-        <v>12.65</v>
+        <f>'Cap Curves'!E8</f>
+        <v>12.71</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>12.515604476107436</v>
+        <v>12.560202683949628</v>
       </c>
       <c r="J21">
         <f t="shared" si="15"/>
-        <v>10.034531579087151</v>
+        <v>12.466242164386289</v>
       </c>
       <c r="K21">
-        <f>'Cap Curves'!F9</f>
-        <v>12.79</v>
+        <f>'Cap Curves'!F8</f>
+        <v>12.831250000000001</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>12.65259697660499</v>
+        <v>12.707963337013783</v>
       </c>
       <c r="M21">
         <f t="shared" si="16"/>
-        <v>10.488661576716396</v>
+        <v>8.4442229279317331</v>
       </c>
       <c r="N21">
-        <f>'Cap Curves'!G9</f>
-        <v>12.9</v>
+        <f>'Cap Curves'!G8</f>
+        <v>12.91</v>
       </c>
       <c r="O21">
         <f t="shared" si="4"/>
-        <v>12.797884176747626</v>
+        <v>12.831606888470063</v>
       </c>
       <c r="P21">
         <f t="shared" si="17"/>
-        <v>5.7931340880611844</v>
+        <v>3.4141555196362292</v>
       </c>
       <c r="Q21">
-        <f>'Cap Curves'!H9</f>
-        <v>12.97</v>
+        <f>'Cap Curves'!H8</f>
+        <v>13</v>
       </c>
       <c r="R21">
         <f t="shared" si="5"/>
-        <v>12.894983815007649</v>
+        <v>12.916937509273122</v>
       </c>
       <c r="S21">
         <f t="shared" si="18"/>
-        <v>3.1263488948926428</v>
+        <v>3.8329874254181426</v>
       </c>
       <c r="T21">
-        <f>'Cap Curves'!I9</f>
-        <v>13.01</v>
+        <f>'Cap Curves'!I8</f>
+        <v>13.04</v>
       </c>
       <c r="U21">
         <f t="shared" si="6"/>
-        <v>12.955576936829443</v>
+        <v>12.971312912373676</v>
       </c>
       <c r="V21">
         <f t="shared" si="19"/>
-        <v>1.6454832249257789</v>
+        <v>2.6210644481034153</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="B22">
-        <f>'Cap Curves'!C10</f>
-        <v>11.76</v>
+        <f>'Cap Curves'!C9</f>
+        <v>11.9</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>11.630866222328329</v>
+        <v>11.693106641659902</v>
       </c>
       <c r="D22">
         <f t="shared" si="7"/>
-        <v>1.1580230927608637</v>
+        <v>2.9725598420308477</v>
       </c>
       <c r="E22">
-        <f>'Cap Curves'!D10</f>
-        <v>12.37</v>
+        <f>'Cap Curves'!D9</f>
+        <v>12.5</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>12.336529116534802</v>
+        <v>12.398769535866373</v>
       </c>
       <c r="G22">
-        <f>((F22-E22)/12*100)^2*8</f>
-        <v>0.62238891107823358</v>
+        <f t="shared" si="14"/>
+        <v>5.6931149270608348</v>
       </c>
       <c r="H22">
-        <f>'Cap Curves'!E10</f>
-        <v>12.49</v>
+        <f>'Cap Curves'!E9</f>
+        <v>12.65</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>12.453364056775865</v>
+        <v>12.515604476107436</v>
       </c>
       <c r="J22">
-        <f>((I22-H22)/12*100)^2*8</f>
-        <v>0.74566240884560642</v>
+        <f t="shared" si="15"/>
+        <v>10.034531579087151</v>
       </c>
       <c r="K22">
-        <f>'Cap Curves'!F10</f>
-        <v>12.65</v>
+        <f>'Cap Curves'!F9</f>
+        <v>12.79</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>12.592805101403084</v>
+        <v>12.65259697660499</v>
       </c>
       <c r="M22">
-        <f>((L22-K22)/12*100)^2*8</f>
-        <v>1.8173646808397781</v>
+        <f t="shared" si="16"/>
+        <v>10.488661576716396</v>
       </c>
       <c r="N22">
-        <f>'Cap Curves'!G10</f>
-        <v>12.84</v>
+        <f>'Cap Curves'!G9</f>
+        <v>12.9</v>
       </c>
       <c r="O22">
         <f t="shared" si="4"/>
-        <v>12.760312443751097</v>
+        <v>12.797884176747626</v>
       </c>
       <c r="P22">
-        <f>((O22-N22)/12*100)^2*8</f>
-        <v>3.5278370116233591</v>
+        <f t="shared" si="17"/>
+        <v>5.7931340880611844</v>
       </c>
       <c r="Q22">
-        <f>'Cap Curves'!H10</f>
-        <v>12.91</v>
+        <f>'Cap Curves'!H9</f>
+        <v>12.97</v>
       </c>
       <c r="R22">
         <f t="shared" si="5"/>
-        <v>12.869092096711494</v>
+        <v>12.894983815007649</v>
       </c>
       <c r="S22">
-        <f>((R22-Q22)/12*100)^2*8</f>
-        <v>0.92969808414542332</v>
+        <f t="shared" si="18"/>
+        <v>3.1263488948926428</v>
       </c>
       <c r="T22">
-        <f>'Cap Curves'!I10</f>
-        <v>12.95</v>
+        <f>'Cap Curves'!I9</f>
+        <v>13.01</v>
       </c>
       <c r="U22">
         <f t="shared" si="6"/>
-        <v>12.938278089573135</v>
+        <v>12.955576936829443</v>
       </c>
       <c r="V22">
-        <f>((U22-T22)/12*100)^2*8</f>
-        <v>7.6335102253015527E-2</v>
+        <f t="shared" si="19"/>
+        <v>1.6454832249257789</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.3</v>
+        <v>0.4</v>
+      </c>
+      <c r="B23">
+        <f>'Cap Curves'!C10</f>
+        <v>11.76</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C27" si="20">4*(B$8+B$7*(-LN($A23))^B$6 + B$9*$A23 + B$11*EXP(B$10*($A23-1)))</f>
-        <v>11.513641466843254</v>
+        <f t="shared" si="0"/>
+        <v>11.630866222328329</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="7"/>
+        <v>1.1580230927608637</v>
       </c>
       <c r="E23">
-        <f>'Cap Curves'!D11</f>
-        <v>11.97</v>
+        <f>'Cap Curves'!D10</f>
+        <v>12.37</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>12.219304361049723</v>
+        <v>12.336529116534802</v>
       </c>
       <c r="G23">
-        <f t="shared" si="8"/>
-        <v>4.3161572526673728</v>
+        <f>((F23-E23)/12*100)^2*8</f>
+        <v>0.62238891107823358</v>
       </c>
       <c r="H23">
-        <f>'Cap Curves'!E11</f>
-        <v>12.25</v>
+        <f>'Cap Curves'!E10</f>
+        <v>12.49</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>12.336139301290785</v>
+        <v>12.453364056775865</v>
       </c>
       <c r="J23">
-        <f t="shared" si="9"/>
-        <v>0.51527633519893778</v>
+        <f>((I23-H23)/12*100)^2*8</f>
+        <v>0.74566240884560642</v>
       </c>
       <c r="K23">
-        <f>'Cap Curves'!F11</f>
-        <v>12.41</v>
+        <f>'Cap Curves'!F10</f>
+        <v>12.65</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>12.509533719658675</v>
+        <v>12.592805101403084</v>
       </c>
       <c r="M23">
-        <f t="shared" si="10"/>
-        <v>0.68798342702025694</v>
+        <f>((L23-K23)/12*100)^2*8</f>
+        <v>1.8173646808397781</v>
       </c>
       <c r="N23">
-        <f>'Cap Curves'!G11</f>
-        <v>12.7</v>
+        <f>'Cap Curves'!G10</f>
+        <v>12.84</v>
       </c>
       <c r="O23">
         <f t="shared" si="4"/>
-        <v>12.700635400087616</v>
+        <v>12.760312443751097</v>
       </c>
       <c r="P23">
-        <f t="shared" si="11"/>
-        <v>2.8037032732218387E-5</v>
+        <f>((O23-N23)/12*100)^2*8</f>
+        <v>3.5278370116233591</v>
       </c>
       <c r="Q23">
-        <f>'Cap Curves'!H11</f>
-        <v>12.77</v>
+        <f>'Cap Curves'!H10</f>
+        <v>12.91</v>
       </c>
       <c r="R23">
         <f t="shared" si="5"/>
-        <v>12.820882910600099</v>
+        <v>12.869092096711494</v>
       </c>
       <c r="S23">
-        <f t="shared" si="12"/>
-        <v>0.17979656882901077</v>
+        <f>((R23-Q23)/12*100)^2*8</f>
+        <v>0.92969808414542332</v>
       </c>
       <c r="T23">
-        <f>'Cap Curves'!I11</f>
-        <v>12.87</v>
+        <f>'Cap Curves'!I10</f>
+        <v>12.95</v>
       </c>
       <c r="U23">
         <f t="shared" si="6"/>
-        <v>12.904323459173444</v>
+        <v>12.938278089573135</v>
       </c>
       <c r="V23">
-        <f t="shared" si="13"/>
-        <v>8.1812489557717041E-2</v>
+        <f>((U23-T23)/12*100)^2*8</f>
+        <v>7.6335102253015527E-2</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C24">
-        <f t="shared" si="20"/>
-        <v>11.272522352376143</v>
+        <f t="shared" ref="C24:C28" si="20">4*(B$9+B$8*(-LN($A24))^B$7 + B$10*$A24 + B$12*EXP(B$11*($A24-1)))</f>
+        <v>11.513641466843254</v>
       </c>
       <c r="E24">
-        <f>'Cap Curves'!D12</f>
-        <v>11.4</v>
+        <f>'Cap Curves'!D11</f>
+        <v>11.97</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>11.978185246582612</v>
+        <v>12.219304361049723</v>
       </c>
       <c r="G24">
         <f t="shared" si="8"/>
-        <v>23.215151344846898</v>
+        <v>4.3161572526673728</v>
       </c>
       <c r="H24">
-        <f>'Cap Curves'!E12</f>
-        <v>11.78</v>
+        <f>'Cap Curves'!E11</f>
+        <v>12.25</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>12.095020186823675</v>
+        <v>12.336139301290785</v>
       </c>
       <c r="J24">
         <f t="shared" si="9"/>
-        <v>6.8915082018349496</v>
+        <v>0.51527633519893778</v>
       </c>
       <c r="K24">
-        <f>'Cap Curves'!F12</f>
-        <v>12.15</v>
+        <f>'Cap Curves'!F11</f>
+        <v>12.41</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>12.367777022112602</v>
+        <v>12.509533719658675</v>
       </c>
       <c r="M24">
         <f t="shared" si="10"/>
-        <v>3.2935299555716999</v>
+        <v>0.68798342702025694</v>
       </c>
       <c r="N24">
-        <f>'Cap Curves'!G12</f>
-        <v>12.4</v>
+        <f>'Cap Curves'!G11</f>
+        <v>12.7</v>
       </c>
       <c r="O24">
         <f t="shared" si="4"/>
-        <v>12.585326090090515</v>
+        <v>12.700635400087616</v>
       </c>
       <c r="P24">
         <f t="shared" si="11"/>
-        <v>2.3851221991831597</v>
+        <v>2.8037032732218387E-5</v>
       </c>
       <c r="Q24">
-        <f>'Cap Curves'!H12</f>
-        <v>12.55</v>
+        <f>'Cap Curves'!H11</f>
+        <v>12.77</v>
       </c>
       <c r="R24">
         <f t="shared" si="5"/>
-        <v>12.716600986130778</v>
+        <v>12.820882910600099</v>
       </c>
       <c r="S24">
         <f t="shared" si="12"/>
-        <v>1.9274922624824726</v>
+        <v>0.17979656882901077</v>
       </c>
       <c r="T24">
-        <f>'Cap Curves'!I12</f>
-        <v>12.66</v>
+        <f>'Cap Curves'!I11</f>
+        <v>12.87</v>
       </c>
       <c r="U24">
         <f t="shared" si="6"/>
-        <v>12.826050649375436</v>
+        <v>12.904323459173444</v>
       </c>
       <c r="V24">
         <f t="shared" si="13"/>
-        <v>1.9147790387502641</v>
+        <v>8.1812489557717041E-2</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C25">
         <f t="shared" si="20"/>
-        <v>10.71123010457968</v>
+        <v>11.272522352376143</v>
       </c>
       <c r="E25">
-        <f>'Cap Curves'!D13</f>
-        <v>10.1</v>
+        <f>'Cap Curves'!D12</f>
+        <v>11.4</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>11.41689299878615</v>
+        <v>11.978185246582612</v>
       </c>
       <c r="G25">
         <f t="shared" si="8"/>
-        <v>120.43105348972077</v>
+        <v>23.215151344846898</v>
       </c>
       <c r="H25">
-        <f>'Cap Curves'!E13</f>
-        <v>11.05</v>
+        <f>'Cap Curves'!E12</f>
+        <v>11.78</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>11.533727939027212</v>
+        <v>12.095020186823675</v>
       </c>
       <c r="J25">
         <f t="shared" si="9"/>
-        <v>16.249494374688446</v>
+        <v>6.8915082018349496</v>
       </c>
       <c r="K25">
-        <f>'Cap Curves'!F13</f>
-        <v>11.59</v>
+        <f>'Cap Curves'!F12</f>
+        <v>12.15</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>12.068146279937437</v>
+        <v>12.367777022112602</v>
       </c>
       <c r="M25">
         <f t="shared" si="10"/>
-        <v>15.876657292917379</v>
+        <v>3.2935299555716999</v>
       </c>
       <c r="N25">
-        <f>'Cap Curves'!G13</f>
-        <v>11.85</v>
+        <f>'Cap Curves'!G12</f>
+        <v>12.4</v>
       </c>
       <c r="O25">
         <f t="shared" si="4"/>
-        <v>12.31922199096425</v>
+        <v>12.585326090090515</v>
       </c>
       <c r="P25">
         <f t="shared" si="11"/>
-        <v>15.289533111420486</v>
+        <v>2.3851221991831597</v>
       </c>
       <c r="Q25">
-        <f>'Cap Curves'!H13</f>
-        <v>12.2</v>
+        <f>'Cap Curves'!H12</f>
+        <v>12.55</v>
       </c>
       <c r="R25">
         <f t="shared" si="5"/>
-        <v>12.460431331790987</v>
+        <v>12.716600986130778</v>
       </c>
       <c r="S25">
         <f t="shared" si="12"/>
-        <v>4.7100332346130376</v>
+        <v>1.9274922624824726</v>
       </c>
       <c r="T25">
-        <f>'Cap Curves'!I13</f>
-        <v>12.43</v>
+        <f>'Cap Curves'!I12</f>
+        <v>12.66</v>
       </c>
       <c r="U25">
         <f t="shared" si="6"/>
-        <v>12.625056630335575</v>
+        <v>12.826050649375436</v>
       </c>
       <c r="V25">
         <f t="shared" si="13"/>
-        <v>2.6421589609631346</v>
+        <v>1.9147790387502641</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C26">
         <f t="shared" si="20"/>
-        <v>10.056259937733962</v>
+        <v>10.71123010457968</v>
       </c>
       <c r="E26">
-        <f>'Cap Curves'!D14</f>
-        <v>0</v>
+        <f>'Cap Curves'!D13</f>
+        <v>10.1</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F27" si="21">(C$8+C$7*(-LN($A26))^C$6 + C$9*$A26 + C$11*EXP(C$10*($A26-1)))*4</f>
-        <v>10.761922831940431</v>
+        <f t="shared" si="1"/>
+        <v>11.41689299878615</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="8"/>
+        <v>120.43105348972077</v>
       </c>
       <c r="H26">
-        <f>'Cap Curves'!E14</f>
-        <v>10.1</v>
+        <f>'Cap Curves'!E13</f>
+        <v>11.05</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>10.878757772181494</v>
+        <v>11.533727939027212</v>
       </c>
       <c r="J26">
         <f t="shared" si="9"/>
-        <v>42.115532481464193</v>
+        <v>16.249494374688446</v>
       </c>
       <c r="K26">
-        <f>'Cap Curves'!F14</f>
-        <v>10.95</v>
+        <f>'Cap Curves'!F13</f>
+        <v>11.59</v>
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
-        <v>11.73054179566167</v>
+        <v>12.068146279937437</v>
       </c>
       <c r="M26">
         <f t="shared" si="10"/>
-        <v>42.308714914912912</v>
+        <v>15.876657292917379</v>
       </c>
       <c r="N26">
-        <f>'Cap Curves'!G14</f>
-        <v>11.3</v>
+        <f>'Cap Curves'!G13</f>
+        <v>11.85</v>
       </c>
       <c r="O26">
         <f t="shared" si="4"/>
-        <v>12.006517216642484</v>
+        <v>12.31922199096425</v>
       </c>
       <c r="P26">
         <f t="shared" si="11"/>
-        <v>34.664345653627905</v>
+        <v>15.289533111420486</v>
       </c>
       <c r="Q26">
-        <f>'Cap Curves'!H14</f>
-        <v>11.6</v>
+        <f>'Cap Curves'!H13</f>
+        <v>12.2</v>
       </c>
       <c r="R26">
         <f t="shared" si="5"/>
-        <v>12.151437632178304</v>
+        <v>12.460431331790987</v>
       </c>
       <c r="S26">
         <f t="shared" si="12"/>
-        <v>21.116907096001036</v>
+        <v>4.7100332346130376</v>
       </c>
       <c r="T26">
-        <f>'Cap Curves'!I14</f>
-        <v>12.1</v>
+        <f>'Cap Curves'!I13</f>
+        <v>12.43</v>
       </c>
       <c r="U26">
         <f t="shared" si="6"/>
-        <v>12.377172654874936</v>
+        <v>12.625056630335575</v>
       </c>
       <c r="V26">
         <f t="shared" si="13"/>
-        <v>5.3350472646125517</v>
+        <v>2.6421589609631346</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="C27">
         <f t="shared" si="20"/>
+        <v>10.056259937733962</v>
+      </c>
+      <c r="E27">
+        <f>'Cap Curves'!D14</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F28" si="21">(C$9+C$8*(-LN($A27))^C$7 + C$10*$A27 + C$12*EXP(C$11*($A27-1)))*4</f>
+        <v>10.761922831940431</v>
+      </c>
+      <c r="H27">
+        <f>'Cap Curves'!E14</f>
+        <v>10.1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>10.878757772181494</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="9"/>
+        <v>42.115532481464193</v>
+      </c>
+      <c r="K27">
+        <f>'Cap Curves'!F14</f>
+        <v>10.95</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>11.73054179566167</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="10"/>
+        <v>42.308714914912912</v>
+      </c>
+      <c r="N27">
+        <f>'Cap Curves'!G14</f>
+        <v>11.3</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>12.006517216642484</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="11"/>
+        <v>34.664345653627905</v>
+      </c>
+      <c r="Q27">
+        <f>'Cap Curves'!H14</f>
+        <v>11.6</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>12.151437632178304</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="12"/>
+        <v>21.116907096001036</v>
+      </c>
+      <c r="T27">
+        <f>'Cap Curves'!I14</f>
+        <v>12.1</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="6"/>
+        <v>12.377172654874936</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="13"/>
+        <v>5.3350472646125517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1E-3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="20"/>
         <v>6.5187419397108455</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <f>'Cap Curves'!D15</f>
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <f t="shared" si="21"/>
         <v>7.2244048339173172</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <f t="shared" si="2"/>
         <v>7.3412397741583799</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <f>'Cap Curves'!F15</f>
         <v>10.1</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <f t="shared" si="3"/>
         <v>9.9367442821549403</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <f t="shared" si="10"/>
         <v>1.850863153410113</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <f>'Cap Curves'!G15</f>
         <v>10.45</v>
       </c>
-      <c r="O27">
+      <c r="O28">
         <f t="shared" si="4"/>
         <v>10.299613848224887</v>
       </c>
-      <c r="P27">
+      <c r="P28">
         <f t="shared" si="11"/>
         <v>1.5705551837310558</v>
       </c>
-      <c r="Q27">
+      <c r="Q28">
         <f>'Cap Curves'!H15</f>
         <v>10.51</v>
       </c>
-      <c r="R27">
+      <c r="R28">
         <f t="shared" si="5"/>
         <v>10.438523136048317</v>
       </c>
-      <c r="S27">
+      <c r="S28">
         <f t="shared" si="12"/>
         <v>0.35478764446995131</v>
       </c>
-      <c r="T27">
+      <c r="T28">
         <f>'Cap Curves'!I15</f>
         <v>11</v>
       </c>
-      <c r="U27">
+      <c r="U28">
         <f t="shared" si="6"/>
         <v>10.981614391065904</v>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f t="shared" si="13"/>
         <v>2.3474348324828032E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D28">
-        <f>SQRT(SUM(D14:D27))</f>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f>SQRT(SUM(D15:D28))</f>
         <v>6.1856086199941389</v>
       </c>
-      <c r="G28">
-        <f>SQRT(SUM(G14:G27))</f>
+      <c r="G29">
+        <f>SQRT(SUM(G15:G28))</f>
         <v>16.786521989031396</v>
       </c>
-      <c r="J28">
-        <f>SQRT(SUM(J14:J27))</f>
+      <c r="J29">
+        <f>SQRT(SUM(J15:J28))</f>
         <v>14.157466357722431</v>
       </c>
-      <c r="M28">
-        <f>SQRT(SUM(M14:M27))</f>
+      <c r="M29">
+        <f>SQRT(SUM(M15:M28))</f>
         <v>10.875083607510049</v>
       </c>
-      <c r="P28">
-        <f>SQRT(SUM(P14:P27))</f>
+      <c r="P29">
+        <f>SQRT(SUM(P15:P28))</f>
         <v>9.5626456942353624</v>
       </c>
-      <c r="S28">
-        <f>SQRT(SUM(S14:S27))</f>
+      <c r="S29">
+        <f>SQRT(SUM(S15:S28))</f>
         <v>7.6755132058997004</v>
       </c>
-      <c r="V28">
-        <f>SQRT(SUM(V14:V27))</f>
+      <c r="V29">
+        <f>SQRT(SUM(V15:V28))</f>
         <v>5.2042768238387334</v>
       </c>
     </row>

--- a/SOC_Photon/Battery State/BattleBorn.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn.xlsx
@@ -21721,16 +21721,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23237,7 +23237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>

--- a/SOC_Photon/Battery State/BattleBorn.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn.xlsx
@@ -7,12 +7,15 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculator" sheetId="7" r:id="rId1"/>
+    <sheet name="BattleBorn Calculator" sheetId="7" r:id="rId1"/>
     <sheet name="Cheat Sheet Chart" sheetId="6" r:id="rId2"/>
     <sheet name="Cheat Sheet" sheetId="5" r:id="rId3"/>
     <sheet name="Cap Curves" sheetId="3" r:id="rId4"/>
     <sheet name="Model Build" sheetId="4" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Model Build'!$A$15:$L$28</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'Model Build'!$C$9</definedName>
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>d</t>
   </si>
@@ -240,9 +243,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Battery Temp</t>
-  </si>
-  <si>
     <t>Observed Voltage</t>
   </si>
   <si>
@@ -260,13 +260,20 @@
   <si>
     <t>password to unprotect = 'unprotect'</t>
   </si>
+  <si>
+    <t>Battery Temp (14 - 120 )</t>
+  </si>
+  <si>
+    <t>14-120</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -528,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -544,7 +551,7 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -562,15 +569,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -588,9 +595,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -603,6 +607,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2405,11 +2412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556975008"/>
-        <c:axId val="556981672"/>
+        <c:axId val="561954872"/>
+        <c:axId val="561949776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556975008"/>
+        <c:axId val="561954872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2524,12 +2531,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556981672"/>
+        <c:crossAx val="561949776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556981672"/>
+        <c:axId val="561949776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.1"/>
@@ -2644,7 +2651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556975008"/>
+        <c:crossAx val="561954872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3111,11 +3118,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428625664"/>
-        <c:axId val="428627232"/>
+        <c:axId val="561958792"/>
+        <c:axId val="561950560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428625664"/>
+        <c:axId val="561958792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3173,12 +3180,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428627232"/>
+        <c:crossAx val="561950560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428627232"/>
+        <c:axId val="561950560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3237,7 +3244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428625664"/>
+        <c:crossAx val="561958792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3252,7 +3259,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3364,7 +3370,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3702,11 +3707,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428628800"/>
-        <c:axId val="428626056"/>
+        <c:axId val="561955264"/>
+        <c:axId val="561950952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428628800"/>
+        <c:axId val="561955264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3764,12 +3769,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428626056"/>
+        <c:crossAx val="561950952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428626056"/>
+        <c:axId val="561950952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3828,7 +3833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428628800"/>
+        <c:crossAx val="561955264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3843,7 +3848,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3955,7 +3959,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4293,11 +4296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428626840"/>
-        <c:axId val="427157856"/>
+        <c:axId val="561964280"/>
+        <c:axId val="561961928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428626840"/>
+        <c:axId val="561964280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4355,12 +4358,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427157856"/>
+        <c:crossAx val="561961928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="427157856"/>
+        <c:axId val="561961928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4419,7 +4422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428626840"/>
+        <c:crossAx val="561964280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -4434,7 +4437,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4541,7 +4543,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4897,11 +4898,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430520344"/>
-        <c:axId val="430521128"/>
+        <c:axId val="561967024"/>
+        <c:axId val="561965456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430520344"/>
+        <c:axId val="561967024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4958,7 +4959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430521128"/>
+        <c:crossAx val="561965456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4966,7 +4967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430521128"/>
+        <c:axId val="561965456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5023,7 +5024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430520344"/>
+        <c:crossAx val="561967024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5037,7 +5038,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5144,7 +5144,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6111,11 +6110,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430515640"/>
-        <c:axId val="430519952"/>
+        <c:axId val="561963104"/>
+        <c:axId val="561968592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430515640"/>
+        <c:axId val="561963104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6173,12 +6172,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430519952"/>
+        <c:crossAx val="561968592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430519952"/>
+        <c:axId val="561968592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -6237,7 +6236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430515640"/>
+        <c:crossAx val="561963104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6251,7 +6250,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6371,7 +6369,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7457,11 +7454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430510544"/>
-        <c:axId val="430510936"/>
+        <c:axId val="561963496"/>
+        <c:axId val="561968200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430510544"/>
+        <c:axId val="561963496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7583,13 +7580,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430510936"/>
+        <c:crossAx val="561968200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430510936"/>
+        <c:axId val="561968200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7637,7 +7634,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7704,7 +7700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430510544"/>
+        <c:crossAx val="561963496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7847,7 +7843,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8933,11 +8928,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428613120"/>
-        <c:axId val="428613512"/>
+        <c:axId val="561950168"/>
+        <c:axId val="561959968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428613120"/>
+        <c:axId val="561950168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9059,13 +9054,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428613512"/>
+        <c:crossAx val="561959968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428613512"/>
+        <c:axId val="561959968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -9113,7 +9108,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9180,7 +9174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428613120"/>
+        <c:crossAx val="561950168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9310,7 +9304,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10258,11 +10251,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428624488"/>
-        <c:axId val="428618608"/>
+        <c:axId val="561953696"/>
+        <c:axId val="561948992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428624488"/>
+        <c:axId val="561953696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10383,13 +10376,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428618608"/>
+        <c:crossAx val="561948992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428618608"/>
+        <c:axId val="561948992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -10442,7 +10435,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10509,7 +10501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428624488"/>
+        <c:crossAx val="561953696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10614,7 +10606,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10805,11 +10796,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428614688"/>
-        <c:axId val="428616256"/>
+        <c:axId val="561951344"/>
+        <c:axId val="561956440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428614688"/>
+        <c:axId val="561951344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10866,12 +10857,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428616256"/>
+        <c:crossAx val="561956440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428616256"/>
+        <c:axId val="561956440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10928,7 +10919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428614688"/>
+        <c:crossAx val="561951344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11245,11 +11236,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428617040"/>
-        <c:axId val="428617432"/>
+        <c:axId val="561952520"/>
+        <c:axId val="561949384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428617040"/>
+        <c:axId val="561952520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11306,12 +11297,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428617432"/>
+        <c:crossAx val="561949384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428617432"/>
+        <c:axId val="561949384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5"/>
@@ -11370,7 +11361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428617040"/>
+        <c:crossAx val="561952520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11459,7 +11450,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11782,11 +11772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428618216"/>
-        <c:axId val="428619000"/>
+        <c:axId val="561958400"/>
+        <c:axId val="561955656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428618216"/>
+        <c:axId val="561958400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11844,12 +11834,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428619000"/>
+        <c:crossAx val="561955656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428619000"/>
+        <c:axId val="561955656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.5"/>
@@ -11908,7 +11898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428618216"/>
+        <c:crossAx val="561958400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11922,7 +11912,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12034,7 +12023,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12372,11 +12360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428619784"/>
-        <c:axId val="428621744"/>
+        <c:axId val="561954480"/>
+        <c:axId val="561956048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428619784"/>
+        <c:axId val="561954480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12434,12 +12422,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428621744"/>
+        <c:crossAx val="561956048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428621744"/>
+        <c:axId val="561956048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -12498,7 +12486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428619784"/>
+        <c:crossAx val="561954480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -12513,7 +12501,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12625,7 +12612,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12963,11 +12949,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428620960"/>
-        <c:axId val="428624096"/>
+        <c:axId val="561957224"/>
+        <c:axId val="561952912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428620960"/>
+        <c:axId val="561957224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13025,12 +13011,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428624096"/>
+        <c:crossAx val="561952912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428624096"/>
+        <c:axId val="561952912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -13089,7 +13075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428620960"/>
+        <c:crossAx val="561957224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -13104,7 +13090,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13216,7 +13201,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13551,11 +13535,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428620568"/>
-        <c:axId val="428622920"/>
+        <c:axId val="561953304"/>
+        <c:axId val="561957616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428620568"/>
+        <c:axId val="561953304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13613,12 +13597,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428622920"/>
+        <c:crossAx val="561957616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428622920"/>
+        <c:axId val="561957616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -13677,7 +13661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428620568"/>
+        <c:crossAx val="561953304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -13692,7 +13676,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22731,6 +22714,181 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="BattleBorn Calculator"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="L2">
+            <v>-10</v>
+          </cell>
+          <cell r="M2">
+            <v>0.47799999999999998</v>
+          </cell>
+          <cell r="N2">
+            <v>-1.143251503157807</v>
+          </cell>
+          <cell r="O2">
+            <v>3.3483399767315909</v>
+          </cell>
+          <cell r="P2">
+            <v>-1.7704346329793603</v>
+          </cell>
+          <cell r="Q2">
+            <v>0.4</v>
+          </cell>
+          <cell r="R2">
+            <v>1.734</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="L3">
+            <v>0</v>
+          </cell>
+          <cell r="M3">
+            <v>0.47799999999999998</v>
+          </cell>
+          <cell r="N3">
+            <v>-1.143251503157807</v>
+          </cell>
+          <cell r="O3">
+            <v>3.5247557002832086</v>
+          </cell>
+          <cell r="P3">
+            <v>-1.7704346329793603</v>
+          </cell>
+          <cell r="Q3">
+            <v>0.4</v>
+          </cell>
+          <cell r="R3">
+            <v>1.734</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="L4">
+            <v>10</v>
+          </cell>
+          <cell r="M4">
+            <v>0.47799999999999998</v>
+          </cell>
+          <cell r="N4">
+            <v>-1.143251503157807</v>
+          </cell>
+          <cell r="O4">
+            <v>3.5539644353434743</v>
+          </cell>
+          <cell r="P4">
+            <v>-1.7704346329793603</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.4</v>
+          </cell>
+          <cell r="R4">
+            <v>1.734</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>20</v>
+          </cell>
+          <cell r="M5">
+            <v>0.47799999999999998</v>
+          </cell>
+          <cell r="N5">
+            <v>-0.57795540028306935</v>
+          </cell>
+          <cell r="O5">
+            <v>2.7782710208104895</v>
+          </cell>
+          <cell r="P5">
+            <v>-1.0994517959124805</v>
+          </cell>
+          <cell r="Q5">
+            <v>0.4</v>
+          </cell>
+          <cell r="R5">
+            <v>1.734</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>30</v>
+          </cell>
+          <cell r="M6">
+            <v>0.47799999999999998</v>
+          </cell>
+          <cell r="N6">
+            <v>-0.55329798798696006</v>
+          </cell>
+          <cell r="O6">
+            <v>2.8069059976624819</v>
+          </cell>
+          <cell r="P6">
+            <v>-1.1254678290104727</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.4</v>
+          </cell>
+          <cell r="R6">
+            <v>1.734</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>40</v>
+          </cell>
+          <cell r="M7">
+            <v>0.47799999999999998</v>
+          </cell>
+          <cell r="N7">
+            <v>-0.55710475700016193</v>
+          </cell>
+          <cell r="O7">
+            <v>2.8512557761146389</v>
+          </cell>
+          <cell r="P7">
+            <v>-1.1592275633503999</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.4</v>
+          </cell>
+          <cell r="R7">
+            <v>1.734</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>50.000010000000003</v>
+          </cell>
+          <cell r="M8">
+            <v>0.47799999999999998</v>
+          </cell>
+          <cell r="N8">
+            <v>-0.45551626024511238</v>
+          </cell>
+          <cell r="O8">
+            <v>2.7310417617626701</v>
+          </cell>
+          <cell r="P8">
+            <v>-1.0590283827915401</v>
+          </cell>
+          <cell r="Q8">
+            <v>0.4</v>
+          </cell>
+          <cell r="R8">
+            <v>1.734</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -23018,10 +23176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23029,579 +23187,590 @@
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.109375" customWidth="1"/>
-    <col min="5" max="8" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" style="15" hidden="1" customWidth="1"/>
-    <col min="10" max="17" width="8.88671875" style="15" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="0" style="15" hidden="1" customWidth="1"/>
-    <col min="21" max="27" width="8.88671875" style="15"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="9" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="21" width="8.88671875" style="15" hidden="1" customWidth="1"/>
+    <col min="22" max="28" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="25"/>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="12">
-        <f>(0.0018+0.004)*G10</f>
+      <c r="H2" s="12">
+        <f>(0.0018+0.004)*H10</f>
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="18">
+      <c r="L2" s="18">
         <v>-10</v>
       </c>
-      <c r="L2" s="18">
+      <c r="M2" s="18">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M2" s="19">
+      <c r="N2" s="19">
         <v>-1.143251503157807</v>
       </c>
-      <c r="N2" s="20">
+      <c r="O2" s="20">
         <v>3.3483399767315909</v>
       </c>
-      <c r="O2" s="20">
+      <c r="P2" s="20">
         <v>-1.7704346329793603</v>
       </c>
-      <c r="P2" s="21">
+      <c r="Q2" s="21">
         <v>0.4</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="R2" s="21">
         <v>1.734</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="36">
-        <v>74.63</v>
+        <v>61</v>
+      </c>
+      <c r="C3" s="35">
+        <v>120</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="14">
-        <f ca="1">FORECAST(G$11,OFFSET(Calculator!$L$2:$L$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+      <c r="H3" s="14">
+        <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$M$2:$M$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
-      <c r="K3" s="18">
+      <c r="L3" s="18">
         <v>0</v>
       </c>
-      <c r="L3" s="18">
+      <c r="M3" s="18">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M3" s="19">
+      <c r="N3" s="19">
         <v>-1.143251503157807</v>
       </c>
-      <c r="N3" s="20">
+      <c r="O3" s="20">
         <v>3.5247557002832086</v>
       </c>
-      <c r="O3" s="20">
+      <c r="P3" s="20">
         <v>-1.7704346329793603</v>
       </c>
-      <c r="P3" s="21">
+      <c r="Q3" s="21">
         <v>0.4</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="R3" s="21">
         <v>1.734</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="37">
-        <v>13.12</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="36">
+        <v>13.7</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14">
-        <f ca="1">FORECAST(G$11,OFFSET(Calculator!$M$2:$M$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2))</f>
-        <v>-0.56887325342066908</v>
-      </c>
-      <c r="K4" s="18">
+      <c r="H4" s="14">
+        <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$N$2:$N$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-0.46680396129646923</v>
+      </c>
+      <c r="L4" s="18">
         <v>10</v>
       </c>
-      <c r="L4" s="18">
+      <c r="M4" s="18">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M4" s="19">
+      <c r="N4" s="19">
         <v>-1.143251503157807</v>
       </c>
-      <c r="N4" s="20">
+      <c r="O4" s="20">
         <v>3.5539644353434743</v>
       </c>
-      <c r="O4" s="20">
+      <c r="P4" s="20">
         <v>-1.7704346329793603</v>
       </c>
-      <c r="P4" s="21">
+      <c r="Q4" s="21">
         <v>0.4</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="R4" s="21">
         <v>1.734</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="38">
-        <v>-0.2</v>
+        <v>58</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="14">
-        <f ca="1">FORECAST(G$11,OFFSET(Calculator!$N$2:$N$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2))</f>
-        <v>2.7888182372843069</v>
-      </c>
-      <c r="K5" s="18">
+      <c r="H5" s="14">
+        <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$O$2:$O$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>2.7443989813252396</v>
+      </c>
+      <c r="L5" s="18">
         <v>20</v>
       </c>
-      <c r="L5" s="18">
+      <c r="M5" s="18">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M5" s="19">
+      <c r="N5" s="19">
         <v>-0.57795540028306935</v>
       </c>
-      <c r="N5" s="20">
+      <c r="O5" s="20">
         <v>2.7782710208104895</v>
       </c>
-      <c r="O5" s="20">
+      <c r="P5" s="20">
         <v>-1.0994517959124805</v>
       </c>
-      <c r="P5" s="21">
+      <c r="Q5" s="21">
         <v>0.4</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="R5" s="21">
         <v>1.734</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="22"/>
       <c r="C6" s="32"/>
       <c r="D6" s="22"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="K6" s="18">
+      <c r="G6" s="6"/>
+      <c r="H6" s="14"/>
+      <c r="L6" s="18">
         <v>30</v>
       </c>
-      <c r="L6" s="18">
+      <c r="M6" s="18">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M6" s="19">
+      <c r="N6" s="19">
         <v>-0.55329798798696006</v>
       </c>
-      <c r="N6" s="20">
+      <c r="O6" s="20">
         <v>2.8069059976624819</v>
       </c>
-      <c r="O6" s="20">
+      <c r="P6" s="20">
         <v>-1.1254678290104727</v>
       </c>
-      <c r="P6" s="21">
+      <c r="Q6" s="21">
         <v>0.4</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="R6" s="21">
         <v>1.734</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A7" s="15"/>
       <c r="B7" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="34">
-        <f ca="1">(FORECAST($E$13,OFFSET($F$13:$F$36,MATCH($E$13,$G$13:$G$36,1)-1,0,2),OFFSET($G$13:$G$36,MATCH($E$13,$G$13:$G$36,1)-1,0,2)))*100</f>
-        <v>92.664771076063346</v>
+        <v>56</v>
+      </c>
+      <c r="C7" s="38">
+        <f ca="1">IF($F$13&gt;=$H$13, IF($F$13&lt;$H$37, (FORECAST($F$13,OFFSET($G$13:$G$37,MATCH($F$13,$H$13:$H$37,1)-1,0,2),OFFSET($H$13:$H$37,MATCH($F$13,$H$13:$H$37,1)-1,0,2)))*100, 100), 0)</f>
+        <v>100</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="14">
-        <f ca="1">FORECAST(G$11,OFFSET(Calculator!$O$2:$O$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2))</f>
-        <v>-1.1090343681035744</v>
-      </c>
-      <c r="K7" s="18">
+      <c r="H7" s="14">
+        <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$P$2:$P$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.0701617141417072</v>
+      </c>
+      <c r="L7" s="18">
         <v>40</v>
       </c>
-      <c r="L7" s="18">
+      <c r="M7" s="18">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M7" s="19">
+      <c r="N7" s="19">
         <v>-0.55710475700016193</v>
       </c>
-      <c r="N7" s="20">
+      <c r="O7" s="20">
         <v>2.8512557761146389</v>
       </c>
-      <c r="O7" s="20">
+      <c r="P7" s="20">
         <v>-1.1592275633503999</v>
       </c>
-      <c r="P7" s="21">
+      <c r="Q7" s="21">
         <v>0.4</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="R7" s="21">
         <v>1.734</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="14">
-        <f ca="1">FORECAST(G$11,OFFSET(Calculator!$P$2:$P$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+      <c r="H8" s="14">
+        <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$Q$2:$Q$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
-      <c r="K8" s="18">
+      <c r="L8" s="18">
         <v>50.000010000000003</v>
       </c>
-      <c r="L8" s="18">
+      <c r="M8" s="18">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M8" s="19">
+      <c r="N8" s="19">
         <v>-0.45551626024511238</v>
       </c>
-      <c r="N8" s="20">
+      <c r="O8" s="20">
         <v>2.7310417617626701</v>
       </c>
-      <c r="O8" s="20">
+      <c r="P8" s="20">
         <v>-1.0590283827915401</v>
       </c>
-      <c r="P8" s="21">
+      <c r="Q8" s="21">
         <v>0.4</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="R8" s="21">
         <v>1.734</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
-      <c r="B9" s="35" t="s">
-        <v>61</v>
+      <c r="B9" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="14">
-        <f ca="1">FORECAST(G$11,OFFSET(Calculator!$Q$2:$Q$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+      <c r="H9" s="14">
+        <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$R$2:$R$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="19"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="13">
+      <c r="H10" s="13">
         <v>4</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F11" s="6" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <f>(C3-32)*5/9</f>
-        <v>23.68333333333333</v>
-      </c>
-      <c r="H11" t="s">
+        <v>48.888888888888886</v>
+      </c>
+      <c r="I11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F12" s="6" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E13">
-        <f>C4-C5*G2</f>
-        <v>13.124639999999999</v>
-      </c>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F13">
+        <f>C4-C5*H2</f>
+        <v>13.7</v>
+      </c>
+      <c r="G13">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F13))^G$3+G$7*$F13+G$9*EXP(G$8*($F13-1)))</f>
-        <v>10.070401238990705</v>
+      <c r="H13" s="9">
+        <f t="shared" ref="H13:H37" ca="1" si="0">H$10*(H$5+H$4*(-LN($G13))^H$3+H$7*$G13+H$9*EXP(H$8*($G13-1)))</f>
+        <v>10.921270435538872</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F14">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.728172043973755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G14" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F14))^G$3+G$7*$F14+G$9*EXP(G$8*($F14-1)))</f>
-        <v>11.493741099745307</v>
+      <c r="H15" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.081908665018233</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G16">
         <v>0.05</v>
       </c>
-      <c r="G15" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F15))^G$3+G$7*$F15+G$9*EXP(G$8*($F15-1)))</f>
-        <v>11.832192742389605</v>
+      <c r="H16" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.352090785033269</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F16">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G17">
         <v>0.1</v>
       </c>
-      <c r="G16" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F16))^G$3+G$7*$F16+G$9*EXP(G$8*($F16-1)))</f>
-        <v>12.160625833498981</v>
+      <c r="H17" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.606764784163836</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G18">
         <v>0.15</v>
       </c>
-      <c r="G17" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F17))^G$3+G$7*$F17+G$9*EXP(G$8*($F17-1)))</f>
-        <v>12.336361553838397</v>
+      <c r="H18" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.736486235725325</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G19">
         <v>0.2</v>
       </c>
-      <c r="G18" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F18))^G$3+G$7*$F18+G$9*EXP(G$8*($F18-1)))</f>
-        <v>12.44790759548447</v>
+      <c r="H19" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.813889478393094</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F19">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G20">
         <v>0.25</v>
       </c>
-      <c r="G19" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F19))^G$3+G$7*$F19+G$9*EXP(G$8*($F19-1)))</f>
-        <v>12.524548993724071</v>
+      <c r="H20" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.863012278596582</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F20">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G21">
         <v>0.3</v>
       </c>
-      <c r="G20" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F20))^G$3+G$7*$F20+G$9*EXP(G$8*($F20-1)))</f>
-        <v>12.579922838616671</v>
+      <c r="H21" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.895052212940437</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F21">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G22">
         <v>0.35</v>
       </c>
-      <c r="G21" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F21))^G$3+G$7*$F21+G$9*EXP(G$8*($F21-1)))</f>
-        <v>12.621642212030867</v>
+      <c r="H22" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.91626384664742</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F22">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G23">
         <v>0.4</v>
       </c>
-      <c r="G22" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F22))^G$3+G$7*$F22+G$9*EXP(G$8*($F22-1)))</f>
-        <v>12.654503639167935</v>
+      <c r="H23" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.930590695534356</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F23">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G24">
         <v>0.45</v>
       </c>
-      <c r="G23" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F23))^G$3+G$7*$F23+G$9*EXP(G$8*($F23-1)))</f>
-        <v>12.681827217551138</v>
+      <c r="H24" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.940764907262137</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F24">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G25">
         <v>0.5</v>
       </c>
-      <c r="G24" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F24))^G$3+G$7*$F24+G$9*EXP(G$8*($F24-1)))</f>
-        <v>12.706111095324195</v>
+      <c r="H25" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.948844313877634</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F25">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G26">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G25" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F25))^G$3+G$7*$F25+G$9*EXP(G$8*($F25-1)))</f>
-        <v>12.729396723249582</v>
+      <c r="H26" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.95651215214469</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F26">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G27">
         <v>0.6</v>
       </c>
-      <c r="G26" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F26))^G$3+G$7*$F26+G$9*EXP(G$8*($F26-1)))</f>
-        <v>12.753505378466848</v>
+      <c r="H27" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.965271152584418</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F27">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G28">
         <v>0.65</v>
       </c>
-      <c r="G27" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F27))^G$3+G$7*$F27+G$9*EXP(G$8*($F27-1)))</f>
-        <v>12.780225534262458</v>
+      <c r="H28" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.976597293978275</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F28">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G29">
         <v>0.7</v>
       </c>
-      <c r="G28" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F28))^G$3+G$7*$F28+G$9*EXP(G$8*($F28-1)))</f>
-        <v>12.811506400153592</v>
+      <c r="H29" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.992098621151571</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F29">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G30">
         <v>0.75</v>
       </c>
-      <c r="G29" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F29))^G$3+G$7*$F29+G$9*EXP(G$8*($F29-1)))</f>
-        <v>12.849722814951537</v>
+      <c r="H30" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.013732613395415</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F30">
+    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G31">
         <v>0.8</v>
       </c>
-      <c r="G30" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F30))^G$3+G$7*$F30+G$9*EXP(G$8*($F30-1)))</f>
-        <v>12.898136929708578</v>
+      <c r="H31" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.044185034090258</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F31">
+    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G32">
         <v>0.85</v>
       </c>
-      <c r="G31" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F31))^G$3+G$7*$F31+G$9*EXP(G$8*($F31-1)))</f>
-        <v>12.961889455518953</v>
+      <c r="H32" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.087683328816944</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F32">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G33">
         <v>0.9</v>
       </c>
-      <c r="G32" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F32))^G$3+G$7*$F32+G$9*EXP(G$8*($F32-1)))</f>
-        <v>13.050688610253282</v>
+      <c r="H33" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.152203115203825</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F33">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G34">
         <v>0.95</v>
       </c>
-      <c r="G33" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F33))^G$3+G$7*$F33+G$9*EXP(G$8*($F33-1)))</f>
-        <v>13.189446101301943</v>
+      <c r="H34" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.258195822975788</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F34">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G35">
         <v>0.98</v>
       </c>
-      <c r="G34" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F34))^G$3+G$7*$F34+G$9*EXP(G$8*($F34-1)))</f>
-        <v>13.336170990980063</v>
+      <c r="H35" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.374107345942264</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F35">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G36">
         <v>0.99</v>
       </c>
-      <c r="G35" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F35))^G$3+G$7*$F35+G$9*EXP(G$8*($F35-1)))</f>
-        <v>13.419391718621917</v>
+      <c r="H36" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.440939892263243</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F36">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G37">
         <v>1</v>
       </c>
-      <c r="G36" s="9">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F36))^G$3+G$7*$F36+G$9*EXP(G$8*($F36-1)))</f>
-        <v>13.655135476722929</v>
+      <c r="H37" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.632949068734129</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NL1p+2TFdmXwquB9WwPaveYRkKZJzJyj7zMRZYAlzGKvuyn2cPFHPMgbLX8zvyl+9hwr3X9ujE/WQbglQF1DAw==" saltValue="PxM3/SJH0+Q+dJwI09XoUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5P6sIdYiRdnvAQ1HceKf2SVdgp2+P7X9Ze928HY37uJKASATr9V1c02tNQqHqF0vh4hK/DBSOR133BdqXjdz9A==" saltValue="NM9Z3z4BKCOotF2gPtobYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23626,35 +23795,35 @@
         <v>12</v>
       </c>
       <c r="C1" s="8">
-        <f ca="1">FORECAST(C$8,OFFSET(Calculator!$L$2:$L$8,MATCH(C$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(C$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(C$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="D1" s="8">
-        <f ca="1">FORECAST(D$8,OFFSET(Calculator!$L$2:$L$8,MATCH(D$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(D$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(D$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="E1" s="8">
-        <f ca="1">FORECAST(E$8,OFFSET(Calculator!$L$2:$L$8,MATCH(E$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(E$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(E$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="F1" s="8">
-        <f ca="1">FORECAST(F$8,OFFSET(Calculator!$L$2:$L$8,MATCH(F$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(F$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(F$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="G1" s="8">
-        <f ca="1">FORECAST(G$8,OFFSET(Calculator!$L$2:$L$8,MATCH(G$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(G$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="H1" s="8">
-        <f ca="1">FORECAST(H$8,OFFSET(Calculator!$L$2:$L$8,MATCH(H$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(H$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(H$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="I1" s="8">
-        <f ca="1">FORECAST(I$8,OFFSET(Calculator!$L$2:$L$8,MATCH(I$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(I$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(I$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="J1" s="8">
-        <f ca="1">FORECAST(J$8,OFFSET(Calculator!$L$2:$L$8,MATCH(J$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(J$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(J$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
     </row>
@@ -23663,35 +23832,35 @@
         <v>11</v>
       </c>
       <c r="C2" s="8">
-        <f ca="1">FORECAST(C$8,OFFSET(Calculator!$M$2:$M$8,MATCH(C$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(C$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(C$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-1.143251503157807</v>
       </c>
       <c r="D2" s="8">
-        <f ca="1">FORECAST(D$8,OFFSET(Calculator!$M$2:$M$8,MATCH(D$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(D$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(D$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-1.143251503157807</v>
       </c>
       <c r="E2" s="8">
-        <f ca="1">FORECAST(E$8,OFFSET(Calculator!$M$2:$M$8,MATCH(E$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(E$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(E$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-1.143251503157807</v>
       </c>
       <c r="F2" s="8">
-        <f ca="1">FORECAST(F$8,OFFSET(Calculator!$M$2:$M$8,MATCH(F$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(F$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(F$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-0.86060345172043817</v>
       </c>
       <c r="G2" s="8">
-        <f ca="1">FORECAST(G$8,OFFSET(Calculator!$M$2:$M$8,MATCH(G$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(G$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-0.57795540028306935</v>
       </c>
       <c r="H2" s="8">
-        <f ca="1">FORECAST(H$8,OFFSET(Calculator!$M$2:$M$8,MATCH(H$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(H$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(H$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-0.56562669413501476</v>
       </c>
       <c r="I2" s="8">
-        <f ca="1">FORECAST(I$8,OFFSET(Calculator!$M$2:$M$8,MATCH(I$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(I$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(I$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-0.55329798798696006</v>
       </c>
       <c r="J2" s="8">
-        <f ca="1">FORECAST(J$8,OFFSET(Calculator!$M$2:$M$8,MATCH(J$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(J$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(J$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-0.55520137249356094</v>
       </c>
     </row>
@@ -23700,35 +23869,35 @@
         <v>10</v>
       </c>
       <c r="C3" s="8">
-        <f ca="1">FORECAST(C$8,OFFSET(Calculator!$N$2:$N$8,MATCH(C$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(C$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(C$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>3.3483399767315905</v>
       </c>
       <c r="D3" s="8">
-        <f ca="1">FORECAST(D$8,OFFSET(Calculator!$N$2:$N$8,MATCH(D$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(D$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(D$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>3.5247557002832086</v>
       </c>
       <c r="E3" s="8">
-        <f ca="1">FORECAST(E$8,OFFSET(Calculator!$N$2:$N$8,MATCH(E$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(E$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(E$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>3.5539644353434743</v>
       </c>
       <c r="F3" s="8">
-        <f ca="1">FORECAST(F$8,OFFSET(Calculator!$N$2:$N$8,MATCH(F$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(F$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(F$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>3.1661177280769817</v>
       </c>
       <c r="G3" s="8">
-        <f ca="1">FORECAST(G$8,OFFSET(Calculator!$N$2:$N$8,MATCH(G$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(G$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>2.7782710208104895</v>
       </c>
       <c r="H3" s="8">
-        <f ca="1">FORECAST(H$8,OFFSET(Calculator!$N$2:$N$8,MATCH(H$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(H$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(H$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>2.7925885092364857</v>
       </c>
       <c r="I3" s="8">
-        <f ca="1">FORECAST(I$8,OFFSET(Calculator!$N$2:$N$8,MATCH(I$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(I$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(I$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>2.8069059976624815</v>
       </c>
       <c r="J3" s="8">
-        <f ca="1">FORECAST(J$8,OFFSET(Calculator!$N$2:$N$8,MATCH(J$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(J$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(J$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>2.8290808868885602</v>
       </c>
     </row>
@@ -23737,35 +23906,35 @@
         <v>13</v>
       </c>
       <c r="C4" s="8">
-        <f ca="1">FORECAST(C$8,OFFSET(Calculator!$O$2:$O$8,MATCH(C$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(C$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(C$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-1.7704346329793603</v>
       </c>
       <c r="D4" s="8">
-        <f ca="1">FORECAST(D$8,OFFSET(Calculator!$O$2:$O$8,MATCH(D$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(D$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(D$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-1.7704346329793603</v>
       </c>
       <c r="E4" s="8">
-        <f ca="1">FORECAST(E$8,OFFSET(Calculator!$O$2:$O$8,MATCH(E$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(E$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(E$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-1.7704346329793603</v>
       </c>
       <c r="F4" s="8">
-        <f ca="1">FORECAST(F$8,OFFSET(Calculator!$O$2:$O$8,MATCH(F$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(F$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(F$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-1.4349432144459204</v>
       </c>
       <c r="G4" s="8">
-        <f ca="1">FORECAST(G$8,OFFSET(Calculator!$O$2:$O$8,MATCH(G$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(G$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-1.0994517959124805</v>
       </c>
       <c r="H4" s="8">
-        <f ca="1">FORECAST(H$8,OFFSET(Calculator!$O$2:$O$8,MATCH(H$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(H$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(H$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-1.1124598124614766</v>
       </c>
       <c r="I4" s="8">
-        <f ca="1">FORECAST(I$8,OFFSET(Calculator!$O$2:$O$8,MATCH(I$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(I$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(I$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-1.1254678290104729</v>
       </c>
       <c r="J4" s="8">
-        <f ca="1">FORECAST(J$8,OFFSET(Calculator!$O$2:$O$8,MATCH(J$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(J$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(J$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-1.1423476961804364</v>
       </c>
     </row>
@@ -23774,35 +23943,35 @@
         <v>14</v>
       </c>
       <c r="C5" s="8">
-        <f ca="1">FORECAST(C$8,OFFSET(Calculator!$P$2:$P$8,MATCH(C$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(C$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(C$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="D5" s="8">
-        <f ca="1">FORECAST(D$8,OFFSET(Calculator!$P$2:$P$8,MATCH(D$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(D$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(D$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="E5" s="8">
-        <f ca="1">FORECAST(E$8,OFFSET(Calculator!$P$2:$P$8,MATCH(E$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(E$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(E$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="F5" s="8">
-        <f ca="1">FORECAST(F$8,OFFSET(Calculator!$P$2:$P$8,MATCH(F$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(F$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(F$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="G5" s="8">
-        <f ca="1">FORECAST(G$8,OFFSET(Calculator!$P$2:$P$8,MATCH(G$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(G$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="H5" s="8">
-        <f ca="1">FORECAST(H$8,OFFSET(Calculator!$P$2:$P$8,MATCH(H$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(H$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(H$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="I5" s="8">
-        <f ca="1">FORECAST(I$8,OFFSET(Calculator!$P$2:$P$8,MATCH(I$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(I$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(I$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="J5" s="8">
-        <f ca="1">FORECAST(J$8,OFFSET(Calculator!$P$2:$P$8,MATCH(J$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(J$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(J$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
     </row>
@@ -23811,35 +23980,35 @@
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <f ca="1">FORECAST(C$8,OFFSET(Calculator!$Q$2:$Q$8,MATCH(C$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(C$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(C$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="D6" s="8">
-        <f ca="1">FORECAST(D$8,OFFSET(Calculator!$Q$2:$Q$8,MATCH(D$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(D$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(D$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="E6" s="8">
-        <f ca="1">FORECAST(E$8,OFFSET(Calculator!$Q$2:$Q$8,MATCH(E$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(E$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(E$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="F6" s="8">
-        <f ca="1">FORECAST(F$8,OFFSET(Calculator!$Q$2:$Q$8,MATCH(F$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(F$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(F$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="G6" s="8">
-        <f ca="1">FORECAST(G$8,OFFSET(Calculator!$Q$2:$Q$8,MATCH(G$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(G$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="H6" s="8">
-        <f ca="1">FORECAST(H$8,OFFSET(Calculator!$Q$2:$Q$8,MATCH(H$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(H$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(H$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="I6" s="8">
-        <f ca="1">FORECAST(I$8,OFFSET(Calculator!$Q$2:$Q$8,MATCH(I$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(I$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(I$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="J6" s="8">
-        <f ca="1">FORECAST(J$8,OFFSET(Calculator!$Q$2:$Q$8,MATCH(J$8,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(J$8,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(J$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
     </row>
@@ -23940,39 +24109,39 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <f>A10*100</f>
+        <f t="shared" ref="B10:B33" si="0">A10*100</f>
         <v>100</v>
       </c>
       <c r="C10" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A10))^C$1+C$4*$A10+C$6*EXP(C$5*($A10-1)))</f>
+        <f t="shared" ref="C10:J19" ca="1" si="1">C$7*(C$3+C$2*(-LN($A10))^C$1+C$4*$A10+C$6*EXP(C$5*($A10-1)))</f>
         <v>13.24762137500892</v>
       </c>
       <c r="D10" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A10))^D$1+D$4*$A10+D$6*EXP(D$5*($A10-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.953284269215393</v>
       </c>
       <c r="E10" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A10))^E$1+E$4*$A10+E$6*EXP(E$5*($A10-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>14.070119209456456</v>
       </c>
       <c r="F10" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A10))^F$1+F$4*$A10+F$6*EXP(F$5*($A10-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.860698054524246</v>
       </c>
       <c r="G10" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A10))^G$1+G$4*$A10+G$6*EXP(G$5*($A10-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.651276899592036</v>
       </c>
       <c r="H10" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A10))^H$1+H$4*$A10+H$6*EXP(H$5*($A10-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.656514787100036</v>
       </c>
       <c r="I10" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A10))^I$1+I$4*$A10+I$6*EXP(I$5*($A10-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.661752674608035</v>
       </c>
       <c r="J10" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A10))^J$1+J$4*$A10+J$6*EXP(J$5*($A10-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.682932762832495</v>
       </c>
     </row>
@@ -23981,39 +24150,39 @@
         <v>0.99</v>
       </c>
       <c r="B11">
-        <f>A11*100</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="C11" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A11))^C$1+C$4*$A11+C$6*EXP(C$5*($A11-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.783474441295841</v>
       </c>
       <c r="D11" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A11))^D$1+D$4*$A11+D$6*EXP(D$5*($A11-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.489137335502313</v>
       </c>
       <c r="E11" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A11))^E$1+E$4*$A11+E$6*EXP(E$5*($A11-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.605972275743376</v>
       </c>
       <c r="F11" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A11))^F$1+F$4*$A11+F$6*EXP(F$5*($A11-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.50854612314739</v>
       </c>
       <c r="G11" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A11))^G$1+G$4*$A11+G$6*EXP(G$5*($A11-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.411119970551404</v>
       </c>
       <c r="H11" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A11))^H$1+H$4*$A11+H$6*EXP(H$5*($A11-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.422348587841693</v>
       </c>
       <c r="I11" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A11))^I$1+I$4*$A11+I$6*EXP(I$5*($A11-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.433577205131979</v>
       </c>
       <c r="J11" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A11))^J$1+J$4*$A11+J$6*EXP(J$5*($A11-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.454587931295809</v>
       </c>
     </row>
@@ -24022,39 +24191,39 @@
         <v>0.98</v>
       </c>
       <c r="B12">
-        <f>A12*100</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="C12" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A12))^C$1+C$4*$A12+C$6*EXP(C$5*($A12-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.625737933744897</v>
       </c>
       <c r="D12" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A12))^D$1+D$4*$A12+D$6*EXP(D$5*($A12-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.33140082795137</v>
       </c>
       <c r="E12" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A12))^E$1+E$4*$A12+E$6*EXP(E$5*($A12-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.448235768192433</v>
       </c>
       <c r="F12" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A12))^F$1+F$4*$A12+F$6*EXP(F$5*($A12-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.387077564277481</v>
       </c>
       <c r="G12" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A12))^G$1+G$4*$A12+G$6*EXP(G$5*($A12-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.32591936036253</v>
       </c>
       <c r="H12" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A12))^H$1+H$4*$A12+H$6*EXP(H$5*($A12-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.339835601019814</v>
       </c>
       <c r="I12" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A12))^I$1+I$4*$A12+I$6*EXP(I$5*($A12-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.353751841677093</v>
       </c>
       <c r="J12" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A12))^J$1+J$4*$A12+J$6*EXP(J$5*($A12-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.37510316047457</v>
       </c>
     </row>
@@ -24063,39 +24232,39 @@
         <v>0.95</v>
       </c>
       <c r="B13">
-        <f>A13*100</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="C13" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A13))^C$1+C$4*$A13+C$6*EXP(C$5*($A13-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.358733953297349</v>
       </c>
       <c r="D13" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A13))^D$1+D$4*$A13+D$6*EXP(D$5*($A13-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.064396847503822</v>
       </c>
       <c r="E13" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A13))^E$1+E$4*$A13+E$6*EXP(E$5*($A13-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.181231787744885</v>
       </c>
       <c r="F13" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A13))^F$1+F$4*$A13+F$6*EXP(F$5*($A13-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.178059751180225</v>
       </c>
       <c r="G13" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A13))^G$1+G$4*$A13+G$6*EXP(G$5*($A13-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.174887714615567</v>
       </c>
       <c r="H13" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A13))^H$1+H$4*$A13+H$6*EXP(H$5*($A13-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.194650230479425</v>
       </c>
       <c r="I13" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A13))^I$1+I$4*$A13+I$6*EXP(I$5*($A13-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.214412746343282</v>
       </c>
       <c r="J13" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A13))^J$1+J$4*$A13+J$6*EXP(J$5*($A13-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.237128055138299</v>
       </c>
     </row>
@@ -24104,39 +24273,39 @@
         <v>0.9</v>
       </c>
       <c r="B14">
-        <f>A14*100</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="C14" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A14))^C$1+C$4*$A14+C$6*EXP(C$5*($A14-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.124128154813484</v>
       </c>
       <c r="D14" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A14))^D$1+D$4*$A14+D$6*EXP(D$5*($A14-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.829791049019956</v>
       </c>
       <c r="E14" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A14))^E$1+E$4*$A14+E$6*EXP(E$5*($A14-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.946625989261019</v>
       </c>
       <c r="F14" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A14))^F$1+F$4*$A14+F$6*EXP(F$5*($A14-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.9886162508921</v>
       </c>
       <c r="G14" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A14))^G$1+G$4*$A14+G$6*EXP(G$5*($A14-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.030606512523184</v>
       </c>
       <c r="H14" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A14))^H$1+H$4*$A14+H$6*EXP(H$5*($A14-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.057867278672635</v>
       </c>
       <c r="I14" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A14))^I$1+I$4*$A14+I$6*EXP(I$5*($A14-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.085128044822085</v>
       </c>
       <c r="J14" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A14))^J$1+J$4*$A14+J$6*EXP(J$5*($A14-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.110463351373188</v>
       </c>
     </row>
@@ -24145,39 +24314,39 @@
         <v>0.85</v>
       </c>
       <c r="B15">
-        <f>A15*100</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="C15" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A15))^C$1+C$4*$A15+C$6*EXP(C$5*($A15-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>11.987230977513462</v>
       </c>
       <c r="D15" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A15))^D$1+D$4*$A15+D$6*EXP(D$5*($A15-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.692893871719935</v>
       </c>
       <c r="E15" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A15))^E$1+E$4*$A15+E$6*EXP(E$5*($A15-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.809728811960998</v>
       </c>
       <c r="F15" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A15))^F$1+F$4*$A15+F$6*EXP(F$5*($A15-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.873383746346533</v>
       </c>
       <c r="G15" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A15))^G$1+G$4*$A15+G$6*EXP(G$5*($A15-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.937038680732067</v>
       </c>
       <c r="H15" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A15))^H$1+H$4*$A15+H$6*EXP(H$5*($A15-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.970772764153176</v>
       </c>
       <c r="I15" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A15))^I$1+I$4*$A15+I$6*EXP(I$5*($A15-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.004506847574282</v>
       </c>
       <c r="J15" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A15))^J$1+J$4*$A15+J$6*EXP(J$5*($A15-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13.032620387595387</v>
       </c>
     </row>
@@ -24186,39 +24355,39 @@
         <v>0.8</v>
       </c>
       <c r="B16">
-        <f>A16*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="C16" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A16))^C$1+C$4*$A16+C$6*EXP(C$5*($A16-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>11.898031230846632</v>
       </c>
       <c r="D16" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A16))^D$1+D$4*$A16+D$6*EXP(D$5*($A16-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.603694125053105</v>
       </c>
       <c r="E16" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A16))^E$1+E$4*$A16+E$6*EXP(E$5*($A16-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.720529065294167</v>
       </c>
       <c r="F16" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A16))^F$1+F$4*$A16+F$6*EXP(F$5*($A16-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.794702350355386</v>
       </c>
       <c r="G16" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A16))^G$1+G$4*$A16+G$6*EXP(G$5*($A16-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.868875635416604</v>
       </c>
       <c r="H16" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A16))^H$1+H$4*$A16+H$6*EXP(H$5*($A16-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.90859684938761</v>
       </c>
       <c r="I16" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A16))^I$1+I$4*$A16+I$6*EXP(I$5*($A16-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.948318063358609</v>
       </c>
       <c r="J16" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A16))^J$1+J$4*$A16+J$6*EXP(J$5*($A16-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.979284897465355</v>
       </c>
     </row>
@@ -24227,39 +24396,39 @@
         <v>0.75</v>
       </c>
       <c r="B17">
-        <f>A17*100</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="C17" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A17))^C$1+C$4*$A17+C$6*EXP(C$5*($A17-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>11.837070772416274</v>
       </c>
       <c r="D17" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A17))^D$1+D$4*$A17+D$6*EXP(D$5*($A17-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.542733666622746</v>
       </c>
       <c r="E17" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A17))^E$1+E$4*$A17+E$6*EXP(E$5*($A17-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.659568606863809</v>
       </c>
       <c r="F17" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A17))^F$1+F$4*$A17+F$6*EXP(F$5*($A17-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.737911799219862</v>
       </c>
       <c r="G17" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A17))^G$1+G$4*$A17+G$6*EXP(G$5*($A17-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.816254991575917</v>
       </c>
       <c r="H17" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A17))^H$1+H$4*$A17+H$6*EXP(H$5*($A17-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.861686426022462</v>
       </c>
       <c r="I17" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A17))^I$1+I$4*$A17+I$6*EXP(I$5*($A17-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.907117860469</v>
       </c>
       <c r="J17" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A17))^J$1+J$4*$A17+J$6*EXP(J$5*($A17-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.940980739809717</v>
       </c>
     </row>
@@ -24268,39 +24437,39 @@
         <v>0.7</v>
       </c>
       <c r="B18">
-        <f>A18*100</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="C18" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A18))^C$1+C$4*$A18+C$6*EXP(C$5*($A18-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>11.794069638800476</v>
       </c>
       <c r="D18" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A18))^D$1+D$4*$A18+D$6*EXP(D$5*($A18-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.499732533006949</v>
       </c>
       <c r="E18" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A18))^E$1+E$4*$A18+E$6*EXP(E$5*($A18-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.616567473248011</v>
       </c>
       <c r="F18" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A18))^F$1+F$4*$A18+F$6*EXP(F$5*($A18-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.695261124404134</v>
       </c>
       <c r="G18" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A18))^G$1+G$4*$A18+G$6*EXP(G$5*($A18-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.773954775560256</v>
       </c>
       <c r="H18" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A18))^H$1+H$4*$A18+H$6*EXP(H$5*($A18-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.824929831569309</v>
       </c>
       <c r="I18" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A18))^I$1+I$4*$A18+I$6*EXP(I$5*($A18-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.875904887578358</v>
       </c>
       <c r="J18" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A18))^J$1+J$4*$A18+J$6*EXP(J$5*($A18-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.912689532758767</v>
       </c>
     </row>
@@ -24309,39 +24478,39 @@
         <v>0.65</v>
       </c>
       <c r="B19">
-        <f>A19*100</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C19" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A19))^C$1+C$4*$A19+C$6*EXP(C$5*($A19-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>11.76252215158212</v>
       </c>
       <c r="D19" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A19))^D$1+D$4*$A19+D$6*EXP(D$5*($A19-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.468185045788593</v>
       </c>
       <c r="E19" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A19))^E$1+E$4*$A19+E$6*EXP(E$5*($A19-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.585019986029655</v>
       </c>
       <c r="F19" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A19))^F$1+F$4*$A19+F$6*EXP(F$5*($A19-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.661840767625982</v>
       </c>
       <c r="G19" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A19))^G$1+G$4*$A19+G$6*EXP(G$5*($A19-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.738661549222307</v>
       </c>
       <c r="H19" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A19))^H$1+H$4*$A19+H$6*EXP(H$5*($A19-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.795083248371835</v>
       </c>
       <c r="I19" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A19))^I$1+I$4*$A19+I$6*EXP(I$5*($A19-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.851504947521359</v>
       </c>
       <c r="J19" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A19))^J$1+J$4*$A19+J$6*EXP(J$5*($A19-1)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12.891226330690504</v>
       </c>
     </row>
@@ -24350,39 +24519,39 @@
         <v>0.6</v>
       </c>
       <c r="B20">
-        <f>A20*100</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C20" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A20))^C$1+C$4*$A20+C$6*EXP(C$5*($A20-1)))</f>
+        <f t="shared" ref="C20:J33" ca="1" si="2">C$7*(C$3+C$2*(-LN($A20))^C$1+C$4*$A20+C$6*EXP(C$5*($A20-1)))</f>
         <v>11.737704849502093</v>
       </c>
       <c r="D20" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A20))^D$1+D$4*$A20+D$6*EXP(D$5*($A20-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.443367743708565</v>
       </c>
       <c r="E20" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A20))^E$1+E$4*$A20+E$6*EXP(E$5*($A20-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.560202683949628</v>
       </c>
       <c r="F20" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A20))^F$1+F$4*$A20+F$6*EXP(F$5*($A20-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.634083010481703</v>
       </c>
       <c r="G20" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A20))^G$1+G$4*$A20+G$6*EXP(G$5*($A20-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.707963337013783</v>
       </c>
       <c r="H20" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A20))^H$1+H$4*$A20+H$6*EXP(H$5*($A20-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.769785112741921</v>
       </c>
       <c r="I20" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A20))^I$1+I$4*$A20+I$6*EXP(I$5*($A20-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.831606888470059</v>
       </c>
       <c r="J20" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A20))^J$1+J$4*$A20+J$6*EXP(J$5*($A20-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.874272198871594</v>
       </c>
     </row>
@@ -24391,39 +24560,39 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B21">
-        <f>A21*100</f>
+        <f t="shared" si="0"/>
         <v>55.000000000000007</v>
       </c>
       <c r="C21" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A21))^C$1+C$4*$A21+C$6*EXP(C$5*($A21-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.71574867453146</v>
       </c>
       <c r="D21" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A21))^D$1+D$4*$A21+D$6*EXP(D$5*($A21-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.421411568737932</v>
       </c>
       <c r="E21" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A21))^E$1+E$4*$A21+E$6*EXP(E$5*($A21-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.538246508978995</v>
       </c>
       <c r="F21" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A21))^F$1+F$4*$A21+F$6*EXP(F$5*($A21-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.609063540745598</v>
       </c>
       <c r="G21" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A21))^G$1+G$4*$A21+G$6*EXP(G$5*($A21-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.679880572512205</v>
       </c>
       <c r="H21" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A21))^H$1+H$4*$A21+H$6*EXP(H$5*($A21-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.747097066725839</v>
       </c>
       <c r="I21" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A21))^I$1+I$4*$A21+I$6*EXP(I$5*($A21-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.814313560939469</v>
       </c>
       <c r="J21" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A21))^J$1+J$4*$A21+J$6*EXP(J$5*($A21-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.859923625790071</v>
       </c>
     </row>
@@ -24432,39 +24601,39 @@
         <v>0.5</v>
       </c>
       <c r="B22">
-        <f>A22*100</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C22" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A22))^C$1+C$4*$A22+C$6*EXP(C$5*($A22-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.693106641659901</v>
       </c>
       <c r="D22" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A22))^D$1+D$4*$A22+D$6*EXP(D$5*($A22-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.398769535866373</v>
       </c>
       <c r="E22" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A22))^E$1+E$4*$A22+E$6*EXP(E$5*($A22-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.515604476107436</v>
       </c>
       <c r="F22" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A22))^F$1+F$4*$A22+F$6*EXP(F$5*($A22-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.584100726356212</v>
       </c>
       <c r="G22" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A22))^G$1+G$4*$A22+G$6*EXP(G$5*($A22-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.65259697660499</v>
       </c>
       <c r="H22" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A22))^H$1+H$4*$A22+H$6*EXP(H$5*($A22-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.725240576676306</v>
       </c>
       <c r="I22" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A22))^I$1+I$4*$A22+I$6*EXP(I$5*($A22-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.797884176747624</v>
       </c>
       <c r="J22" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A22))^J$1+J$4*$A22+J$6*EXP(J$5*($A22-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.846433995877636</v>
       </c>
     </row>
@@ -24473,39 +24642,39 @@
         <v>0.45</v>
       </c>
       <c r="B23">
-        <f>A23*100</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C23" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A23))^C$1+C$4*$A23+C$6*EXP(C$5*($A23-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.666164904745523</v>
       </c>
       <c r="D23" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A23))^D$1+D$4*$A23+D$6*EXP(D$5*($A23-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.371827798951996</v>
       </c>
       <c r="E23" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A23))^E$1+E$4*$A23+E$6*EXP(E$5*($A23-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.488662739193058</v>
       </c>
       <c r="F23" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A23))^F$1+F$4*$A23+F$6*EXP(F$5*($A23-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.556462833500611</v>
       </c>
       <c r="G23" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A23))^G$1+G$4*$A23+G$6*EXP(G$5*($A23-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.624262927808163</v>
       </c>
       <c r="H23" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A23))^H$1+H$4*$A23+H$6*EXP(H$5*($A23-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.702404497595005</v>
       </c>
       <c r="I23" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A23))^I$1+I$4*$A23+I$6*EXP(I$5*($A23-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.780546067381842</v>
       </c>
       <c r="J23" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A23))^J$1+J$4*$A23+J$6*EXP(J$5*($A23-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.832024700375662</v>
       </c>
     </row>
@@ -24514,39 +24683,39 @@
         <v>0.4</v>
       </c>
       <c r="B24">
-        <f>A24*100</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C24" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A24))^C$1+C$4*$A24+C$6*EXP(C$5*($A24-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.630866222328329</v>
       </c>
       <c r="D24" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A24))^D$1+D$4*$A24+D$6*EXP(D$5*($A24-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.336529116534802</v>
       </c>
       <c r="E24" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A24))^E$1+E$4*$A24+E$6*EXP(E$5*($A24-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.453364056775865</v>
       </c>
       <c r="F24" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A24))^F$1+F$4*$A24+F$6*EXP(F$5*($A24-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.52308457908947</v>
       </c>
       <c r="G24" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A24))^G$1+G$4*$A24+G$6*EXP(G$5*($A24-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.592805101403084</v>
       </c>
       <c r="H24" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A24))^H$1+H$4*$A24+H$6*EXP(H$5*($A24-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.676558772577089</v>
       </c>
       <c r="I24" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A24))^I$1+I$4*$A24+I$6*EXP(I$5*($A24-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.760312443751094</v>
       </c>
       <c r="J24" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A24))^J$1+J$4*$A24+J$6*EXP(J$5*($A24-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.814702270231296</v>
       </c>
     </row>
@@ -24555,39 +24724,39 @@
         <v>0.35</v>
       </c>
       <c r="B25">
-        <f>A25*100</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C25" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A25))^C$1+C$4*$A25+C$6*EXP(C$5*($A25-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.582234639435786</v>
       </c>
       <c r="D25" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A25))^D$1+D$4*$A25+D$6*EXP(D$5*($A25-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.287897533642258</v>
       </c>
       <c r="E25" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A25))^E$1+E$4*$A25+E$6*EXP(E$5*($A25-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.404732473883321</v>
       </c>
       <c r="F25" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A25))^F$1+F$4*$A25+F$6*EXP(F$5*($A25-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.480209321855689</v>
       </c>
       <c r="G25" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A25))^G$1+G$4*$A25+G$6*EXP(G$5*($A25-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.555686169828061</v>
       </c>
       <c r="H25" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A25))^H$1+H$4*$A25+H$6*EXP(H$5*($A25-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.645219258791148</v>
       </c>
       <c r="I25" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A25))^I$1+I$4*$A25+I$6*EXP(I$5*($A25-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.734752347754231</v>
       </c>
       <c r="J25" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A25))^J$1+J$4*$A25+J$6*EXP(J$5*($A25-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.792027536344571</v>
       </c>
     </row>
@@ -24596,39 +24765,39 @@
         <v>0.3</v>
       </c>
       <c r="B26">
-        <f>A26*100</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C26" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A26))^C$1+C$4*$A26+C$6*EXP(C$5*($A26-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.51364146684325</v>
       </c>
       <c r="D26" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A26))^D$1+D$4*$A26+D$6*EXP(D$5*($A26-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.219304361049723</v>
       </c>
       <c r="E26" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A26))^E$1+E$4*$A26+E$6*EXP(E$5*($A26-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.336139301290785</v>
       </c>
       <c r="F26" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A26))^F$1+F$4*$A26+F$6*EXP(F$5*($A26-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.422836510474729</v>
       </c>
       <c r="G26" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A26))^G$1+G$4*$A26+G$6*EXP(G$5*($A26-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.509533719658675</v>
       </c>
       <c r="H26" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A26))^H$1+H$4*$A26+H$6*EXP(H$5*($A26-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.605084559873147</v>
       </c>
       <c r="I26" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A26))^I$1+I$4*$A26+I$6*EXP(I$5*($A26-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.700635400087616</v>
       </c>
       <c r="J26" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A26))^J$1+J$4*$A26+J$6*EXP(J$5*($A26-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.760759155343859</v>
       </c>
     </row>
@@ -24637,39 +24806,39 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <f>A27*100</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A27))^C$1+C$4*$A27+C$6*EXP(C$5*($A27-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.415490008533659</v>
       </c>
       <c r="D27" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A27))^D$1+D$4*$A27+D$6*EXP(D$5*($A27-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.121152902740132</v>
       </c>
       <c r="E27" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A27))^E$1+E$4*$A27+E$6*EXP(E$5*($A27-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.237987842981195</v>
       </c>
       <c r="F27" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A27))^F$1+F$4*$A27+F$6*EXP(F$5*($A27-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.343731583861121</v>
       </c>
       <c r="G27" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A27))^G$1+G$4*$A27+G$6*EXP(G$5*($A27-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.449475324741048</v>
       </c>
       <c r="H27" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A27))^H$1+H$4*$A27+H$6*EXP(H$5*($A27-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.551385282636552</v>
       </c>
       <c r="I27" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A27))^I$1+I$4*$A27+I$6*EXP(I$5*($A27-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.65329524053206</v>
       </c>
       <c r="J27" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A27))^J$1+J$4*$A27+J$6*EXP(J$5*($A27-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.716214860121497</v>
       </c>
     </row>
@@ -24678,39 +24847,39 @@
         <v>0.2</v>
       </c>
       <c r="B28">
-        <f>A28*100</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C28" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A28))^C$1+C$4*$A28+C$6*EXP(C$5*($A28-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.272522352376139</v>
       </c>
       <c r="D28" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A28))^D$1+D$4*$A28+D$6*EXP(D$5*($A28-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.978185246582612</v>
       </c>
       <c r="E28" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A28))^E$1+E$4*$A28+E$6*EXP(E$5*($A28-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.095020186823675</v>
       </c>
       <c r="F28" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A28))^F$1+F$4*$A28+F$6*EXP(F$5*($A28-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.231398604468136</v>
       </c>
       <c r="G28" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A28))^G$1+G$4*$A28+G$6*EXP(G$5*($A28-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.367777022112602</v>
       </c>
       <c r="H28" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A28))^H$1+H$4*$A28+H$6*EXP(H$5*($A28-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.476551556101558</v>
       </c>
       <c r="I28" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A28))^I$1+I$4*$A28+I$6*EXP(I$5*($A28-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.585326090090511</v>
       </c>
       <c r="J28" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A28))^J$1+J$4*$A28+J$6*EXP(J$5*($A28-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.650963538110648</v>
       </c>
     </row>
@@ -24719,39 +24888,39 @@
         <v>0.15</v>
       </c>
       <c r="B29">
-        <f>A29*100</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C29" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A29))^C$1+C$4*$A29+C$6*EXP(C$5*($A29-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.05737344528508</v>
       </c>
       <c r="D29" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A29))^D$1+D$4*$A29+D$6*EXP(D$5*($A29-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.763036339491553</v>
       </c>
       <c r="E29" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A29))^E$1+E$4*$A29+E$6*EXP(E$5*($A29-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.879871279732615</v>
       </c>
       <c r="F29" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A29))^F$1+F$4*$A29+F$6*EXP(F$5*($A29-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.065227966515709</v>
       </c>
       <c r="G29" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A29))^G$1+G$4*$A29+G$6*EXP(G$5*($A29-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.250584653298802</v>
       </c>
       <c r="H29" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A29))^H$1+H$4*$A29+H$6*EXP(H$5*($A29-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.367023884800513</v>
       </c>
       <c r="I29" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A29))^I$1+I$4*$A29+I$6*EXP(I$5*($A29-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.483463116302222</v>
       </c>
       <c r="J29" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A29))^J$1+J$4*$A29+J$6*EXP(J$5*($A29-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.551694864890951</v>
       </c>
     </row>
@@ -24760,39 +24929,39 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <f>A30*100</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C30" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A30))^C$1+C$4*$A30+C$6*EXP(C$5*($A30-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10.711230104579677</v>
       </c>
       <c r="D30" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A30))^D$1+D$4*$A30+D$6*EXP(D$5*($A30-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.41689299878615</v>
       </c>
       <c r="E30" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A30))^E$1+E$4*$A30+E$6*EXP(E$5*($A30-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.533727939027212</v>
       </c>
       <c r="F30" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A30))^F$1+F$4*$A30+F$6*EXP(F$5*($A30-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.800937109482325</v>
       </c>
       <c r="G30" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A30))^G$1+G$4*$A30+G$6*EXP(G$5*($A30-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.068146279937437</v>
       </c>
       <c r="H30" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A30))^H$1+H$4*$A30+H$6*EXP(H$5*($A30-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.193684135450845</v>
       </c>
       <c r="I30" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A30))^I$1+I$4*$A30+I$6*EXP(I$5*($A30-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.319221990964248</v>
       </c>
       <c r="J30" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A30))^J$1+J$4*$A30+J$6*EXP(J$5*($A30-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.389826661377619</v>
       </c>
     </row>
@@ -24801,39 +24970,39 @@
         <v>0.05</v>
       </c>
       <c r="B31">
-        <f>A31*100</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C31" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A31))^C$1+C$4*$A31+C$6*EXP(C$5*($A31-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10.056259937733959</v>
       </c>
       <c r="D31" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A31))^D$1+D$4*$A31+D$6*EXP(D$5*($A31-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10.761922831940431</v>
       </c>
       <c r="E31" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A31))^E$1+E$4*$A31+E$6*EXP(E$5*($A31-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10.878757772181494</v>
       </c>
       <c r="F31" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A31))^F$1+F$4*$A31+F$6*EXP(F$5*($A31-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.304649783921581</v>
       </c>
       <c r="G31" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A31))^G$1+G$4*$A31+G$6*EXP(G$5*($A31-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.73054179566167</v>
       </c>
       <c r="H31" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A31))^H$1+H$4*$A31+H$6*EXP(H$5*($A31-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.868529506152075</v>
       </c>
       <c r="I31" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A31))^I$1+I$4*$A31+I$6*EXP(I$5*($A31-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.006517216642482</v>
       </c>
       <c r="J31" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A31))^J$1+J$4*$A31+J$6*EXP(J$5*($A31-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12.078977424410393</v>
       </c>
     </row>
@@ -24842,39 +25011,39 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B32">
-        <f>A32*100</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="C32" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A32))^C$1+C$4*$A32+C$6*EXP(C$5*($A32-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>9.3778977969759758</v>
       </c>
       <c r="D32" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A32))^D$1+D$4*$A32+D$6*EXP(D$5*($A32-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10.083560691182448</v>
       </c>
       <c r="E32" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A32))^E$1+E$4*$A32+E$6*EXP(E$5*($A32-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10.200395631423511</v>
       </c>
       <c r="F32" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A32))^F$1+F$4*$A32+F$6*EXP(F$5*($A32-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10.79255350060069</v>
       </c>
       <c r="G32" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A32))^G$1+G$4*$A32+G$6*EXP(G$5*($A32-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.384711369777872</v>
       </c>
       <c r="H32" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A32))^H$1+H$4*$A32+H$6*EXP(H$5*($A32-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.532715528104703</v>
       </c>
       <c r="I32" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A32))^I$1+I$4*$A32+I$6*EXP(I$5*($A32-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.680719686431534</v>
       </c>
       <c r="J32" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A32))^J$1+J$4*$A32+J$6*EXP(J$5*($A32-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.753522303715744</v>
       </c>
     </row>
@@ -24883,39 +25052,39 @@
         <v>1E-3</v>
       </c>
       <c r="B33">
-        <f>A33*100</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="C33" s="9">
-        <f ca="1">C$7*(C$3+C$2*(-LN($A33))^C$1+C$4*$A33+C$6*EXP(C$5*($A33-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>6.5187419397108437</v>
       </c>
       <c r="D33" s="9">
-        <f ca="1">D$7*(D$3+D$2*(-LN($A33))^D$1+D$4*$A33+D$6*EXP(D$5*($A33-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>7.2244048339173172</v>
       </c>
       <c r="E33" s="9">
-        <f ca="1">E$7*(E$3+E$2*(-LN($A33))^E$1+E$4*$A33+E$6*EXP(E$5*($A33-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>7.3412397741583799</v>
       </c>
       <c r="F33" s="9">
-        <f ca="1">F$7*(F$3+F$2*(-LN($A33))^F$1+F$4*$A33+F$6*EXP(F$5*($A33-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>8.6389920281566575</v>
       </c>
       <c r="G33" s="9">
-        <f ca="1">G$7*(G$3+G$2*(-LN($A33))^G$1+G$4*$A33+G$6*EXP(G$5*($A33-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>9.9367442821549403</v>
       </c>
       <c r="H33" s="9">
-        <f ca="1">H$7*(H$3+H$2*(-LN($A33))^H$1+H$4*$A33+H$6*EXP(H$5*($A33-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10.118179065189912</v>
       </c>
       <c r="I33" s="9">
-        <f ca="1">I$7*(I$3+I$2*(-LN($A33))^I$1+I$4*$A33+I$6*EXP(I$5*($A33-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10.299613848224883</v>
       </c>
       <c r="J33" s="9">
-        <f ca="1">J$7*(J$3+J$2*(-LN($A33))^J$1+J$4*$A33+J$6*EXP(J$5*($A33-1)))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10.3690684921366</v>
       </c>
     </row>
@@ -25483,7 +25652,7 @@
         <v>10</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R3:R7" si="0">FORECAST(R$1,$B9:$H9,$B$6:$H$6)</f>
+        <f t="shared" ref="R4:R7" si="0">FORECAST(R$1,$B9:$H9,$B$6:$H$6)</f>
         <v>3.0849335241012219</v>
       </c>
     </row>

--- a/SOC_Photon/Battery State/BattleBorn.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BattleBorn Calculator" sheetId="7" r:id="rId1"/>
@@ -2412,11 +2412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561954872"/>
-        <c:axId val="561949776"/>
+        <c:axId val="448295880"/>
+        <c:axId val="448297840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561954872"/>
+        <c:axId val="448295880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2531,12 +2531,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561949776"/>
+        <c:crossAx val="448297840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561949776"/>
+        <c:axId val="448297840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.1"/>
@@ -2651,7 +2651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561954872"/>
+        <c:crossAx val="448295880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2765,7 +2765,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>50 deg C</a:t>
+              <a:t>30 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -2773,14 +2773,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30196566338298619"/>
-          <c:y val="1.9493177387914229E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2817,8 +2810,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1578994325314079"/>
-          <c:y val="4.3846629560915298E-2"/>
+          <c:x val="0.15789958073422641"/>
+          <c:y val="3.7349132528024638E-2"/>
           <c:w val="0.75461703650680023"/>
           <c:h val="0.67122210373054014"/>
         </c:manualLayout>
@@ -2831,11 +2824,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$T$14</c:f>
+              <c:f>'Model Build'!$N$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 50C</c:v>
+                  <c:v>VoC 30C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2917,51 +2910,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$T$15:$T$28</c:f>
+              <c:f>'Model Build'!$N$15:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.35</c:v>
+                  <c:v>13.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.08</c:v>
+                  <c:v>12.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.05</c:v>
+                  <c:v>12.944285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.046666666666667</c:v>
+                  <c:v>12.932857142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.043333333333333</c:v>
+                  <c:v>12.921428571428571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.04</c:v>
+                  <c:v>12.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.01</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.95</c:v>
+                  <c:v>12.84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.87</c:v>
+                  <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.66</c:v>
+                  <c:v>12.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.43</c:v>
+                  <c:v>11.85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.1</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>10.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2973,11 +2966,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$U$14</c:f>
+              <c:f>'Model Build'!$O$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC50fit</c:v>
+                  <c:v>VoC30fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3059,51 +3052,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$U$15:$U$28</c:f>
+              <c:f>'Model Build'!$O$15:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.624053515884519</c:v>
+                  <c:v>13.661752674608037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.371313929135514</c:v>
+                  <c:v>13.353751841677095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.257989878502613</c:v>
+                  <c:v>13.214412746343285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.154253690818782</c:v>
+                  <c:v>13.085128044822085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.048426735079993</c:v>
+                  <c:v>12.948318063358611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.997426724505619</c:v>
+                  <c:v>12.875904887578359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.971312912373676</c:v>
+                  <c:v>12.831606888470063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.955576936829443</c:v>
+                  <c:v>12.797884176747626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.938278089573135</c:v>
+                  <c:v>12.760312443751097</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.904323459173444</c:v>
+                  <c:v>12.700635400087616</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.826050649375436</c:v>
+                  <c:v>12.585326090090515</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.625056630335575</c:v>
+                  <c:v>12.31922199096425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.377172654874936</c:v>
+                  <c:v>12.006517216642484</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.981614391065904</c:v>
+                  <c:v>10.299613848224887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3118,11 +3111,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561958792"/>
-        <c:axId val="561950560"/>
+        <c:axId val="442777712"/>
+        <c:axId val="442776144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561958792"/>
+        <c:axId val="442777712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3180,12 +3173,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561950560"/>
+        <c:crossAx val="442776144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561950560"/>
+        <c:axId val="442776144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3244,7 +3237,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561958792"/>
+        <c:crossAx val="442777712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3259,6 +3252,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3362,7 +3356,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>30 deg C</a:t>
+              <a:t>40 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -3370,6 +3364,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3406,8 +3401,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15789958073422641"/>
-          <c:y val="3.7349132528024638E-2"/>
+          <c:x val="0.1578994325314079"/>
+          <c:y val="4.3846629560915298E-2"/>
           <c:w val="0.75461703650680023"/>
           <c:h val="0.67122210373054014"/>
         </c:manualLayout>
@@ -3420,11 +3415,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$N$14</c:f>
+              <c:f>'Model Build'!$Q$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 30C</c:v>
+                  <c:v>VoC 40C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3506,51 +3501,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$N$15:$N$28</c:f>
+              <c:f>'Model Build'!$Q$15:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.31</c:v>
+                  <c:v>13.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.006666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.003333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.944285714285714</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.932857142857143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.921428571428571</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>12.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>12.91</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.84</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.7</c:v>
+                  <c:v>12.77</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.4</c:v>
+                  <c:v>12.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.85</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.3</c:v>
+                  <c:v>11.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.45</c:v>
+                  <c:v>10.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3562,11 +3557,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$O$14</c:f>
+              <c:f>'Model Build'!$R$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC30fit</c:v>
+                  <c:v>VoC40fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3648,51 +3643,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$O$15:$O$28</c:f>
+              <c:f>'Model Build'!$R$15:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.661752674608037</c:v>
+                  <c:v>13.704112851056955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.353751841677095</c:v>
+                  <c:v>13.396454479272043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.214412746343285</c:v>
+                  <c:v>13.259843363933317</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.085128044822085</c:v>
+                  <c:v>13.135798657924287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.948318063358611</c:v>
+                  <c:v>13.010251731572101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.875904887578359</c:v>
+                  <c:v>12.949474177939177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.831606888470063</c:v>
+                  <c:v>12.916937509273122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.797884176747626</c:v>
+                  <c:v>12.894983815007649</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.760312443751097</c:v>
+                  <c:v>12.869092096711494</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.700635400087616</c:v>
+                  <c:v>12.820882910600099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.585326090090515</c:v>
+                  <c:v>12.716600986130778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.31922199096425</c:v>
+                  <c:v>12.460431331790987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.006517216642484</c:v>
+                  <c:v>12.151437632178304</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.299613848224887</c:v>
+                  <c:v>10.438523136048317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3707,11 +3702,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561955264"/>
-        <c:axId val="561950952"/>
+        <c:axId val="442782024"/>
+        <c:axId val="442782416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561955264"/>
+        <c:axId val="442782024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3769,12 +3764,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561950952"/>
+        <c:crossAx val="442782416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561950952"/>
+        <c:axId val="442782416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3833,7 +3828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561955264"/>
+        <c:crossAx val="442782024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3848,6 +3843,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3948,17 +3944,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>40 deg C</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Coefficients vs OAT, C</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3995,25 +3987,25 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1578994325314079"/>
-          <c:y val="4.3846629560915298E-2"/>
-          <c:w val="0.75461703650680023"/>
-          <c:h val="0.67122210373054014"/>
+          <c:x val="7.8233814523184605E-2"/>
+          <c:y val="0.15319444444444447"/>
+          <c:w val="0.90787729658792649"/>
+          <c:h val="0.6714577865266842"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$Q$14</c:f>
+              <c:f>'Model Build'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 40C</c:v>
+                  <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4021,7 +4013,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4032,130 +4024,88 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>'Model Build'!$A$15:$A$28</c:f>
+              <c:f>'Model Build'!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Model Build'!$Q$15:$Q$28</c:f>
+              <c:f>'Model Build'!$B$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.32</c:v>
+                  <c:v>3.3483399767315909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.1</c:v>
+                  <c:v>3.5247557002832086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.03</c:v>
+                  <c:v>3.5539644353434743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.01</c:v>
+                  <c:v>2.7782710208104895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.006666666666666</c:v>
+                  <c:v>2.8069059976624819</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.003333333333334</c:v>
+                  <c:v>2.8512557761146389</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.91</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.77</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.51</c:v>
+                  <c:v>2.7310417617626701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$R$14</c:f>
+              <c:f>'Model Build'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC40fit</c:v>
+                  <c:v>b</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4163,7 +4113,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4174,118 +4124,176 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>'Model Build'!$A$15:$A$28</c:f>
+              <c:f>'Model Build'!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Model Build'!$R$15:$R$28</c:f>
+              <c:f>'Model Build'!$B$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.704112851056955</c:v>
+                  <c:v>-1.143251503157807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.396454479272043</c:v>
+                  <c:v>-1.143251503157807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.259843363933317</c:v>
+                  <c:v>-1.143251503157807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.135798657924287</c:v>
+                  <c:v>-0.57795540028306935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.010251731572101</c:v>
+                  <c:v>-0.55329798798696006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.949474177939177</c:v>
+                  <c:v>-0.55710475700016193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.916937509273122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.894983815007649</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.869092096711494</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.820882910600099</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.716600986130778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.460431331790987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.151437632178304</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.438523136048317</c:v>
+                  <c:v>-0.45551626024511238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Build'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Model Build'!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Model Build'!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.7704346329793603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7704346329793603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.7704346329793603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0994517959124805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1254678290104727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1592275633503999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.0590283827915401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -4296,14 +4304,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561964280"/>
-        <c:axId val="561961928"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="561964280"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="441739848"/>
+        <c:axId val="441740632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441739848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4358,16 +4367,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561961928"/>
+        <c:crossAx val="441740632"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="561961928"/>
+        <c:axId val="441740632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14"/>
-          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4422,10 +4432,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561964280"/>
+        <c:crossAx val="441739848"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4437,6 +4446,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4538,11 +4548,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Model Coefficients vs OAT, C</a:t>
+              <a:t>Model</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4579,25 +4590,25 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8233814523184605E-2"/>
-          <c:y val="0.15319444444444447"/>
-          <c:w val="0.90787729658792649"/>
-          <c:h val="0.6714577865266842"/>
+          <c:x val="7.3627665120627045E-2"/>
+          <c:y val="6.3366703744901748E-2"/>
+          <c:w val="0.87420338510768347"/>
+          <c:h val="0.68283832429733826"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$A$9</c:f>
+              <c:f>'Model Build'!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>a</c:v>
+                  <c:v>VoC-10fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4605,99 +4616,129 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Model Build'!$B$6:$H$6</c:f>
+              <c:f>'Model Build'!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$B$9:$H$9</c:f>
+              <c:f>'Model Build'!$C$15:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.3483399767315909</c:v>
+                  <c:v>13.247621375008922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5247557002832086</c:v>
+                  <c:v>12.625737933744901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5539644353434743</c:v>
+                  <c:v>12.358733953297351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7782710208104895</c:v>
+                  <c:v>12.124128154813484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8069059976624819</c:v>
+                  <c:v>11.898031230846634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8512557761146389</c:v>
+                  <c:v>11.79406963880048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7310417617626701</c:v>
+                  <c:v>11.737704849502094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.693106641659902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.630866222328329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.513641466843254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.272522352376143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.71123010457968</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.056259937733962</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5187419397108455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$A$8</c:f>
+              <c:f>'Model Build'!$F$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>b</c:v>
+                  <c:v>VoC0fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4705,99 +4746,129 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Model Build'!$B$6:$H$6</c:f>
+              <c:f>'Model Build'!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$B$8:$H$8</c:f>
+              <c:f>'Model Build'!$F$15:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-1.143251503157807</c:v>
+                  <c:v>13.953284269215393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.143251503157807</c:v>
+                  <c:v>13.33140082795137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.143251503157807</c:v>
+                  <c:v>13.064396847503822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.57795540028306935</c:v>
+                  <c:v>12.829791049019956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.55329798798696006</c:v>
+                  <c:v>12.603694125053105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.55710475700016193</c:v>
+                  <c:v>12.499732533006949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.45551626024511238</c:v>
+                  <c:v>12.443367743708565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.398769535866373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.336529116534802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.219304361049723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.978185246582612</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.41689299878615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.761922831940431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2244048339173172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$A$10</c:f>
+              <c:f>'Model Build'!$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>c</c:v>
+                  <c:v>VoC10fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4805,87 +4876,640 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Model Build'!$B$6:$H$6</c:f>
+              <c:f>'Model Build'!$A$15:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$B$10:$H$10</c:f>
+              <c:f>'Model Build'!$I$15:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-1.7704346329793603</c:v>
+                  <c:v>14.070119209456456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.7704346329793603</c:v>
+                  <c:v>13.448235768192433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.7704346329793603</c:v>
+                  <c:v>13.181231787744885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0994517959124805</c:v>
+                  <c:v>12.946625989261019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.1254678290104727</c:v>
+                  <c:v>12.720529065294167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1592275633503999</c:v>
+                  <c:v>12.616567473248011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0590283827915401</c:v>
+                  <c:v>12.560202683949628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.515604476107436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.453364056775865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.336139301290785</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.095020186823675</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.533727939027212</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.878757772181494</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3412397741583799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Build'!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC20fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model Build'!$A$15:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model Build'!$L$15:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.651276899592036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.32591936036253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.174887714615567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.030606512523184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.868875635416604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.773954775560256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.707963337013783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.65259697660499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.592805101403084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.509533719658675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.367777022112602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.068146279937437</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.73054179566167</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9367442821549403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Build'!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC30fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model Build'!$A$15:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model Build'!$O$15:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.661752674608037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.353751841677095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.214412746343285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.085128044822085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.948318063358611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.875904887578359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.831606888470063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.797884176747626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.760312443751097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.700635400087616</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.585326090090515</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.31922199096425</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.006517216642484</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.299613848224887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Build'!$R$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC40fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model Build'!$A$15:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model Build'!$R$15:$R$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.704112851056955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.396454479272043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.259843363933317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.135798657924287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.010251731572101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.949474177939177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.916937509273122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.894983815007649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.869092096711494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.820882910600099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.716600986130778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.460431331790987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.151437632178304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.438523136048317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Build'!$U$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC50fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model Build'!$A$15:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model Build'!$U$15:$U$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.624053515884519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.371313929135514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.257989878502613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.154253690818782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.048426735079993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.997426724505619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.971312912373676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.955576936829443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.938278089573135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.904323459173444</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.826050649375436</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.625056630335575</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.377172654874936</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.981614391065904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -4896,15 +5520,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="561967024"/>
-        <c:axId val="561965456"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="561967024"/>
+        <c:axId val="441744160"/>
+        <c:axId val="441739456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="441744160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4959,17 +5582,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561965456"/>
+        <c:crossAx val="441739456"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="561965456"/>
+        <c:axId val="441739456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="13.5"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5024,9 +5646,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561967024"/>
+        <c:crossAx val="441744160"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5038,6 +5660,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5139,1218 +5762,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Model</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.3627665120627045E-2"/>
-          <c:y val="6.3366703744901748E-2"/>
-          <c:w val="0.87420338510768347"/>
-          <c:h val="0.68283832429733826"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model Build'!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC-10fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model Build'!$A$15:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model Build'!$C$15:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.247621375008922</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.625737933744901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.358733953297351</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.124128154813484</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.898031230846634</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.79406963880048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.737704849502094</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.693106641659902</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.630866222328329</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.513641466843254</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.272522352376143</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.71123010457968</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.056259937733962</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5187419397108455</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model Build'!$F$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC0fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model Build'!$A$15:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model Build'!$F$15:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.953284269215393</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.33140082795137</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.064396847503822</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.829791049019956</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.603694125053105</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.499732533006949</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.443367743708565</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.398769535866373</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.336529116534802</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.219304361049723</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.978185246582612</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.41689299878615</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.761922831940431</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.2244048339173172</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model Build'!$I$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC10fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model Build'!$A$15:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model Build'!$I$15:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>14.070119209456456</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.448235768192433</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.181231787744885</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.946625989261019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.720529065294167</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.616567473248011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.560202683949628</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.515604476107436</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.453364056775865</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.336139301290785</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.095020186823675</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.533727939027212</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.878757772181494</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.3412397741583799</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model Build'!$L$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC20fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model Build'!$A$15:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model Build'!$L$15:$L$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.651276899592036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.32591936036253</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.174887714615567</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.030606512523184</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.868875635416604</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.773954775560256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.707963337013783</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.65259697660499</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.592805101403084</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.509533719658675</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.367777022112602</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.068146279937437</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.73054179566167</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.9367442821549403</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model Build'!$O$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC30fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model Build'!$A$15:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model Build'!$O$15:$O$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.661752674608037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.353751841677095</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.214412746343285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.085128044822085</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.948318063358611</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.875904887578359</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.831606888470063</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.797884176747626</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.760312443751097</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.700635400087616</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.585326090090515</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.31922199096425</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.006517216642484</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.299613848224887</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model Build'!$R$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC40fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model Build'!$A$15:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model Build'!$R$15:$R$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.704112851056955</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.396454479272043</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.259843363933317</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.135798657924287</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.010251731572101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.949474177939177</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.916937509273122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.894983815007649</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.869092096711494</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.820882910600099</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.716600986130778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.460431331790987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.151437632178304</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.438523136048317</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model Build'!$U$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VoC50fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model Build'!$A$15:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model Build'!$U$15:$U$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.624053515884519</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.371313929135514</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.257989878502613</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.154253690818782</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.048426735079993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.997426724505619</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.971312912373676</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.955576936829443</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.938278089573135</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.904323459173444</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.826050649375436</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.625056630335575</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.377172654874936</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.981614391065904</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="561963104"/>
-        <c:axId val="561968592"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="561963104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="561968592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="561968592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="13.5"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="561963104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>State</a:t>
             </a:r>
             <a:r>
@@ -6369,6 +5780,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7454,11 +6866,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561963496"/>
-        <c:axId val="561968200"/>
+        <c:axId val="441741808"/>
+        <c:axId val="441741416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561963496"/>
+        <c:axId val="441741808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7580,13 +6992,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561968200"/>
+        <c:crossAx val="441741416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561968200"/>
+        <c:axId val="441741416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7634,6 +7046,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7700,7 +7113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561963496"/>
+        <c:crossAx val="441741808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7843,6 +7256,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8928,11 +8342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561950168"/>
-        <c:axId val="561959968"/>
+        <c:axId val="448302152"/>
+        <c:axId val="448302544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561950168"/>
+        <c:axId val="448302152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9054,13 +8468,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561959968"/>
+        <c:crossAx val="448302544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561959968"/>
+        <c:axId val="448302544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -9108,6 +8522,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9174,7 +8589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561950168"/>
+        <c:crossAx val="448302152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9304,6 +8719,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10251,11 +9667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561953696"/>
-        <c:axId val="561948992"/>
+        <c:axId val="448297448"/>
+        <c:axId val="448308032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561953696"/>
+        <c:axId val="448297448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10376,13 +9792,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561948992"/>
+        <c:crossAx val="448308032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561948992"/>
+        <c:axId val="448308032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -10435,6 +9851,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10501,7 +9918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561953696"/>
+        <c:crossAx val="448297448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10606,6 +10023,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10796,11 +10214,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561951344"/>
-        <c:axId val="561956440"/>
+        <c:axId val="448304504"/>
+        <c:axId val="448306072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561951344"/>
+        <c:axId val="448304504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10857,12 +10275,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561956440"/>
+        <c:crossAx val="448306072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561956440"/>
+        <c:axId val="448306072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10919,7 +10337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561951344"/>
+        <c:crossAx val="448304504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10982,6 +10400,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>-10 deg C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -10989,10 +10463,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.677537182852145E-2"/>
-          <c:y val="2.6458264982502182E-2"/>
-          <c:w val="0.88073862642169731"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="0.16207509611757245"/>
+          <c:y val="7.6549707602339215E-2"/>
+          <c:w val="0.7753357091831411"/>
+          <c:h val="0.65401528756273886"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -11001,6 +10475,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Build'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC -10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -11078,44 +10563,56 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!#REF!</c:f>
+              <c:f>'Model Build'!$B$15:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>12.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Model!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Build'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VoC-10fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -11193,40 +10690,56 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!#REF!</c:f>
+              <c:f>'Model Build'!$C$15:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>13.247621375008922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.625737933744901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.358733953297351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.124128154813484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.898031230846634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.79406963880048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.737704849502094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.693106641659902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.630866222328329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.513641466843254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.272522352376143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.71123010457968</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.056259937733962</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5187419397108455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Model!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11236,13 +10749,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561952520"/>
-        <c:axId val="561949384"/>
+        <c:axId val="448314304"/>
+        <c:axId val="448317048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561952520"/>
+        <c:axId val="448314304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11297,16 +10811,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561949384"/>
+        <c:crossAx val="448317048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561949384"/>
+        <c:axId val="448317048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.5"/>
-          <c:min val="2"/>
+          <c:max val="14.5"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11361,7 +10875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561952520"/>
+        <c:crossAx val="448314304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11373,6 +10887,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -11444,12 +10990,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>-10 deg C</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>20 deg C</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11486,10 +11038,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16207509611757245"/>
-          <c:y val="7.6549707602339215E-2"/>
-          <c:w val="0.7753357091831411"/>
-          <c:h val="0.65401528756273886"/>
+          <c:x val="0.1578994325314079"/>
+          <c:y val="4.3846629560915298E-2"/>
+          <c:w val="0.75461703650680023"/>
+          <c:h val="0.67122210373054014"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -11500,11 +11052,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$B$14</c:f>
+              <c:f>'Model Build'!$K$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC -10C</c:v>
+                  <c:v>VoC 20C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11586,36 +11138,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$B$15:$B$28</c:f>
+              <c:f>'Model Build'!$K$15:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>12.68</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.38</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.26</c:v>
+                  <c:v>12.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.17</c:v>
+                  <c:v>12.845000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.03</c:v>
+                  <c:v>12.831250000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.98</c:v>
+                  <c:v>12.831250000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.95</c:v>
+                  <c:v>12.831250000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.9</c:v>
+                  <c:v>12.79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.76</c:v>
+                  <c:v>12.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11627,11 +11194,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$C$14</c:f>
+              <c:f>'Model Build'!$L$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC-10fit</c:v>
+                  <c:v>VoC20fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11713,51 +11280,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$C$15:$C$28</c:f>
+              <c:f>'Model Build'!$L$15:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.247621375008922</c:v>
+                  <c:v>13.651276899592036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.625737933744901</c:v>
+                  <c:v>13.32591936036253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.358733953297351</c:v>
+                  <c:v>13.174887714615567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.124128154813484</c:v>
+                  <c:v>13.030606512523184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.898031230846634</c:v>
+                  <c:v>12.868875635416604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.79406963880048</c:v>
+                  <c:v>12.773954775560256</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.737704849502094</c:v>
+                  <c:v>12.707963337013783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.693106641659902</c:v>
+                  <c:v>12.65259697660499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.630866222328329</c:v>
+                  <c:v>12.592805101403084</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.513641466843254</c:v>
+                  <c:v>12.509533719658675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.272522352376143</c:v>
+                  <c:v>12.367777022112602</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.71123010457968</c:v>
+                  <c:v>12.068146279937437</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.056259937733962</c:v>
+                  <c:v>11.73054179566167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5187419397108455</c:v>
+                  <c:v>9.9367442821549403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11772,11 +11339,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561958400"/>
-        <c:axId val="561955656"/>
+        <c:axId val="448304112"/>
+        <c:axId val="448321752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561958400"/>
+        <c:axId val="448304112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11834,15 +11401,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561955656"/>
+        <c:crossAx val="448321752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561955656"/>
+        <c:axId val="448321752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14.5"/>
+          <c:max val="14"/>
           <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -11898,9 +11465,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561958400"/>
+        <c:crossAx val="448304112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11912,6 +11480,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12015,7 +11584,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>20 deg C</a:t>
+              <a:t>0 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -12023,6 +11592,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12073,11 +11643,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$K$14</c:f>
+              <c:f>'Model Build'!$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 20C</c:v>
+                  <c:v>VoC 0C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12159,51 +11729,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$K$15:$K$28</c:f>
+              <c:f>'Model Build'!$E$15:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.3</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.9</c:v>
+                  <c:v>12.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.85</c:v>
+                  <c:v>12.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.845000000000001</c:v>
+                  <c:v>12.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.831250000000001</c:v>
+                  <c:v>12.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.831250000000001</c:v>
+                  <c:v>12.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.831250000000001</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.79</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.65</c:v>
+                  <c:v>12.37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.41</c:v>
+                  <c:v>11.97</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.15</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.59</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12215,11 +11785,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$L$14</c:f>
+              <c:f>'Model Build'!$F$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC20fit</c:v>
+                  <c:v>VoC0fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12301,51 +11871,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$L$15:$L$28</c:f>
+              <c:f>'Model Build'!$F$15:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.651276899592036</c:v>
+                  <c:v>13.953284269215393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.32591936036253</c:v>
+                  <c:v>13.33140082795137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.174887714615567</c:v>
+                  <c:v>13.064396847503822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.030606512523184</c:v>
+                  <c:v>12.829791049019956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.868875635416604</c:v>
+                  <c:v>12.603694125053105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.773954775560256</c:v>
+                  <c:v>12.499732533006949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.707963337013783</c:v>
+                  <c:v>12.443367743708565</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.65259697660499</c:v>
+                  <c:v>12.398769535866373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.592805101403084</c:v>
+                  <c:v>12.336529116534802</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.509533719658675</c:v>
+                  <c:v>12.219304361049723</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.367777022112602</c:v>
+                  <c:v>11.978185246582612</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.068146279937437</c:v>
+                  <c:v>11.41689299878615</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.73054179566167</c:v>
+                  <c:v>10.761922831940431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9367442821549403</c:v>
+                  <c:v>7.2244048339173172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12360,11 +11930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561954480"/>
-        <c:axId val="561956048"/>
+        <c:axId val="448326064"/>
+        <c:axId val="448327632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561954480"/>
+        <c:axId val="448326064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12422,12 +11992,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561956048"/>
+        <c:crossAx val="448327632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561956048"/>
+        <c:axId val="448327632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -12486,7 +12056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561954480"/>
+        <c:crossAx val="448326064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -12501,6 +12071,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12604,7 +12175,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>0 deg C</a:t>
+              <a:t>10 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -12612,6 +12183,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12648,8 +12220,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1578994325314079"/>
-          <c:y val="4.3846629560915298E-2"/>
+          <c:x val="0.14346956630421198"/>
+          <c:y val="9.5828664691767332E-2"/>
           <c:w val="0.75461703650680023"/>
           <c:h val="0.67122210373054014"/>
         </c:manualLayout>
@@ -12662,11 +12234,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$E$14</c:f>
+              <c:f>'Model Build'!$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 0C</c:v>
+                  <c:v>VoC 10C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12748,51 +12320,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$E$15:$E$28</c:f>
+              <c:f>'Model Build'!$H$15:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>12.9</c:v>
+                  <c:v>13.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>12.77</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>12.74</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.64</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.6</c:v>
+                  <c:v>12.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.5</c:v>
+                  <c:v>12.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.37</c:v>
+                  <c:v>12.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.97</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.4</c:v>
+                  <c:v>11.78</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12804,11 +12373,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$F$14</c:f>
+              <c:f>'Model Build'!$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC0fit</c:v>
+                  <c:v>VoC10fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12890,51 +12459,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$F$15:$F$28</c:f>
+              <c:f>'Model Build'!$I$15:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.953284269215393</c:v>
+                  <c:v>14.070119209456456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.33140082795137</c:v>
+                  <c:v>13.448235768192433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.064396847503822</c:v>
+                  <c:v>13.181231787744885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.829791049019956</c:v>
+                  <c:v>12.946625989261019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.603694125053105</c:v>
+                  <c:v>12.720529065294167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.499732533006949</c:v>
+                  <c:v>12.616567473248011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.443367743708565</c:v>
+                  <c:v>12.560202683949628</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.398769535866373</c:v>
+                  <c:v>12.515604476107436</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.336529116534802</c:v>
+                  <c:v>12.453364056775865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.219304361049723</c:v>
+                  <c:v>12.336139301290785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.978185246582612</c:v>
+                  <c:v>12.095020186823675</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.41689299878615</c:v>
+                  <c:v>11.533727939027212</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.761922831940431</c:v>
+                  <c:v>10.878757772181494</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2244048339173172</c:v>
+                  <c:v>7.3412397741583799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12949,11 +12518,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561957224"/>
-        <c:axId val="561952912"/>
+        <c:axId val="448323320"/>
+        <c:axId val="442781632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561957224"/>
+        <c:axId val="448323320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13011,12 +12580,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561952912"/>
+        <c:crossAx val="442781632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561952912"/>
+        <c:axId val="442781632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -13075,7 +12644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561957224"/>
+        <c:crossAx val="448323320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -13090,6 +12659,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13193,7 +12763,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>10 deg C</a:t>
+              <a:t>50 deg C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -13201,6 +12771,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30196566338298619"/>
+          <c:y val="1.9493177387914229E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13237,8 +12815,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14346956630421198"/>
-          <c:y val="9.5828664691767332E-2"/>
+          <c:x val="0.1578994325314079"/>
+          <c:y val="4.3846629560915298E-2"/>
           <c:w val="0.75461703650680023"/>
           <c:h val="0.67122210373054014"/>
         </c:manualLayout>
@@ -13251,11 +12829,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$H$14</c:f>
+              <c:f>'Model Build'!$T$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC 10C</c:v>
+                  <c:v>VoC 50C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13337,48 +12915,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$H$15:$H$28</c:f>
+              <c:f>'Model Build'!$T$15:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.1</c:v>
+                  <c:v>13.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.85</c:v>
+                  <c:v>13.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.8</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.77</c:v>
+                  <c:v>13.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.75</c:v>
+                  <c:v>13.046666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.74</c:v>
+                  <c:v>13.043333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.71</c:v>
+                  <c:v>13.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.65</c:v>
+                  <c:v>13.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.49</c:v>
+                  <c:v>12.95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.25</c:v>
+                  <c:v>12.87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.78</c:v>
+                  <c:v>12.66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.05</c:v>
+                  <c:v>12.43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.1</c:v>
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13390,11 +12971,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Build'!$I$14</c:f>
+              <c:f>'Model Build'!$U$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VoC10fit</c:v>
+                  <c:v>VoC50fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13476,51 +13057,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Build'!$I$15:$I$28</c:f>
+              <c:f>'Model Build'!$U$15:$U$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>14.070119209456456</c:v>
+                  <c:v>13.624053515884519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.448235768192433</c:v>
+                  <c:v>13.371313929135514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.181231787744885</c:v>
+                  <c:v>13.257989878502613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.946625989261019</c:v>
+                  <c:v>13.154253690818782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.720529065294167</c:v>
+                  <c:v>13.048426735079993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.616567473248011</c:v>
+                  <c:v>12.997426724505619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.560202683949628</c:v>
+                  <c:v>12.971312912373676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.515604476107436</c:v>
+                  <c:v>12.955576936829443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.453364056775865</c:v>
+                  <c:v>12.938278089573135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.336139301290785</c:v>
+                  <c:v>12.904323459173444</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.095020186823675</c:v>
+                  <c:v>12.826050649375436</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.533727939027212</c:v>
+                  <c:v>12.625056630335575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.878757772181494</c:v>
+                  <c:v>12.377172654874936</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3412397741583799</c:v>
+                  <c:v>10.981614391065904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13535,11 +13116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561953304"/>
-        <c:axId val="561957616"/>
+        <c:axId val="442773792"/>
+        <c:axId val="442772224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561953304"/>
+        <c:axId val="442773792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13597,12 +13178,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561957616"/>
+        <c:crossAx val="442772224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561957616"/>
+        <c:axId val="442772224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -13661,7 +13242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561953304"/>
+        <c:crossAx val="442773792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -13676,6 +13257,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13943,46 +13525,6 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17438,522 +16980,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -22257,15 +21283,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>137787</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>236847</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>55736</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -22283,7 +21309,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10271760" y="381000"/>
+          <a:off x="15857220" y="381000"/>
           <a:ext cx="4496427" cy="3515216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22371,36 +21397,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>430530</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
       <xdr:row>29</xdr:row>
@@ -22423,7 +21419,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22453,7 +21449,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22485,7 +21481,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22517,7 +21513,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22549,7 +21545,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22581,7 +21577,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22613,7 +21609,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22643,7 +21639,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22673,7 +21669,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22705,7 +21701,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23178,7 +22174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -23278,9 +22274,9 @@
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="14" t="e">
         <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$M$2:$M$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>0.47799999999999998</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L3" s="18">
         <v>0</v>
@@ -23318,9 +22314,9 @@
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="14" t="e">
         <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$N$2:$N$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>-0.46680396129646923</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L4" s="18">
         <v>10</v>
@@ -23358,9 +22354,9 @@
       <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="14" t="e">
         <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$O$2:$O$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>2.7443989813252396</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L5" s="18">
         <v>20</v>
@@ -23418,9 +22414,9 @@
       <c r="B7" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="38" t="e">
         <f ca="1">IF($F$13&gt;=$H$13, IF($F$13&lt;$H$37, (FORECAST($F$13,OFFSET($G$13:$G$37,MATCH($F$13,$H$13:$H$37,1)-1,0,2),OFFSET($H$13:$H$37,MATCH($F$13,$H$13:$H$37,1)-1,0,2)))*100, 100), 0)</f>
-        <v>100</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>54</v>
@@ -23428,9 +22424,9 @@
       <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="14" t="e">
         <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$P$2:$P$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>-1.0701617141417072</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L7" s="18">
         <v>40</v>
@@ -23462,9 +22458,9 @@
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="14" t="e">
         <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$Q$2:$Q$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>0.4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L8" s="18">
         <v>50.000010000000003</v>
@@ -23498,9 +22494,9 @@
       <c r="G9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="14" t="e">
         <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$R$2:$R$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>1.734</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="19"/>
@@ -23548,225 +22544,225 @@
       <c r="G13">
         <v>1E-3</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="9" t="e">
         <f t="shared" ref="H13:H37" ca="1" si="0">H$10*(H$5+H$4*(-LN($G13))^H$3+H$7*$G13+H$9*EXP(H$8*($G13-1)))</f>
-        <v>10.921270435538872</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>0.01</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>11.728172043973755</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.081908665018233</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>0.05</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.352090785033269</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>0.1</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.606764784163836</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G18">
         <v>0.15</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.736486235725325</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>0.2</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.813889478393094</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>0.25</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.863012278596582</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>0.3</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.895052212940437</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G22">
         <v>0.35</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.91626384664742</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G23">
         <v>0.4</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.930590695534356</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G24">
         <v>0.45</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.940764907262137</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G25">
         <v>0.5</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.948844313877634</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G26">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.95651215214469</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G27">
         <v>0.6</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.965271152584418</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G28">
         <v>0.65</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.976597293978275</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G29">
         <v>0.7</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.992098621151571</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G30">
         <v>0.75</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>13.013732613395415</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G31">
         <v>0.8</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>13.044185034090258</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G32">
         <v>0.85</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>13.087683328816944</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G33">
         <v>0.9</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>13.152203115203825</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G34">
         <v>0.95</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>13.258195822975788</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G35">
         <v>0.98</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>13.374107345942264</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G36">
         <v>0.99</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>13.440939892263243</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>13.632949068734129</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -25097,7 +24093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -25602,8 +24598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y6:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SOC_Photon/Battery State/BattleBorn.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn.xlsx
@@ -28102,7 +28102,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SOC_Photon/Battery State/BattleBorn.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn.xlsx
@@ -4,78 +4,80 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BattleBorn Calculator" sheetId="7" r:id="rId1"/>
     <sheet name="Cheat Sheet Chart" sheetId="6" r:id="rId2"/>
-    <sheet name="Cheat Sheet" sheetId="5" r:id="rId3"/>
-    <sheet name="Cap Curves" sheetId="3" r:id="rId4"/>
-    <sheet name="Model Build" sheetId="4" r:id="rId5"/>
+    <sheet name="Derivative High Res" sheetId="8" r:id="rId3"/>
+    <sheet name="Derivative Low Res" sheetId="9" r:id="rId4"/>
+    <sheet name="Cheat Sheet" sheetId="5" r:id="rId5"/>
+    <sheet name="Cap Curves" sheetId="3" r:id="rId6"/>
+    <sheet name="Model Build" sheetId="4" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Model Build'!$A$15:$L$28</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'Model Build'!$C$9</definedName>
-    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Model Build'!$B$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Model Build'!$B$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Model Build'!$B$10</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Model Build'!$B$10</definedName>
-    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'Model Build'!$B$12</definedName>
-    <definedName name="solver_lhs6" localSheetId="4" hidden="1">'Model Build'!$B$12</definedName>
-    <definedName name="solver_lhs7" localSheetId="4" hidden="1">'Model Build'!$B$12</definedName>
-    <definedName name="solver_lhs8" localSheetId="4" hidden="1">'Model Build'!$B$12</definedName>
-    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'Model Build'!$G$29</definedName>
-    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel6" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel8" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">-1.5</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">-1.5</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">-1.5</definedName>
-    <definedName name="solver_rhs4" localSheetId="4" hidden="1">-1.5</definedName>
-    <definedName name="solver_rhs5" localSheetId="4" hidden="1">0.6851</definedName>
-    <definedName name="solver_rhs6" localSheetId="4" hidden="1">0.6851</definedName>
-    <definedName name="solver_rhs7" localSheetId="4" hidden="1">0.6851</definedName>
-    <definedName name="solver_rhs8" localSheetId="4" hidden="1">0.6851</definedName>
-    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Model Build'!$A$15:$L$28</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Model Build'!$C$9</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Model Build'!$B$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Model Build'!$B$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Model Build'!$B$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="6" hidden="1">'Model Build'!$B$10</definedName>
+    <definedName name="solver_lhs5" localSheetId="6" hidden="1">'Model Build'!$B$12</definedName>
+    <definedName name="solver_lhs6" localSheetId="6" hidden="1">'Model Build'!$B$12</definedName>
+    <definedName name="solver_lhs7" localSheetId="6" hidden="1">'Model Build'!$B$12</definedName>
+    <definedName name="solver_lhs8" localSheetId="6" hidden="1">'Model Build'!$B$12</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Model Build'!$G$29</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">-1.5</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">-1.5</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">-1.5</definedName>
+    <definedName name="solver_rhs4" localSheetId="6" hidden="1">-1.5</definedName>
+    <definedName name="solver_rhs5" localSheetId="6" hidden="1">0.6851</definedName>
+    <definedName name="solver_rhs6" localSheetId="6" hidden="1">0.6851</definedName>
+    <definedName name="solver_rhs7" localSheetId="6" hidden="1">0.6851</definedName>
+    <definedName name="solver_rhs8" localSheetId="6" hidden="1">0.6851</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>d</t>
   </si>
@@ -522,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -609,10 +611,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2464,11 +2462,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558866872"/>
-        <c:axId val="558877064"/>
+        <c:axId val="427270648"/>
+        <c:axId val="427273000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558866872"/>
+        <c:axId val="427270648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2583,12 +2581,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558877064"/>
+        <c:crossAx val="427273000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558877064"/>
+        <c:axId val="427273000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.1"/>
@@ -2703,7 +2701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558866872"/>
+        <c:crossAx val="427270648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2825,7 +2823,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3160,11 +3157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558875888"/>
-        <c:axId val="558876280"/>
+        <c:axId val="430769352"/>
+        <c:axId val="430769744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558875888"/>
+        <c:axId val="430769352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3222,12 +3219,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558876280"/>
+        <c:crossAx val="430769744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558876280"/>
+        <c:axId val="430769744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3286,7 +3283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558875888"/>
+        <c:crossAx val="430769352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3301,7 +3298,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3758,11 +3754,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558874320"/>
-        <c:axId val="558874712"/>
+        <c:axId val="430774056"/>
+        <c:axId val="430766608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558874320"/>
+        <c:axId val="430774056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3820,12 +3816,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558874712"/>
+        <c:crossAx val="430766608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558874712"/>
+        <c:axId val="430766608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3884,7 +3880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558874320"/>
+        <c:crossAx val="430774056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3899,7 +3895,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4011,7 +4006,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4349,11 +4343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="620938312"/>
-        <c:axId val="620930080"/>
+        <c:axId val="430775232"/>
+        <c:axId val="430775624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="620938312"/>
+        <c:axId val="430775232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4411,12 +4405,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620930080"/>
+        <c:crossAx val="430775624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="620930080"/>
+        <c:axId val="430775624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4475,7 +4469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620938312"/>
+        <c:crossAx val="430775232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -4490,7 +4484,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4602,7 +4595,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4940,11 +4932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="620932040"/>
-        <c:axId val="620934000"/>
+        <c:axId val="430767392"/>
+        <c:axId val="430768176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="620932040"/>
+        <c:axId val="430767392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5002,12 +4994,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620934000"/>
+        <c:crossAx val="430768176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="620934000"/>
+        <c:axId val="430768176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -5066,7 +5058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620932040"/>
+        <c:crossAx val="430767392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -5081,7 +5073,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5188,7 +5179,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5544,11 +5534,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="620938704"/>
-        <c:axId val="620931648"/>
+        <c:axId val="430768960"/>
+        <c:axId val="430770528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="620938704"/>
+        <c:axId val="430768960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5605,7 +5595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620931648"/>
+        <c:crossAx val="430770528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5613,7 +5603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="620931648"/>
+        <c:axId val="430770528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5670,7 +5660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620938704"/>
+        <c:crossAx val="430768960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5684,7 +5674,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5791,7 +5780,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6758,11 +6746,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="620934392"/>
-        <c:axId val="620930472"/>
+        <c:axId val="430779544"/>
+        <c:axId val="430777584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="620934392"/>
+        <c:axId val="430779544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6820,12 +6808,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620930472"/>
+        <c:crossAx val="430777584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="620930472"/>
+        <c:axId val="430777584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -6884,7 +6872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620934392"/>
+        <c:crossAx val="430779544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6898,7 +6886,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7018,7 +7005,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8104,11 +8090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="620937136"/>
-        <c:axId val="620939096"/>
+        <c:axId val="430778368"/>
+        <c:axId val="430779152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="620937136"/>
+        <c:axId val="430778368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8230,13 +8216,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620939096"/>
+        <c:crossAx val="430779152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="620939096"/>
+        <c:axId val="430779152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -8284,7 +8270,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8351,7 +8336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620937136"/>
+        <c:crossAx val="430778368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10169,11 +10154,2053 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="625994704"/>
-        <c:axId val="625997448"/>
+        <c:axId val="560242840"/>
+        <c:axId val="560245192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="625994704"/>
+        <c:axId val="560242840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="97.5"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SOC, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560245192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="560245192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>dV/d(soc)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560242840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>BattleBorn SOC-OCV curve fit 12v</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cheat Sheet'!$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-10 C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>99.999899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9999999999999991E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$L$10:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>2957.9991496458574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.051624479598839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.769912484492654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.602586844656587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4833459203634547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4461700980464935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1703408128275017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.457668556697282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0135491314089928</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72759770393020862</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54976289694832481</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45565889116229119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43428733820456866</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48331945432714729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60772259104628201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82057999046126762</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1463722691899658</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6285340391527594</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.346534538178735</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.458308240141736</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3251254771920857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.9972704167267334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.471707258737993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.032168693884003</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>555078.03361758136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cheat Sheet'!$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>99.999899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9999999999999991E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$M$10:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>2957.9991496458574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.051624479598839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.769912484492654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.602586844656587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4833459203634547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4461700980464935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1703408128275017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.457668556697282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0135491314089928</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72759770393020862</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54976289694832481</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45565889116229119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43428733820456866</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48331945432714729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60772259104628201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82057999046126762</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1463722691899658</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6285340391527594</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.346534538178735</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.458308240141736</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3251254771920857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.9972704167267334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.471707258737993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.032168693884003</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>555078.03361758136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cheat Sheet'!$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>99.999899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9999999999999991E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$N$10:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>2957.9991496458574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.051624479598839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.769912484492654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.602586844656587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4833459203634547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4461700980464935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1703408128275017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.457668556697282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0135491314089928</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72759770393020862</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54976289694832481</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45565889116229119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43428733820456866</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48331945432714729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60772259104628201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82057999046126762</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1463722691899658</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6285340391527594</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.346534538178735</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.458308240141736</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3251254771920857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.9972704167267334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.471707258737993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.032168693884003</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>555078.03361758136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cheat Sheet'!$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15 C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>99.999899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9999999999999991E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$O$10:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>2226.9649455579647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.368543292953586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8843743124126942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.497395701776254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1439298466163237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8443270925769331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8708737357844045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3216055178674893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97474863069900985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74720385959794022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60128920004177022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51864296245369435</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49098121595461519</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51654629631830584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59907293008510898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74840531853658687</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98296733288848426</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3354508968715564</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8656737417068938</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6925198212508623</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0879379521337178</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8425447807445341</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.717892516484408</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.43771979009454</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>417845.17982406804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cheat Sheet'!$P$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>99.999899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9999999999999991E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$P$10:$P$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1495.9307414700711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.685462106308332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9988361403327346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3922045588959193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8045137728691905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2424840871073721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5714066587413078</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1855424790376965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93594812998902555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76681001526567139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65281550313521608</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58162703374509706</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54767509370466216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54977313830946306</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5904232691239355</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67623064661190568</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8195623965870027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0423677545903525</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3848129452350522</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.926731402359986</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8507504270753472</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6878191447623321</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9640777742308142</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.843270886305078</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>280612.32603055466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cheat Sheet'!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25 C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>99.999899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9999999999999991E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$Q$10:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1463.9335021366865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.370626062172089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7624063668301133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.189812413346452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6355236470925063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1056658499224201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4477776296505112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.069040901773624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82368900635445907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6570985069424764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54449630626017331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4738076084287357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4395812990891268</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44065574495844784</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47947928225217229</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56251578907877331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70186820462863331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91901718365749296</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2532717799997926</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7827620993314386</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6862193652487472</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4832663750495634</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.646156432964565</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.314207965097545</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>274626.31349256751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cheat Sheet'!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30 C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>99.999899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9999999999999991E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$R$10:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1431.9362628033014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.055790018035845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5259765933274867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.987420267796983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4665335213158204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9688476127374663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3241486005597136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95253932450955059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71142988271989083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54738699861927964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43617710938512877</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36598818311237302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3314875044735901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33153835160743084</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36853529538040775</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44880093154563916</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58417401267026214</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79566661272463168</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1217306147645316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6387927963028885</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5216883034221453</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2787136053367929</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3282350916983106</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.785145043890012</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>268640.30095458019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cheat Sheet'!$S$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35 C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>99.999899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9999999999999991E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cheat Sheet'!$S$10:$S$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1436.800648746457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.028843908301972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4869256220653906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9431143498349286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4170707859098912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9144179754070181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2676827289286599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89497307128000525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65320865236530068</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48877245111898038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37734760793857225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30708152373616704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27262320398459128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27283208083790855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31011102580107552</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.39080444670083736</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52679188292490187</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73915775094220404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0664862693155963</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5854671862538861</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.471537149204492</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2347412583519048</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3017653098681947</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.791272649582417</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>269564.38430279144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="433488616"/>
+        <c:axId val="433489008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="433488616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10288,12 +12315,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625997448"/>
+        <c:crossAx val="433489008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="625997448"/>
+        <c:axId val="433489008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10408,7 +12435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625994704"/>
+        <c:crossAx val="433488616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10481,2058 +12508,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>BattleBorn SOC-OCV curve fit 12v</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cheat Sheet'!$L$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-10 C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>99.999899999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.9999999999999991E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$L$10:$L$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>2957.9991496458574</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.051624479598839</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.769912484492654</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.602586844656587</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4833459203634547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4461700980464935</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1703408128275017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.457668556697282</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0135491314089928</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.72759770393020862</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.54976289694832481</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45565889116229119</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.43428733820456866</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.48331945432714729</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.60772259104628201</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.82057999046126762</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1463722691899658</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6285340391527594</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.346534538178735</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.458308240141736</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.3251254771920857</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.9972704167267334</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>19.471707258737993</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>39.032168693884003</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0">
-                  <c:v>555078.03361758136</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cheat Sheet'!$M$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0 C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>99.999899999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.9999999999999991E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$M$10:$M$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>2957.9991496458574</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.051624479598839</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.769912484492654</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.602586844656587</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4833459203634547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4461700980464935</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1703408128275017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.457668556697282</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0135491314089928</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.72759770393020862</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.54976289694832481</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45565889116229119</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.43428733820456866</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.48331945432714729</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.60772259104628201</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.82057999046126762</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1463722691899658</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6285340391527594</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.346534538178735</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.458308240141736</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.3251254771920857</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.9972704167267334</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>19.471707258737993</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>39.032168693884003</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0">
-                  <c:v>555078.03361758136</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cheat Sheet'!$N$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10 C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>99.999899999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.9999999999999991E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$N$10:$N$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>2957.9991496458574</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.051624479598839</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.769912484492654</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.602586844656587</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4833459203634547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4461700980464935</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1703408128275017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.457668556697282</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0135491314089928</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.72759770393020862</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.54976289694832481</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45565889116229119</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.43428733820456866</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.48331945432714729</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.60772259104628201</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.82057999046126762</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1463722691899658</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6285340391527594</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.346534538178735</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.458308240141736</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.3251254771920857</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.9972704167267334</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>19.471707258737993</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>39.032168693884003</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0">
-                  <c:v>555078.03361758136</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cheat Sheet'!$O$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>15 C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>99.999899999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.9999999999999991E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$O$10:$O$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>2226.9649455579647</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.368543292953586</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8843743124126942</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.497395701776254</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1439298466163237</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8443270925769331</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8708737357844045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3216055178674893</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97474863069900985</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.74720385959794022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.60128920004177022</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.51864296245369435</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.49098121595461519</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.51654629631830584</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.59907293008510898</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.74840531853658687</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.98296733288848426</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3354508968715564</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8656737417068938</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.6925198212508623</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.0879379521337178</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.8425447807445341</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14.717892516484408</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>29.43771979009454</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0">
-                  <c:v>417845.17982406804</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cheat Sheet'!$P$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20 C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>99.999899999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.9999999999999991E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$P$10:$P$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>1495.9307414700711</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.685462106308332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9988361403327346</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3922045588959193</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8045137728691905</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2424840871073721</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5714066587413078</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1855424790376965</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93594812998902555</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.76681001526567139</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.65281550313521608</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.58162703374509706</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.54767509370466216</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.54977313830946306</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.5904232691239355</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.67623064661190568</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.8195623965870027</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0423677545903525</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.3848129452350522</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.926731402359986</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.8507504270753472</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.6878191447623321</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.9640777742308142</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>19.843270886305078</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0">
-                  <c:v>280612.32603055466</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cheat Sheet'!$Q$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>25 C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>99.999899999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.9999999999999991E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$Q$10:$Q$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>1463.9335021366865</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.370626062172089</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.7624063668301133</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.189812413346452</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6355236470925063</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1056658499224201</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4477776296505112</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.069040901773624</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.82368900635445907</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6570985069424764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.54449630626017331</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.4738076084287357</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4395812990891268</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.44065574495844784</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.47947928225217229</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.56251578907877331</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.70186820462863331</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.91901718365749296</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.2532717799997926</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.7827620993314386</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.6862193652487472</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.4832663750495634</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.646156432964565</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>19.314207965097545</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0">
-                  <c:v>274626.31349256751</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cheat Sheet'!$R$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30 C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>99.999899999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.9999999999999991E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$R$10:$R$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>1431.9362628033014</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.055790018035845</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5259765933274867</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.987420267796983</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4665335213158204</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9688476127374663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3241486005597136</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95253932450955059</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.71142988271989083</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.54738699861927964</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.43617710938512877</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.36598818311237302</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3314875044735901</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.33153835160743084</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.36853529538040775</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.44880093154563916</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.58417401267026214</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.79566661272463168</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1217306147645316</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6387927963028885</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.5216883034221453</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.2787136053367929</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.3282350916983106</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18.785145043890012</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0">
-                  <c:v>268640.30095458019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cheat Sheet'!$S$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>35 C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$B$10:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>99.999899999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.9999999999999991E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Cheat Sheet'!$S$10:$S$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>1436.800648746457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.028843908301972</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.4869256220653906</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9431143498349286</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4170707859098912</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9144179754070181</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2676827289286599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.89497307128000525</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.65320865236530068</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.48877245111898038</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.37734760793857225</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.30708152373616704</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.27262320398459128</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.27283208083790855</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.31011102580107552</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.39080444670083736</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.52679188292490187</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.73915775094220404</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0664862693155963</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5854671862538861</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.471537149204492</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.2347412583519048</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.3017653098681947</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18.791272649582417</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0">
-                  <c:v>269564.38430279144</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="722654032"/>
-        <c:axId val="722653248"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="722654032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="97.5"/>
-          <c:min val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>SOC, %</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="722653248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="722653248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>dV/d(soc)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="722654032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -12589,7 +12564,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13675,11 +13649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558872360"/>
-        <c:axId val="558867656"/>
+        <c:axId val="425413384"/>
+        <c:axId val="430765432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558872360"/>
+        <c:axId val="425413384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13801,13 +13775,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558867656"/>
+        <c:crossAx val="430765432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558867656"/>
+        <c:axId val="430765432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -13855,7 +13829,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13922,7 +13895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558872360"/>
+        <c:crossAx val="425413384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14052,7 +14025,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15000,11 +14972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558873536"/>
-        <c:axId val="558868440"/>
+        <c:axId val="430772096"/>
+        <c:axId val="430777192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558873536"/>
+        <c:axId val="430772096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -15125,13 +15097,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558868440"/>
+        <c:crossAx val="430777192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558868440"/>
+        <c:axId val="430777192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -15184,7 +15156,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15251,7 +15222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558873536"/>
+        <c:crossAx val="430772096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15356,7 +15327,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15547,11 +15517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558864128"/>
-        <c:axId val="558864520"/>
+        <c:axId val="430770920"/>
+        <c:axId val="430772488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558864128"/>
+        <c:axId val="430770920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15608,12 +15578,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558864520"/>
+        <c:crossAx val="430772488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558864520"/>
+        <c:axId val="430772488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15670,7 +15640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558864128"/>
+        <c:crossAx val="430770920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15759,7 +15729,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16082,11 +16051,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558862560"/>
-        <c:axId val="558862952"/>
+        <c:axId val="430765040"/>
+        <c:axId val="430770136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558862560"/>
+        <c:axId val="430765040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16144,12 +16113,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558862952"/>
+        <c:crossAx val="430770136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558862952"/>
+        <c:axId val="430770136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.5"/>
@@ -16208,7 +16177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558862560"/>
+        <c:crossAx val="430765040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16222,7 +16191,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16334,7 +16302,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16672,11 +16639,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558864912"/>
-        <c:axId val="558865304"/>
+        <c:axId val="430772880"/>
+        <c:axId val="430773272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558864912"/>
+        <c:axId val="430772880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16734,12 +16701,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558865304"/>
+        <c:crossAx val="430773272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558865304"/>
+        <c:axId val="430773272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -16798,7 +16765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558864912"/>
+        <c:crossAx val="430772880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -16813,7 +16780,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16925,7 +16891,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17263,11 +17228,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558875496"/>
-        <c:axId val="558875104"/>
+        <c:axId val="430767784"/>
+        <c:axId val="430766216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558875496"/>
+        <c:axId val="430767784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -17325,12 +17290,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558875104"/>
+        <c:crossAx val="430766216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558875104"/>
+        <c:axId val="430766216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -17389,7 +17354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558875496"/>
+        <c:crossAx val="430767784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -17404,7 +17369,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26378,6 +26342,28 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
@@ -26407,24 +26393,14 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8666703" cy="6288593"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -26438,24 +26414,21 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8666703" cy="6288593"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -26463,16 +26436,16 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -26605,7 +26578,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -28099,10 +28072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28111,10 +28084,11 @@
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
@@ -28182,18 +28156,40 @@
         <f ca="1">FORECAST(S$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
+      <c r="U1" s="8">
+        <f ca="1">FORECAST(U$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="V1" s="8">
+        <f ca="1">FORECAST(V$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="W1" s="8">
+        <f ca="1">FORECAST(W$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="X1" s="8">
+        <f ca="1">FORECAST(X$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="Y1" s="8">
+        <f ca="1">FORECAST(Y$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="Z1" s="8">
+        <f ca="1">FORECAST(Z$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AA1" s="8">
+        <f ca="1">FORECAST(AA$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AB1" s="8">
+        <f ca="1">FORECAST(AB$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.47799999999999998</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
@@ -28261,18 +28257,40 @@
         <f ca="1">FORECAST(S$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-0.55520137249356094</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
+      <c r="U2" s="8">
+        <f ca="1">FORECAST(U$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.143251503157807</v>
+      </c>
+      <c r="V2" s="8">
+        <f ca="1">FORECAST(V$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.143251503157807</v>
+      </c>
+      <c r="W2" s="8">
+        <f ca="1">FORECAST(W$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.143251503157807</v>
+      </c>
+      <c r="X2" s="8">
+        <f ca="1">FORECAST(X$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-0.86060345172043817</v>
+      </c>
+      <c r="Y2" s="8">
+        <f ca="1">FORECAST(Y$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-0.57795540028306935</v>
+      </c>
+      <c r="Z2" s="8">
+        <f ca="1">FORECAST(Z$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-0.56562669413501476</v>
+      </c>
+      <c r="AA2" s="8">
+        <f ca="1">FORECAST(AA$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-0.55329798798696006</v>
+      </c>
+      <c r="AB2" s="8">
+        <f ca="1">FORECAST(AB$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-0.55520137249356094</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
@@ -28340,18 +28358,40 @@
         <f ca="1">FORECAST(S$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>2.8290808868885602</v>
       </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
+      <c r="U3" s="8">
+        <f ca="1">FORECAST(U$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>3.3483399767315905</v>
+      </c>
+      <c r="V3" s="8">
+        <f ca="1">FORECAST(V$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>3.5247557002832086</v>
+      </c>
+      <c r="W3" s="8">
+        <f ca="1">FORECAST(W$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>3.5539644353434743</v>
+      </c>
+      <c r="X3" s="8">
+        <f ca="1">FORECAST(X$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>3.1661177280769817</v>
+      </c>
+      <c r="Y3" s="8">
+        <f ca="1">FORECAST(Y$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>2.7782710208104895</v>
+      </c>
+      <c r="Z3" s="8">
+        <f ca="1">FORECAST(Z$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>2.7925885092364857</v>
+      </c>
+      <c r="AA3" s="8">
+        <f ca="1">FORECAST(AA$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>2.8069059976624815</v>
+      </c>
+      <c r="AB3" s="8">
+        <f ca="1">FORECAST(AB$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>2.8290808868885602</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -28419,18 +28459,40 @@
         <f ca="1">FORECAST(S$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>-1.1423476961804364</v>
       </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
+      <c r="U4" s="8">
+        <f ca="1">FORECAST(U$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.7704346329793603</v>
+      </c>
+      <c r="V4" s="8">
+        <f ca="1">FORECAST(V$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.7704346329793603</v>
+      </c>
+      <c r="W4" s="8">
+        <f ca="1">FORECAST(W$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.7704346329793603</v>
+      </c>
+      <c r="X4" s="8">
+        <f ca="1">FORECAST(X$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.4349432144459204</v>
+      </c>
+      <c r="Y4" s="8">
+        <f ca="1">FORECAST(Y$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.0994517959124805</v>
+      </c>
+      <c r="Z4" s="8">
+        <f ca="1">FORECAST(Z$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.1124598124614766</v>
+      </c>
+      <c r="AA4" s="8">
+        <f ca="1">FORECAST(AA$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.1254678290104729</v>
+      </c>
+      <c r="AB4" s="8">
+        <f ca="1">FORECAST(AB$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.1423476961804364</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -28498,18 +28560,40 @@
         <f ca="1">FORECAST(S$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
+      <c r="U5" s="8">
+        <f ca="1">FORECAST(U$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.4</v>
+      </c>
+      <c r="V5" s="8">
+        <f ca="1">FORECAST(V$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.4</v>
+      </c>
+      <c r="W5" s="8">
+        <f ca="1">FORECAST(W$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.4</v>
+      </c>
+      <c r="X5" s="8">
+        <f ca="1">FORECAST(X$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.4</v>
+      </c>
+      <c r="Y5" s="8">
+        <f ca="1">FORECAST(Y$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z5" s="8">
+        <f ca="1">FORECAST(Z$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.4</v>
+      </c>
+      <c r="AA5" s="8">
+        <f ca="1">FORECAST(AA$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.4</v>
+      </c>
+      <c r="AB5" s="8">
+        <f ca="1">FORECAST(AB$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -28577,18 +28661,40 @@
         <f ca="1">FORECAST(S$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
+      <c r="U6" s="8">
+        <f ca="1">FORECAST(U$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>1.734</v>
+      </c>
+      <c r="V6" s="8">
+        <f ca="1">FORECAST(V$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>1.734</v>
+      </c>
+      <c r="W6" s="8">
+        <f ca="1">FORECAST(W$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>1.734</v>
+      </c>
+      <c r="X6" s="8">
+        <f ca="1">FORECAST(X$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>1.734</v>
+      </c>
+      <c r="Y6" s="8">
+        <f ca="1">FORECAST(Y$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>1.734</v>
+      </c>
+      <c r="Z6" s="8">
+        <f ca="1">FORECAST(Z$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>1.734</v>
+      </c>
+      <c r="AA6" s="8">
+        <f ca="1">FORECAST(AA$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>1.734</v>
+      </c>
+      <c r="AB6" s="8">
+        <f ca="1">FORECAST(AB$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>1.734</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
@@ -28640,21 +28746,32 @@
       <c r="S7" s="10">
         <v>4</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
+      <c r="U7" s="10">
+        <v>4</v>
+      </c>
+      <c r="V7" s="10">
+        <v>4</v>
+      </c>
+      <c r="W7" s="10">
+        <v>4</v>
+      </c>
+      <c r="X7" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>4</v>
+      </c>
       <c r="AA7" s="10">
-        <f>(77-32)*5/9</f>
-        <v>25</v>
-      </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -28709,17 +28826,32 @@
       <c r="S8" s="10">
         <v>35</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
+      <c r="U8" s="10">
+        <v>-10</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
+        <v>10</v>
+      </c>
+      <c r="X8" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>38</v>
@@ -28773,17 +28905,32 @@
       <c r="S9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
+      <c r="U9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>1-0.000001</f>
         <v>0.99999899999999997</v>
@@ -28856,18 +29003,40 @@
         <f t="shared" ca="1" si="2"/>
         <v>1436.800648746457</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
+      <c r="U10" s="9">
+        <f ca="1">U$7*(U$2*U$1/$A10^2*((U$1-1)*(-LN($A10))^(U$1-2)+(-LN($A10))^(U$1-1))+U$6*U$5^2*EXP(U$5*($A10-1)))</f>
+        <v>1546321799.3265698</v>
+      </c>
+      <c r="V10" s="9">
+        <f t="shared" ref="V10:AB23" ca="1" si="3">V$7*(V$2*V$1/$A10^2*((V$1-1)*(-LN($A10))^(V$1-2)+(-LN($A10))^(V$1-1))+V$6*V$5^2*EXP(V$5*($A10-1)))</f>
+        <v>1546321799.3265698</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1546321799.3265698</v>
+      </c>
+      <c r="X10" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1164021979.9483488</v>
+      </c>
+      <c r="Y10" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>781722160.57012713</v>
+      </c>
+      <c r="Z10" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>765046785.98466742</v>
+      </c>
+      <c r="AA10" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>748371411.39920747</v>
+      </c>
+      <c r="AB10" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>750945862.3794297</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.99</v>
       </c>
@@ -28908,7 +29077,7 @@
         <v>13.454587931295809</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" ref="L11:S23" ca="1" si="3">L$7*(-L$2*L$1*(-LN($A11))^(L$1-1)/$A11+L$4+L$6*L$5*EXP(L$5*($A11-1)))</f>
+        <f t="shared" ref="L11:S23" ca="1" si="4">L$7*(-L$2*L$1*(-LN($A11))^(L$1-1)/$A11+L$4+L$6*L$5*EXP(L$5*($A11-1)))</f>
         <v>20.051624479598839</v>
       </c>
       <c r="M11" s="9">
@@ -28939,22 +29108,45 @@
         <f t="shared" ca="1" si="2"/>
         <v>10.028843908301972</v>
       </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
+      <c r="U11" s="9">
+        <f t="shared" ref="U11:AB34" ca="1" si="5">U$7*(U$2*U$1/$A11^2*((U$1-1)*(-LN($A11))^(U$1-2)+(-LN($A11))^(U$1-1))+U$6*U$5^2*EXP(U$5*($A11-1)))</f>
+        <v>1255.0192026394234</v>
+      </c>
+      <c r="V11" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1255.0192026394234</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1255.0192026394234</v>
+      </c>
+      <c r="X11" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>945.01190167197785</v>
+      </c>
+      <c r="Y11" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>635.00460070453209</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>621.48252299006379</v>
+      </c>
+      <c r="AA11" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>607.96044527559536</v>
+      </c>
+      <c r="AB11" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>610.0480701171391</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.98</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12" si="4">A12*100</f>
+        <f t="shared" ref="B12" si="6">A12*100</f>
         <v>98</v>
       </c>
       <c r="C12" s="9">
@@ -28990,7 +29182,7 @@
         <v>13.37510316047457</v>
       </c>
       <c r="L12" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>12.769912484492654</v>
       </c>
       <c r="M12" s="9">
@@ -29021,22 +29213,45 @@
         <f t="shared" ca="1" si="2"/>
         <v>6.4869256220653906</v>
       </c>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
+      <c r="U12" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>434.48450723051621</v>
+      </c>
+      <c r="V12" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>434.48450723051621</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>434.48450723051621</v>
+      </c>
+      <c r="X12" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>327.33833084696607</v>
+      </c>
+      <c r="Y12" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>220.19215446341582</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>215.51859058493591</v>
+      </c>
+      <c r="AA12" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>210.84502670645594</v>
+      </c>
+      <c r="AB12" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>211.56656138901565</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.97</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B14" si="5">A13*100</f>
+        <f t="shared" ref="B13:B14" si="7">A13*100</f>
         <v>97</v>
       </c>
       <c r="C13" s="9">
@@ -29072,7 +29287,7 @@
         <v>13.318748518904099</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>9.602586844656587</v>
       </c>
       <c r="M13" s="9">
@@ -29103,22 +29318,45 @@
         <f t="shared" ca="1" si="2"/>
         <v>4.9431143498349286</v>
       </c>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
+      <c r="U13" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>233.06344335074499</v>
+      </c>
+      <c r="V13" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>233.06344335074499</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>233.06344335074499</v>
+      </c>
+      <c r="X13" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>175.71385928682966</v>
+      </c>
+      <c r="Y13" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>118.36427522291434</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>115.86276790297502</v>
+      </c>
+      <c r="AA13" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>113.36126058303567</v>
+      </c>
+      <c r="AB13" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>113.74745928213213</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.95</v>
       </c>
       <c r="B14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="C14" s="9">
@@ -29154,7 +29392,7 @@
         <v>13.237128055138299</v>
       </c>
       <c r="L14" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6.4833459203634547</v>
       </c>
       <c r="M14" s="9">
@@ -29185,17 +29423,40 @@
         <f t="shared" ca="1" si="2"/>
         <v>3.4170707859098912</v>
       </c>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
+      <c r="U14" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>105.85384755379341</v>
+      </c>
+      <c r="V14" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>105.85384755379341</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>105.85384755379341</v>
+      </c>
+      <c r="X14" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>79.952352321336036</v>
+      </c>
+      <c r="Y14" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>54.050857088878651</v>
+      </c>
+      <c r="Z14" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>52.921070692360843</v>
+      </c>
+      <c r="AA14" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>51.791284295843035</v>
+      </c>
+      <c r="AB14" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>51.965707945581798</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.9</v>
       </c>
@@ -29236,7 +29497,7 @@
         <v>13.110463351373188</v>
       </c>
       <c r="L15" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3.4461700980464935</v>
       </c>
       <c r="M15" s="9">
@@ -29267,17 +29528,40 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.9144179754070181</v>
       </c>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
+      <c r="U15" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>35.611574470876462</v>
+      </c>
+      <c r="V15" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.611574470876462</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.611574470876462</v>
+      </c>
+      <c r="X15" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>27.070872936896247</v>
+      </c>
+      <c r="Y15" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>18.530171402916029</v>
+      </c>
+      <c r="Z15" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>18.157638144769678</v>
+      </c>
+      <c r="AA15" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>17.785104886623319</v>
+      </c>
+      <c r="AB15" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>17.842618953649829</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.85</v>
       </c>
@@ -29318,7 +29602,7 @@
         <v>13.032620387595387</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2.1703408128275017</v>
       </c>
       <c r="M16" s="9">
@@ -29349,17 +29633,40 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.2676827289286599</v>
       </c>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
+      <c r="U16" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>18.322279570606003</v>
+      </c>
+      <c r="V16" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>18.322279570606003</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>18.322279570606003</v>
+      </c>
+      <c r="X16" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.050820569969858</v>
+      </c>
+      <c r="Y16" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.7793615693337088</v>
+      </c>
+      <c r="Z16" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.5930466006845254</v>
+      </c>
+      <c r="AA16" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.4067316320353402</v>
+      </c>
+      <c r="AB16" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.4354961285215051</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.8</v>
       </c>
@@ -29400,7 +29707,7 @@
         <v>12.979284897465355</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1.457668556697282</v>
       </c>
       <c r="M17" s="9">
@@ -29431,17 +29738,40 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.89497307128000525</v>
       </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
+      <c r="U17" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>11.032890736026408</v>
+      </c>
+      <c r="V17" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.032890736026408</v>
+      </c>
+      <c r="W17" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.032890736026408</v>
+      </c>
+      <c r="X17" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.5584835124566254</v>
+      </c>
+      <c r="Y17" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.0840762888868412</v>
+      </c>
+      <c r="Z17" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.9761461637899931</v>
+      </c>
+      <c r="AA17" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.8682160386931432</v>
+      </c>
+      <c r="AB17" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.8848789817009344</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.75</v>
       </c>
@@ -29482,7 +29812,7 @@
         <v>12.940980739809717</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1.0135491314089928</v>
       </c>
       <c r="M18" s="9">
@@ -29513,17 +29843,40 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.65320865236530068</v>
       </c>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
+      <c r="U18" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.0693838490746685</v>
+      </c>
+      <c r="V18" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0693838490746685</v>
+      </c>
+      <c r="W18" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0693838490746685</v>
+      </c>
+      <c r="X18" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.5698661546017352</v>
+      </c>
+      <c r="Y18" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0703484601287983</v>
+      </c>
+      <c r="Z18" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0049416302392906</v>
+      </c>
+      <c r="AA18" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.9395348003497808</v>
+      </c>
+      <c r="AB18" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.9496327250746077</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.7</v>
       </c>
@@ -29564,7 +29917,7 @@
         <v>12.912689532758767</v>
       </c>
       <c r="L19" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.72759770393020862</v>
       </c>
       <c r="M19" s="9">
@@ -29595,17 +29948,40 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.48877245111898038</v>
       </c>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
+      <c r="U19" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.5259818430000731</v>
+      </c>
+      <c r="V19" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5259818430000731</v>
+      </c>
+      <c r="W19" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5259818430000731</v>
+      </c>
+      <c r="X19" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.6503579922133227</v>
+      </c>
+      <c r="Y19" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.7747341414265714</v>
+      </c>
+      <c r="Z19" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.7365406739758678</v>
+      </c>
+      <c r="AA19" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6983472065251646</v>
+      </c>
+      <c r="AB19" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.7042437583065131</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.65</v>
       </c>
@@ -29646,7 +30022,7 @@
         <v>12.891226330690504</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.54976289694832481</v>
       </c>
       <c r="M20" s="9">
@@ -29677,17 +30053,40 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.37734760793857225</v>
       </c>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
+      <c r="U20" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.6651267252520374</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6651267252520374</v>
+      </c>
+      <c r="W20" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6651267252520374</v>
+      </c>
+      <c r="X20" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2447468077055963</v>
+      </c>
+      <c r="Y20" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8243668901591552</v>
+      </c>
+      <c r="Z20" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8060305158320817</v>
+      </c>
+      <c r="AA20" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7876941415050083</v>
+      </c>
+      <c r="AB20" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7905250282486991</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -29696,39 +30095,39 @@
         <v>60</v>
       </c>
       <c r="C21" s="9">
-        <f t="shared" ref="C21:J34" ca="1" si="6">C$7*(C$3+C$2*(-LN($A21))^C$1+C$4*$A21+C$6*EXP(C$5*($A21-1)))</f>
+        <f t="shared" ref="C21:J34" ca="1" si="8">C$7*(C$3+C$2*(-LN($A21))^C$1+C$4*$A21+C$6*EXP(C$5*($A21-1)))</f>
         <v>11.737704849502093</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.443367743708565</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.560202683949628</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.634083010481703</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.707963337013783</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.769785112741921</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.831606888470059</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.874272198871594</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.45565889116229119</v>
       </c>
       <c r="M21" s="9">
@@ -29759,17 +30158,40 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.30708152373616704</v>
       </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
+      <c r="U21" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1342828038674722</v>
+      </c>
+      <c r="V21" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1342828038674722</v>
+      </c>
+      <c r="W21" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1342828038674722</v>
+      </c>
+      <c r="X21" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0876529920438462</v>
+      </c>
+      <c r="Y21" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0410231802202206</v>
+      </c>
+      <c r="Z21" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0389892541245369</v>
+      </c>
+      <c r="AA21" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0369553280288535</v>
+      </c>
+      <c r="AB21" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0372693385480114</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.55000000000000004</v>
       </c>
@@ -29778,39 +30200,39 @@
         <v>55.000000000000007</v>
       </c>
       <c r="C22" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.71574867453146</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.421411568737932</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.538246508978995</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.609063540745598</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.679880572512205</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.747097066725839</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.814313560939469</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.859923625790071</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.43428733820456866</v>
       </c>
       <c r="M22" s="9">
@@ -29841,17 +30263,40 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.27262320398459128</v>
       </c>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
+      <c r="U22" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.27207054274253406</v>
+      </c>
+      <c r="V22" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.27207054274253406</v>
+      </c>
+      <c r="W22" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.27207054274253406</v>
+      </c>
+      <c r="X22" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4365253972298939E-2</v>
+      </c>
+      <c r="Y22" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.32080105068713216</v>
+      </c>
+      <c r="Z22" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.33373115868142511</v>
+      </c>
+      <c r="AA22" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34666126667571806</v>
+      </c>
+      <c r="AB22" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34466503390567216</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -29860,80 +30305,103 @@
         <v>50</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.693106641659901</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.398769535866373</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.515604476107436</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.584100726356212</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.65259697660499</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.725240576676306</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.797884176747624</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.846433995877636</v>
       </c>
       <c r="L23" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.48331945432714729</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.48331945432714729</v>
+      </c>
+      <c r="N23" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.48331945432714729</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.51654629631830584</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.54977313830946306</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.44065574495844784</v>
+      </c>
+      <c r="R23" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.33153835160743084</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.27283208083790855</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.705510539513887</v>
+      </c>
+      <c r="V23" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48331945432714729</v>
-      </c>
-      <c r="M23" s="9">
+        <v>-1.705510539513887</v>
+      </c>
+      <c r="W23" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48331945432714729</v>
-      </c>
-      <c r="N23" s="9">
+        <v>-1.705510539513887</v>
+      </c>
+      <c r="X23" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48331945432714729</v>
-      </c>
-      <c r="O23" s="9">
+        <v>-1.0592207831894704</v>
+      </c>
+      <c r="Y23" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51654629631830584</v>
-      </c>
-      <c r="P23" s="9">
+        <v>-0.41293102686505367</v>
+      </c>
+      <c r="Z23" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54977313830946306</v>
-      </c>
-      <c r="Q23" s="9">
+        <v>-0.3847407865584187</v>
+      </c>
+      <c r="AA23" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44065574495844784</v>
-      </c>
-      <c r="R23" s="9">
+        <v>-0.35655054625178351</v>
+      </c>
+      <c r="AB23" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33153835160743084</v>
-      </c>
-      <c r="S23" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.27283208083790855</v>
-      </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
+        <v>-0.36090273584837562</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.45</v>
       </c>
@@ -29942,80 +30410,103 @@
         <v>45</v>
       </c>
       <c r="C24" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.666164904745523</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.371827798951996</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.488662739193058</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.556462833500611</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.624262927808163</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.702404497595005</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.780546067381842</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.832024700375662</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" ref="L24:S34" ca="1" si="7">L$7*(-L$2*L$1*(-LN($A24))^(L$1-1)/$A24+L$4+L$6*L$5*EXP(L$5*($A24-1)))</f>
+        <f t="shared" ref="L24:S34" ca="1" si="9">L$7*(-L$2*L$1*(-LN($A24))^(L$1-1)/$A24+L$4+L$6*L$5*EXP(L$5*($A24-1)))</f>
         <v>0.60772259104628201</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.60772259104628201</v>
       </c>
       <c r="N24" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.60772259104628201</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.59907293008510898</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.5904232691239355</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.47947928225217229</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.36853529538040775</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.31011102580107552</v>
       </c>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
+      <c r="U24" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.3132066078494784</v>
+      </c>
+      <c r="V24" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.3132066078494784</v>
+      </c>
+      <c r="W24" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.3132066078494784</v>
+      </c>
+      <c r="X24" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.2738914048292811</v>
+      </c>
+      <c r="Y24" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.2345762018090836</v>
+      </c>
+      <c r="Z24" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.1892427503025871</v>
+      </c>
+      <c r="AA24" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.1439092987960902</v>
+      </c>
+      <c r="AB24" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.1509081669816073</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.4</v>
       </c>
@@ -30024,80 +30515,103 @@
         <v>40</v>
       </c>
       <c r="C25" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.630866222328329</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.336529116534802</v>
       </c>
       <c r="E25" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.453364056775865</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.52308457908947</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.592805101403084</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.676558772577089</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.760312443751094</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.814702270231296</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.82057999046126762</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.82057999046126762</v>
       </c>
       <c r="N25" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.82057999046126762</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.74840531853658687</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.67623064661190568</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.56251578907877331</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.44880093154563916</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.39080444670083736</v>
       </c>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
+      <c r="U25" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.2803813505314121</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.2803813505314121</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.2803813505314121</v>
+      </c>
+      <c r="X25" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.7590780877566998</v>
+      </c>
+      <c r="Y25" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.2377748249819844</v>
+      </c>
+      <c r="Z25" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.1714177395768437</v>
+      </c>
+      <c r="AA25" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.1050606541717021</v>
+      </c>
+      <c r="AB25" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.1153052854206402</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.35</v>
       </c>
@@ -30106,80 +30620,103 @@
         <v>35</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.582234639435786</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.287897533642258</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.404732473883321</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.480209321855689</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.555686169828061</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.645219258791148</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.734752347754231</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.792027536344571</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.1463722691899658</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.1463722691899658</v>
       </c>
       <c r="N26" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.1463722691899658</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.98296733288848426</v>
       </c>
       <c r="P26" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.8195623965870027</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.70186820462863331</v>
       </c>
       <c r="R26" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.58417401267026214</v>
       </c>
       <c r="S26" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.52679188292490187</v>
       </c>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
+      <c r="U26" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-7.8909938691876258</v>
+      </c>
+      <c r="V26" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-7.8909938691876258</v>
+      </c>
+      <c r="W26" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-7.8909938691876258</v>
+      </c>
+      <c r="X26" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.72853797658383</v>
+      </c>
+      <c r="Y26" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.5660820839800333</v>
+      </c>
+      <c r="Z26" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.4717588324222604</v>
+      </c>
+      <c r="AA26" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.3774355808644874</v>
+      </c>
+      <c r="AB26" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.3919978077089983</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.3</v>
       </c>
@@ -30188,80 +30725,103 @@
         <v>30</v>
       </c>
       <c r="C27" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.51364146684325</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.219304361049723</v>
       </c>
       <c r="E27" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.336139301290785</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.422836510474729</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.509533719658675</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.605084559873147</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.700635400087616</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.760759155343859</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.6285340391527594</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.6285340391527594</v>
       </c>
       <c r="N27" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.6285340391527594</v>
       </c>
       <c r="O27" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.3354508968715564</v>
       </c>
       <c r="P27" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.0423677545903525</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.91901718365749296</v>
       </c>
       <c r="R27" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.79566661272463168</v>
       </c>
       <c r="S27" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73915775094220404</v>
       </c>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
+      <c r="U27" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-11.648190174937602</v>
+      </c>
+      <c r="V27" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-11.648190174937602</v>
+      </c>
+      <c r="W27" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-11.648190174937602</v>
+      </c>
+      <c r="X27" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-8.5610251311928387</v>
+      </c>
+      <c r="Y27" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.473860087448073</v>
+      </c>
+      <c r="Z27" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.3392023374253066</v>
+      </c>
+      <c r="AA27" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.2045445874025384</v>
+      </c>
+      <c r="AB27" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.2253339120899076</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.25</v>
       </c>
@@ -30270,80 +30830,103 @@
         <v>25</v>
       </c>
       <c r="C28" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.415490008533659</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.121152902740132</v>
       </c>
       <c r="E28" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.237987842981195</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.343731583861121</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.449475324741048</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.551385282636552</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.65329524053206</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.716214860121497</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.346534538178735</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.346534538178735</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.346534538178735</v>
       </c>
       <c r="O28" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.8656737417068938</v>
       </c>
       <c r="P28" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.3848129452350522</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.2532717799997926</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.1217306147645316</v>
       </c>
       <c r="S28" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.0664862693155963</v>
       </c>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
+      <c r="U28" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-17.564719275139524</v>
+      </c>
+      <c r="V28" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-17.564719275139524</v>
+      </c>
+      <c r="W28" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-17.564719275139524</v>
+      </c>
+      <c r="X28" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-13.018906541480881</v>
+      </c>
+      <c r="Y28" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-8.4730938078222362</v>
+      </c>
+      <c r="Z28" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-8.2748119194017864</v>
+      </c>
+      <c r="AA28" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-8.076530030981333</v>
+      </c>
+      <c r="AB28" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-8.1071420570793524</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.2</v>
       </c>
@@ -30352,80 +30935,103 @@
         <v>20</v>
       </c>
       <c r="C29" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.272522352376139</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.978185246582612</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.095020186823675</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.231398604468136</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.367777022112602</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.476551556101558</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.585326090090511</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.650963538110648</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>3.458308240141736</v>
       </c>
       <c r="M29" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>3.458308240141736</v>
       </c>
       <c r="N29" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>3.458308240141736</v>
       </c>
       <c r="O29" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.6925198212508623</v>
       </c>
       <c r="P29" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.926731402359986</v>
       </c>
       <c r="Q29" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.7827620993314386</v>
       </c>
       <c r="R29" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.6387927963028885</v>
       </c>
       <c r="S29" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.5854671862538861</v>
       </c>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
+      <c r="U29" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-27.995706338031567</v>
+      </c>
+      <c r="V29" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-27.995706338031567</v>
+      </c>
+      <c r="W29" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-27.995706338031567</v>
+      </c>
+      <c r="X29" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-20.875047339211733</v>
+      </c>
+      <c r="Y29" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-13.754388340391888</v>
+      </c>
+      <c r="Z29" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-13.443795318679856</v>
+      </c>
+      <c r="AA29" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-13.13320229696782</v>
+      </c>
+      <c r="AB29" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-13.181153634138616</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.15</v>
       </c>
@@ -30434,80 +31040,103 @@
         <v>15</v>
       </c>
       <c r="C30" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.05737344528508</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.763036339491553</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.879871279732615</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.065227966515709</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.250584653298802</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.367023884800513</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.483463116302222</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.551694864890951</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>5.3251254771920857</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>5.3251254771920857</v>
       </c>
       <c r="N30" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>5.3251254771920857</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4.0879379521337178</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.8507504270753472</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.6862193652487472</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.5216883034221453</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.471537149204492</v>
       </c>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
+      <c r="U30" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-49.621355089365757</v>
+      </c>
+      <c r="V30" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-49.621355089365757</v>
+      </c>
+      <c r="W30" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-49.621355089365757</v>
+      </c>
+      <c r="X30" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-37.158094510006407</v>
+      </c>
+      <c r="Y30" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-24.694833930647054</v>
+      </c>
+      <c r="Z30" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-24.151204223850357</v>
+      </c>
+      <c r="AA30" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-23.607574517053656</v>
+      </c>
+      <c r="AB30" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-23.691503548114884</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.1</v>
       </c>
@@ -30516,80 +31145,103 @@
         <v>10</v>
       </c>
       <c r="C31" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>10.711230104579677</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.41689299878615</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.533727939027212</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.800937109482325</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.068146279937437</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.193684135450845</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.319221990964248</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.389826661377619</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>8.9972704167267334</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>8.9972704167267334</v>
       </c>
       <c r="N31" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>8.9972704167267334</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>6.8425447807445341</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4.6878191447623321</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4.4832663750495634</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4.2787136053367929</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4.2347412583519048</v>
       </c>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
+      <c r="U31" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-108.59622818906743</v>
+      </c>
+      <c r="V31" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-108.59622818906743</v>
+      </c>
+      <c r="W31" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-108.59622818906743</v>
+      </c>
+      <c r="X31" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-81.556374415418446</v>
+      </c>
+      <c r="Y31" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-54.516520641769425</v>
+      </c>
+      <c r="Z31" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-53.337080664149227</v>
+      </c>
+      <c r="AA31" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-52.157640686529014</v>
+      </c>
+      <c r="AB31" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-52.339730173690825</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.05</v>
       </c>
@@ -30598,80 +31250,103 @@
         <v>5</v>
       </c>
       <c r="C32" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>10.056259937733959</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>10.761922831940431</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>10.878757772181494</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.304649783921581</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.73054179566167</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.868529506152075</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.006517216642482</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>12.078977424410393</v>
       </c>
       <c r="L32" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>19.471707258737993</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>19.471707258737993</v>
       </c>
       <c r="N32" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>19.471707258737993</v>
       </c>
       <c r="O32" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>14.717892516484408</v>
       </c>
       <c r="P32" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>9.9640777742308142</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>9.646156432964565</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>9.3282350916983106</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>9.3017653098681947</v>
       </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
+      <c r="U32" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-406.43828661655209</v>
+      </c>
+      <c r="V32" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-406.43828661655209</v>
+      </c>
+      <c r="W32" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-406.43828661655209</v>
+      </c>
+      <c r="X32" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-305.7662146718427</v>
+      </c>
+      <c r="Y32" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-205.09414272713317</v>
+      </c>
+      <c r="Z32" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-200.70297007969972</v>
+      </c>
+      <c r="AA32" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-196.31179743226625</v>
+      </c>
+      <c r="AB32" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-196.98973475047001</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -30680,80 +31355,103 @@
         <v>2.5</v>
       </c>
       <c r="C33" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>9.3778977969759758</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>10.083560691182448</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>10.200395631423511</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>10.79255350060069</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.384711369777872</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.532715528104703</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.680719686431534</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>11.753522303715744</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>39.032168693884003</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>39.032168693884003</v>
       </c>
       <c r="N33" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>39.032168693884003</v>
       </c>
       <c r="O33" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>29.43771979009454</v>
       </c>
       <c r="P33" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>19.843270886305078</v>
       </c>
       <c r="Q33" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>19.314207965097545</v>
       </c>
       <c r="R33" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>18.785145043890012</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>18.791272649582417</v>
       </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
+      <c r="U33" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1518.2837347675077</v>
+      </c>
+      <c r="V33" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1518.2837347675077</v>
+      </c>
+      <c r="W33" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1518.2837347675077</v>
+      </c>
+      <c r="X33" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1142.7300517663239</v>
+      </c>
+      <c r="Y33" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-767.17636876513927</v>
+      </c>
+      <c r="Z33" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-750.79525105710786</v>
+      </c>
+      <c r="AA33" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-734.41413334907634</v>
+      </c>
+      <c r="AB33" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-736.94315507056433</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>0.000001</f>
         <v>9.9999999999999995E-7</v>
@@ -30763,82 +31461,104 @@
         <v>9.9999999999999991E-5</v>
       </c>
       <c r="C34" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1.9992665356091934</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2.7049294298156665</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2.8217643700567292</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>5.2368234026735667</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>7.6518824352904105</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>7.8821630076089999</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>8.1124435799275894</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>8.1744325754430154</v>
       </c>
       <c r="L34" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>555078.03361758136</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>555078.03361758136</v>
       </c>
       <c r="N34" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>555078.03361758136</v>
       </c>
       <c r="O34" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>417845.17982406804</v>
       </c>
       <c r="P34" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>280612.32603055466</v>
       </c>
       <c r="Q34" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>274626.31349256751</v>
       </c>
       <c r="R34" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>268640.30095458019</v>
       </c>
       <c r="S34" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>269564.38430279144</v>
       </c>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
+      <c r="U34" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-534110200861.31</v>
+      </c>
+      <c r="V34" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-534110200861.31</v>
+      </c>
+      <c r="W34" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-534110200861.31</v>
+      </c>
+      <c r="X34" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-402061209795.48071</v>
+      </c>
+      <c r="Y34" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-270012218729.65134</v>
+      </c>
+      <c r="Z34" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-264252429480.37561</v>
+      </c>
+      <c r="AA34" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-258492640231.09982</v>
+      </c>
+      <c r="AB34" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>-259381873333.64136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SOC_Photon/Battery State/BattleBorn.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn.xlsx
@@ -28074,8 +28074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="K8" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SOC_Photon/Battery State/BattleBorn.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="BattleBorn Calculator" sheetId="7" r:id="rId1"/>
+    <sheet name="Coefficients Table" sheetId="7" r:id="rId1"/>
     <sheet name="Cheat Sheet Chart" sheetId="6" r:id="rId2"/>
     <sheet name="Derivative High Res" sheetId="8" r:id="rId3"/>
     <sheet name="Derivative Low Res" sheetId="9" r:id="rId4"/>
@@ -15,9 +15,6 @@
     <sheet name="Cap Curves" sheetId="3" r:id="rId6"/>
     <sheet name="Model Build" sheetId="4" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Model Build'!$A$15:$L$28</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'Model Build'!$C$9</definedName>
@@ -77,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>d</t>
   </si>
@@ -220,64 +217,15 @@
   <si>
     <t>35 C</t>
   </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>N cells</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Ohms</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Observed Voltage</t>
-  </si>
-  <si>
-    <t>Calculated SOC=</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>Observed Charging Amps (+ charge, - discharge)</t>
-  </si>
-  <si>
-    <t>Input:</t>
-  </si>
-  <si>
-    <t>password to unprotect = 'unprotect'</t>
-  </si>
-  <si>
-    <t>Battery Temp (14 - 120 )</t>
-  </si>
-  <si>
-    <t>14-120</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,22 +233,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,26 +253,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -346,185 +262,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -547,13 +289,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -582,36 +317,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2462,11 +2167,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="427270648"/>
-        <c:axId val="427273000"/>
+        <c:axId val="436486072"/>
+        <c:axId val="436486464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="427270648"/>
+        <c:axId val="436486072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2581,12 +2286,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427273000"/>
+        <c:crossAx val="436486464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="427273000"/>
+        <c:axId val="436486464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.1"/>
@@ -2701,7 +2406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427270648"/>
+        <c:crossAx val="436486072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3157,11 +2862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430769352"/>
-        <c:axId val="430769744"/>
+        <c:axId val="442238920"/>
+        <c:axId val="442232648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430769352"/>
+        <c:axId val="442238920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3219,12 +2924,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430769744"/>
+        <c:crossAx val="442232648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430769744"/>
+        <c:axId val="442232648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3283,7 +2988,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430769352"/>
+        <c:crossAx val="442238920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3754,11 +3459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430774056"/>
-        <c:axId val="430766608"/>
+        <c:axId val="442237744"/>
+        <c:axId val="442236176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430774056"/>
+        <c:axId val="442237744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3816,12 +3521,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430766608"/>
+        <c:crossAx val="442236176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430766608"/>
+        <c:axId val="442236176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3880,7 +3585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430774056"/>
+        <c:crossAx val="442237744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -4343,11 +4048,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430775232"/>
-        <c:axId val="430775624"/>
+        <c:axId val="442230688"/>
+        <c:axId val="442231080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430775232"/>
+        <c:axId val="442230688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4405,12 +4110,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430775624"/>
+        <c:crossAx val="442231080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430775624"/>
+        <c:axId val="442231080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4469,7 +4174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430775232"/>
+        <c:crossAx val="442230688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -4932,11 +4637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430767392"/>
-        <c:axId val="430768176"/>
+        <c:axId val="442234608"/>
+        <c:axId val="442239704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430767392"/>
+        <c:axId val="442234608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4994,12 +4699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430768176"/>
+        <c:crossAx val="442239704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430768176"/>
+        <c:axId val="442239704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -5058,7 +4763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430767392"/>
+        <c:crossAx val="442234608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -5534,11 +5239,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430768960"/>
-        <c:axId val="430770528"/>
+        <c:axId val="442240488"/>
+        <c:axId val="442241664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430768960"/>
+        <c:axId val="442240488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5595,7 +5300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430770528"/>
+        <c:crossAx val="442241664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5603,7 +5308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430770528"/>
+        <c:axId val="442241664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5660,7 +5365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430768960"/>
+        <c:crossAx val="442240488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6746,11 +6451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430779544"/>
-        <c:axId val="430777584"/>
+        <c:axId val="442238136"/>
+        <c:axId val="442236568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430779544"/>
+        <c:axId val="442238136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6808,12 +6513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430777584"/>
+        <c:crossAx val="442236568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430777584"/>
+        <c:axId val="442236568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -6872,7 +6577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430779544"/>
+        <c:crossAx val="442238136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8090,11 +7795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430778368"/>
-        <c:axId val="430779152"/>
+        <c:axId val="442232256"/>
+        <c:axId val="442242448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430778368"/>
+        <c:axId val="442232256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8216,13 +7921,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430779152"/>
+        <c:crossAx val="442242448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430779152"/>
+        <c:axId val="442242448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -8336,7 +8041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430778368"/>
+        <c:crossAx val="442232256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10154,11 +9859,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="560242840"/>
-        <c:axId val="560245192"/>
+        <c:axId val="436487640"/>
+        <c:axId val="435205008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="560242840"/>
+        <c:axId val="436487640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="97.5"/>
@@ -10273,12 +9978,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560245192"/>
+        <c:crossAx val="435205008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560245192"/>
+        <c:axId val="435205008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -10392,7 +10097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560242840"/>
+        <c:crossAx val="436487640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12196,11 +11901,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="433488616"/>
-        <c:axId val="433489008"/>
+        <c:axId val="439037968"/>
+        <c:axId val="439038752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="433488616"/>
+        <c:axId val="439037968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -12315,12 +12020,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433489008"/>
+        <c:crossAx val="439038752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="433489008"/>
+        <c:axId val="439038752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12435,7 +12140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433488616"/>
+        <c:crossAx val="439037968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13649,11 +13354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="425413384"/>
-        <c:axId val="430765432"/>
+        <c:axId val="439039928"/>
+        <c:axId val="439040320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="425413384"/>
+        <c:axId val="439039928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13775,13 +13480,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430765432"/>
+        <c:crossAx val="439040320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430765432"/>
+        <c:axId val="439040320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -13895,7 +13600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425413384"/>
+        <c:crossAx val="439039928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14972,11 +14677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430772096"/>
-        <c:axId val="430777192"/>
+        <c:axId val="439034832"/>
+        <c:axId val="439041496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430772096"/>
+        <c:axId val="439034832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -15097,13 +14802,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430777192"/>
+        <c:crossAx val="439041496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430777192"/>
+        <c:axId val="439041496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -15222,7 +14927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430772096"/>
+        <c:crossAx val="439034832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15517,11 +15222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430770920"/>
-        <c:axId val="430772488"/>
+        <c:axId val="439036400"/>
+        <c:axId val="439041104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430770920"/>
+        <c:axId val="439036400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15578,12 +15283,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430772488"/>
+        <c:crossAx val="439041104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430772488"/>
+        <c:axId val="439041104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15640,7 +15345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430770920"/>
+        <c:crossAx val="439036400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16051,11 +15756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430765040"/>
-        <c:axId val="430770136"/>
+        <c:axId val="439039144"/>
+        <c:axId val="439042280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430765040"/>
+        <c:axId val="439039144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16113,12 +15818,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430770136"/>
+        <c:crossAx val="439042280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430770136"/>
+        <c:axId val="439042280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.5"/>
@@ -16177,7 +15882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430765040"/>
+        <c:crossAx val="439039144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16639,11 +16344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430772880"/>
-        <c:axId val="430773272"/>
+        <c:axId val="439035224"/>
+        <c:axId val="439036792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430772880"/>
+        <c:axId val="439035224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16701,12 +16406,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430773272"/>
+        <c:crossAx val="439036792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430773272"/>
+        <c:axId val="439036792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -16765,7 +16470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430772880"/>
+        <c:crossAx val="439035224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -17228,11 +16933,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430767784"/>
-        <c:axId val="430766216"/>
+        <c:axId val="442235784"/>
+        <c:axId val="442231472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430767784"/>
+        <c:axId val="442235784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -17290,12 +16995,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430766216"/>
+        <c:crossAx val="442231472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430766216"/>
+        <c:axId val="442231472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -17354,7 +17059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430767784"/>
+        <c:crossAx val="442235784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -26335,7 +26040,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="85" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26346,7 +26051,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="85" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26357,7 +26062,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="85" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26368,7 +26073,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666703" cy="6288593"/>
+    <xdr:ext cx="8659906" cy="6284259"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -26395,7 +26100,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666703" cy="6288593"/>
+    <xdr:ext cx="8659906" cy="6284259"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -26422,7 +26127,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666703" cy="6288593"/>
+    <xdr:ext cx="8659906" cy="6284259"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -27009,181 +26714,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="BattleBorn Calculator"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="L2">
-            <v>-10</v>
-          </cell>
-          <cell r="M2">
-            <v>0.47799999999999998</v>
-          </cell>
-          <cell r="N2">
-            <v>-1.143251503157807</v>
-          </cell>
-          <cell r="O2">
-            <v>3.3483399767315909</v>
-          </cell>
-          <cell r="P2">
-            <v>-1.7704346329793603</v>
-          </cell>
-          <cell r="Q2">
-            <v>0.4</v>
-          </cell>
-          <cell r="R2">
-            <v>1.734</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="L3">
-            <v>0</v>
-          </cell>
-          <cell r="M3">
-            <v>0.47799999999999998</v>
-          </cell>
-          <cell r="N3">
-            <v>-1.143251503157807</v>
-          </cell>
-          <cell r="O3">
-            <v>3.5247557002832086</v>
-          </cell>
-          <cell r="P3">
-            <v>-1.7704346329793603</v>
-          </cell>
-          <cell r="Q3">
-            <v>0.4</v>
-          </cell>
-          <cell r="R3">
-            <v>1.734</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>10</v>
-          </cell>
-          <cell r="M4">
-            <v>0.47799999999999998</v>
-          </cell>
-          <cell r="N4">
-            <v>-1.143251503157807</v>
-          </cell>
-          <cell r="O4">
-            <v>3.5539644353434743</v>
-          </cell>
-          <cell r="P4">
-            <v>-1.7704346329793603</v>
-          </cell>
-          <cell r="Q4">
-            <v>0.4</v>
-          </cell>
-          <cell r="R4">
-            <v>1.734</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>20</v>
-          </cell>
-          <cell r="M5">
-            <v>0.47799999999999998</v>
-          </cell>
-          <cell r="N5">
-            <v>-0.57795540028306935</v>
-          </cell>
-          <cell r="O5">
-            <v>2.7782710208104895</v>
-          </cell>
-          <cell r="P5">
-            <v>-1.0994517959124805</v>
-          </cell>
-          <cell r="Q5">
-            <v>0.4</v>
-          </cell>
-          <cell r="R5">
-            <v>1.734</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>30</v>
-          </cell>
-          <cell r="M6">
-            <v>0.47799999999999998</v>
-          </cell>
-          <cell r="N6">
-            <v>-0.55329798798696006</v>
-          </cell>
-          <cell r="O6">
-            <v>2.8069059976624819</v>
-          </cell>
-          <cell r="P6">
-            <v>-1.1254678290104727</v>
-          </cell>
-          <cell r="Q6">
-            <v>0.4</v>
-          </cell>
-          <cell r="R6">
-            <v>1.734</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>40</v>
-          </cell>
-          <cell r="M7">
-            <v>0.47799999999999998</v>
-          </cell>
-          <cell r="N7">
-            <v>-0.55710475700016193</v>
-          </cell>
-          <cell r="O7">
-            <v>2.8512557761146389</v>
-          </cell>
-          <cell r="P7">
-            <v>-1.1592275633503999</v>
-          </cell>
-          <cell r="Q7">
-            <v>0.4</v>
-          </cell>
-          <cell r="R7">
-            <v>1.734</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>50.000010000000003</v>
-          </cell>
-          <cell r="M8">
-            <v>0.47799999999999998</v>
-          </cell>
-          <cell r="N8">
-            <v>-0.45551626024511238</v>
-          </cell>
-          <cell r="O8">
-            <v>2.7310417617626701</v>
-          </cell>
-          <cell r="P8">
-            <v>-1.0590283827915401</v>
-          </cell>
-          <cell r="Q8">
-            <v>0.4</v>
-          </cell>
-          <cell r="R8">
-            <v>1.734</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -27471,601 +27001,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="9" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="21" width="8.88671875" style="15" hidden="1" customWidth="1"/>
-    <col min="22" max="28" width="8.88671875" style="15"/>
+    <col min="2" max="11" width="8.88671875" style="12" customWidth="1"/>
+    <col min="12" max="18" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="L1" s="17" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="G2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="12">
-        <f>(0.0018+0.004)*H10</f>
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="18">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="15">
         <v>-10</v>
       </c>
-      <c r="M2" s="18">
+      <c r="C2" s="15">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N2" s="19">
+      <c r="D2" s="16">
         <v>-1.143251503157807</v>
       </c>
-      <c r="O2" s="20">
+      <c r="E2" s="17">
         <v>3.3483399767315909</v>
       </c>
-      <c r="P2" s="20">
+      <c r="F2" s="17">
         <v>-1.7704346329793603</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="G2" s="18">
         <v>0.4</v>
       </c>
-      <c r="R2" s="21">
+      <c r="H2" s="18">
         <v>1.734</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="35">
-        <v>120</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="14" t="e">
-        <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$M$2:$M$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L3" s="18">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15">
         <v>0</v>
       </c>
-      <c r="M3" s="18">
+      <c r="C3" s="15">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N3" s="19">
+      <c r="D3" s="16">
         <v>-1.143251503157807</v>
       </c>
-      <c r="O3" s="20">
+      <c r="E3" s="17">
         <v>3.5247557002832086</v>
       </c>
-      <c r="P3" s="20">
+      <c r="F3" s="17">
         <v>-1.7704346329793603</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="G3" s="18">
         <v>0.4</v>
       </c>
-      <c r="R3" s="21">
+      <c r="H3" s="18">
         <v>1.734</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="36">
-        <v>13.7</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="14" t="e">
-        <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$N$2:$N$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L4" s="18">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15">
         <v>10</v>
       </c>
-      <c r="M4" s="18">
+      <c r="C4" s="15">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N4" s="19">
+      <c r="D4" s="16">
         <v>-1.143251503157807</v>
       </c>
-      <c r="O4" s="20">
+      <c r="E4" s="17">
         <v>3.5539644353434743</v>
       </c>
-      <c r="P4" s="20">
+      <c r="F4" s="17">
         <v>-1.7704346329793603</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="G4" s="18">
         <v>0.4</v>
       </c>
-      <c r="R4" s="21">
+      <c r="H4" s="18">
         <v>1.734</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="37">
-        <v>0</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14" t="e">
-        <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$O$2:$O$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L5" s="18">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15">
         <v>20</v>
       </c>
-      <c r="M5" s="18">
+      <c r="C5" s="15">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N5" s="19">
+      <c r="D5" s="16">
         <v>-0.57795540028306935</v>
       </c>
-      <c r="O5" s="20">
+      <c r="E5" s="17">
         <v>2.7782710208104895</v>
       </c>
-      <c r="P5" s="20">
+      <c r="F5" s="17">
         <v>-1.0994517959124805</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="G5" s="18">
         <v>0.4</v>
       </c>
-      <c r="R5" s="21">
+      <c r="H5" s="18">
         <v>1.734</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="22"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="14"/>
-      <c r="L6" s="18">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15">
         <v>30</v>
       </c>
-      <c r="M6" s="18">
+      <c r="C6" s="15">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N6" s="19">
+      <c r="D6" s="16">
         <v>-0.55329798798696006</v>
       </c>
-      <c r="O6" s="20">
+      <c r="E6" s="17">
         <v>2.8069059976624819</v>
       </c>
-      <c r="P6" s="20">
+      <c r="F6" s="17">
         <v>-1.1254678290104727</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="G6" s="18">
         <v>0.4</v>
       </c>
-      <c r="R6" s="21">
+      <c r="H6" s="18">
         <v>1.734</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="15"/>
-      <c r="B7" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="38" t="e">
-        <f ca="1">IF($F$13&gt;=$H$13, IF($F$13&lt;$H$37, (FORECAST($F$13,OFFSET($G$13:$G$37,MATCH($F$13,$H$13:$H$37,1)-1,0,2),OFFSET($H$13:$H$37,MATCH($F$13,$H$13:$H$37,1)-1,0,2)))*100, 100), 0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="14" t="e">
-        <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$P$2:$P$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" s="18">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15">
         <v>40</v>
       </c>
-      <c r="M7" s="18">
+      <c r="C7" s="15">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N7" s="19">
+      <c r="D7" s="16">
         <v>-0.55710475700016193</v>
       </c>
-      <c r="O7" s="20">
+      <c r="E7" s="17">
         <v>2.8512557761146389</v>
       </c>
-      <c r="P7" s="20">
+      <c r="F7" s="17">
         <v>-1.1592275633503999</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="G7" s="18">
         <v>0.4</v>
       </c>
-      <c r="R7" s="21">
+      <c r="H7" s="18">
         <v>1.734</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="14" t="e">
-        <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$Q$2:$Q$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L8" s="18">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15">
         <v>50.000010000000003</v>
       </c>
-      <c r="M8" s="18">
+      <c r="C8" s="15">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N8" s="19">
+      <c r="D8" s="16">
         <v>-0.45551626024511238</v>
       </c>
-      <c r="O8" s="20">
+      <c r="E8" s="17">
         <v>2.7310417617626701</v>
       </c>
-      <c r="P8" s="20">
+      <c r="F8" s="17">
         <v>-1.0590283827915401</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="G8" s="18">
         <v>0.4</v>
       </c>
-      <c r="R8" s="21">
+      <c r="H8" s="18">
         <v>1.734</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="G9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14" t="e">
-        <f ca="1">FORECAST(H$11,OFFSET('[1]BattleBorn Calculator'!$R$2:$R$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('[1]BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'[1]BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="13">
-        <v>4</v>
-      </c>
-      <c r="L10" s="15" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="10">
-        <f>(C3-32)*5/9</f>
-        <v>48.888888888888886</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F13">
-        <f>C4-C5*H2</f>
-        <v>13.7</v>
-      </c>
-      <c r="G13">
-        <v>1E-3</v>
-      </c>
-      <c r="H13" s="9" t="e">
-        <f t="shared" ref="H13:H37" ca="1" si="0">H$10*(H$5+H$4*(-LN($G13))^H$3+H$7*$G13+H$9*EXP(H$8*($G13-1)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G14">
-        <v>0.01</v>
-      </c>
-      <c r="H14" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H15" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G16">
-        <v>0.05</v>
-      </c>
-      <c r="H16" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G18">
-        <v>0.15</v>
-      </c>
-      <c r="H18" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G19">
-        <v>0.2</v>
-      </c>
-      <c r="H19" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G20">
-        <v>0.25</v>
-      </c>
-      <c r="H20" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G21">
-        <v>0.3</v>
-      </c>
-      <c r="H21" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G22">
-        <v>0.35</v>
-      </c>
-      <c r="H22" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G23">
-        <v>0.4</v>
-      </c>
-      <c r="H23" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G24">
-        <v>0.45</v>
-      </c>
-      <c r="H24" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G25">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G26">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H26" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G27">
-        <v>0.6</v>
-      </c>
-      <c r="H27" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G28">
-        <v>0.65</v>
-      </c>
-      <c r="H28" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G29">
-        <v>0.7</v>
-      </c>
-      <c r="H29" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G30">
-        <v>0.75</v>
-      </c>
-      <c r="H30" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G31">
-        <v>0.8</v>
-      </c>
-      <c r="H31" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G32">
-        <v>0.85</v>
-      </c>
-      <c r="H32" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G33">
-        <v>0.9</v>
-      </c>
-      <c r="H33" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G34">
-        <v>0.95</v>
-      </c>
-      <c r="H34" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G35">
-        <v>0.98</v>
-      </c>
-      <c r="H35" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G36">
-        <v>0.99</v>
-      </c>
-      <c r="H36" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" s="9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5P6sIdYiRdnvAQ1HceKf2SVdgp2+P7X9Ze928HY37uJKASATr9V1c02tNQqHqF0vh4hK/DBSOR133BdqXjdz9A==" saltValue="NM9Z3z4BKCOotF2gPtobYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28074,7 +27230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K8" workbookViewId="0">
+    <sheetView topLeftCell="K16" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:XFD32"/>
     </sheetView>
   </sheetViews>
@@ -28093,99 +27249,99 @@
         <v>12</v>
       </c>
       <c r="C1" s="8">
-        <f ca="1">FORECAST(C$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(C$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="D1" s="8">
-        <f ca="1">FORECAST(D$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(D$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(D$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(D$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="E1" s="8">
-        <f ca="1">FORECAST(E$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(E$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(E$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(E$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="F1" s="8">
-        <f ca="1">FORECAST(F$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(F$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(F$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(F$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="G1" s="8">
-        <f ca="1">FORECAST(G$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(G$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(G$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(G$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="H1" s="8">
-        <f ca="1">FORECAST(H$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(H$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(H$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(H$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="I1" s="8">
-        <f ca="1">FORECAST(I$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(I$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(I$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(I$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="J1" s="8">
-        <f ca="1">FORECAST(J$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(J$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(J$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(J$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="L1" s="8">
-        <f ca="1">FORECAST(L$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(L$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(L$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(L$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(L$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(L$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="M1" s="8">
-        <f ca="1">FORECAST(M$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(M$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(M$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(M$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(M$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(M$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="N1" s="8">
-        <f ca="1">FORECAST(N$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(N$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(N$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(N$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(N$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(N$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="O1" s="8">
-        <f ca="1">FORECAST(O$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(O$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(O$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(O$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(O$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(O$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="P1" s="8">
-        <f ca="1">FORECAST(P$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(P$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(P$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(P$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(P$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(P$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="Q1" s="8">
-        <f ca="1">FORECAST(Q$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(Q$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Q$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Q$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(Q$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Q$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="R1" s="8">
-        <f ca="1">FORECAST(R$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(R$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(R$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(R$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(R$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(R$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="S1" s="8">
-        <f ca="1">FORECAST(S$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(S$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(S$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(S$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="U1" s="8">
-        <f ca="1">FORECAST(U$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(U$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(U$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(U$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="V1" s="8">
-        <f ca="1">FORECAST(V$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(V$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(V$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(V$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="W1" s="8">
-        <f ca="1">FORECAST(W$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(W$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(W$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(W$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="X1" s="8">
-        <f ca="1">FORECAST(X$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(X$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(X$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(X$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="Y1" s="8">
-        <f ca="1">FORECAST(Y$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Y$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(Y$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Y$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="Z1" s="8">
-        <f ca="1">FORECAST(Z$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Z$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(Z$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Z$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="AA1" s="8">
-        <f ca="1">FORECAST(AA$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(AA$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(AA$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(AA$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
       <c r="AB1" s="8">
-        <f ca="1">FORECAST(AB$8,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(AB$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(AB$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(AB$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
     </row>
@@ -28194,99 +27350,99 @@
         <v>11</v>
       </c>
       <c r="C2" s="8">
-        <f ca="1">FORECAST(C$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(C$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.143251503157807</v>
       </c>
       <c r="D2" s="8">
-        <f ca="1">FORECAST(D$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(D$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(D$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(D$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.143251503157807</v>
       </c>
       <c r="E2" s="8">
-        <f ca="1">FORECAST(E$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(E$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(E$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(E$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.143251503157807</v>
       </c>
       <c r="F2" s="8">
-        <f ca="1">FORECAST(F$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(F$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(F$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(F$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.86060345172043817</v>
       </c>
       <c r="G2" s="8">
-        <f ca="1">FORECAST(G$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(G$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(G$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(G$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.57795540028306935</v>
       </c>
       <c r="H2" s="8">
-        <f ca="1">FORECAST(H$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(H$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(H$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(H$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.56562669413501476</v>
       </c>
       <c r="I2" s="8">
-        <f ca="1">FORECAST(I$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(I$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(I$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(I$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.55329798798696006</v>
       </c>
       <c r="J2" s="8">
-        <f ca="1">FORECAST(J$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(J$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(J$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(J$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.55520137249356094</v>
       </c>
       <c r="L2" s="8">
-        <f ca="1">FORECAST(L$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(L$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(L$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(L$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(L$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(L$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.143251503157807</v>
       </c>
       <c r="M2" s="8">
-        <f ca="1">FORECAST(M$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(M$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(M$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(M$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(M$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(M$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.143251503157807</v>
       </c>
       <c r="N2" s="8">
-        <f ca="1">FORECAST(N$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(N$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(N$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(N$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(N$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(N$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.143251503157807</v>
       </c>
       <c r="O2" s="8">
-        <f ca="1">FORECAST(O$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(O$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(O$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(O$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(O$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(O$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.86060345172043817</v>
       </c>
       <c r="P2" s="8">
-        <f ca="1">FORECAST(P$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(P$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(P$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(P$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(P$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(P$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.57795540028306935</v>
       </c>
       <c r="Q2" s="8">
-        <f ca="1">FORECAST(Q$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(Q$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Q$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Q$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(Q$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Q$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.56562669413501476</v>
       </c>
       <c r="R2" s="8">
-        <f ca="1">FORECAST(R$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(R$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(R$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(R$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(R$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(R$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.55329798798696006</v>
       </c>
       <c r="S2" s="8">
-        <f ca="1">FORECAST(S$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(S$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(S$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(S$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.55520137249356094</v>
       </c>
       <c r="U2" s="8">
-        <f ca="1">FORECAST(U$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(U$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(U$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(U$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.143251503157807</v>
       </c>
       <c r="V2" s="8">
-        <f ca="1">FORECAST(V$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(V$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(V$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(V$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.143251503157807</v>
       </c>
       <c r="W2" s="8">
-        <f ca="1">FORECAST(W$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(W$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(W$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(W$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.143251503157807</v>
       </c>
       <c r="X2" s="8">
-        <f ca="1">FORECAST(X$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(X$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(X$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(X$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.86060345172043817</v>
       </c>
       <c r="Y2" s="8">
-        <f ca="1">FORECAST(Y$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Y$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(Y$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Y$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.57795540028306935</v>
       </c>
       <c r="Z2" s="8">
-        <f ca="1">FORECAST(Z$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Z$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(Z$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Z$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.56562669413501476</v>
       </c>
       <c r="AA2" s="8">
-        <f ca="1">FORECAST(AA$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(AA$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(AA$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(AA$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.55329798798696006</v>
       </c>
       <c r="AB2" s="8">
-        <f ca="1">FORECAST(AB$8,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(AB$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(AB$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(AB$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-0.55520137249356094</v>
       </c>
     </row>
@@ -28295,99 +27451,99 @@
         <v>10</v>
       </c>
       <c r="C3" s="8">
-        <f ca="1">FORECAST(C$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(C$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>3.3483399767315905</v>
       </c>
       <c r="D3" s="8">
-        <f ca="1">FORECAST(D$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(D$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(D$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(D$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>3.5247557002832086</v>
       </c>
       <c r="E3" s="8">
-        <f ca="1">FORECAST(E$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(E$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(E$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(E$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>3.5539644353434743</v>
       </c>
       <c r="F3" s="8">
-        <f ca="1">FORECAST(F$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(F$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(F$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(F$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>3.1661177280769817</v>
       </c>
       <c r="G3" s="8">
-        <f ca="1">FORECAST(G$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(G$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(G$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(G$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>2.7782710208104895</v>
       </c>
       <c r="H3" s="8">
-        <f ca="1">FORECAST(H$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(H$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(H$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(H$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>2.7925885092364857</v>
       </c>
       <c r="I3" s="8">
-        <f ca="1">FORECAST(I$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(I$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(I$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(I$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>2.8069059976624815</v>
       </c>
       <c r="J3" s="8">
-        <f ca="1">FORECAST(J$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(J$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(J$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(J$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>2.8290808868885602</v>
       </c>
       <c r="L3" s="8">
-        <f ca="1">FORECAST(L$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(L$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(L$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(L$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(L$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(L$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>3.3483399767315905</v>
       </c>
       <c r="M3" s="8">
-        <f ca="1">FORECAST(M$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(M$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(M$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(M$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(M$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(M$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>3.5247557002832086</v>
       </c>
       <c r="N3" s="8">
-        <f ca="1">FORECAST(N$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(N$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(N$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(N$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(N$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(N$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>3.5539644353434743</v>
       </c>
       <c r="O3" s="8">
-        <f ca="1">FORECAST(O$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(O$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(O$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(O$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(O$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(O$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>3.1661177280769817</v>
       </c>
       <c r="P3" s="8">
-        <f ca="1">FORECAST(P$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(P$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(P$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(P$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(P$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(P$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>2.7782710208104895</v>
       </c>
       <c r="Q3" s="8">
-        <f ca="1">FORECAST(Q$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(Q$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Q$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Q$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(Q$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Q$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>2.7925885092364857</v>
       </c>
       <c r="R3" s="8">
-        <f ca="1">FORECAST(R$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(R$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(R$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(R$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(R$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(R$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>2.8069059976624815</v>
       </c>
       <c r="S3" s="8">
-        <f ca="1">FORECAST(S$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(S$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(S$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(S$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>2.8290808868885602</v>
       </c>
       <c r="U3" s="8">
-        <f ca="1">FORECAST(U$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(U$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(U$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(U$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>3.3483399767315905</v>
       </c>
       <c r="V3" s="8">
-        <f ca="1">FORECAST(V$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(V$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(V$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(V$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>3.5247557002832086</v>
       </c>
       <c r="W3" s="8">
-        <f ca="1">FORECAST(W$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(W$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(W$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(W$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>3.5539644353434743</v>
       </c>
       <c r="X3" s="8">
-        <f ca="1">FORECAST(X$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(X$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(X$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(X$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>3.1661177280769817</v>
       </c>
       <c r="Y3" s="8">
-        <f ca="1">FORECAST(Y$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Y$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(Y$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Y$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>2.7782710208104895</v>
       </c>
       <c r="Z3" s="8">
-        <f ca="1">FORECAST(Z$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Z$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(Z$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Z$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>2.7925885092364857</v>
       </c>
       <c r="AA3" s="8">
-        <f ca="1">FORECAST(AA$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(AA$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(AA$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(AA$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>2.8069059976624815</v>
       </c>
       <c r="AB3" s="8">
-        <f ca="1">FORECAST(AB$8,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(AB$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(AB$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(AB$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>2.8290808868885602</v>
       </c>
     </row>
@@ -28396,99 +27552,99 @@
         <v>13</v>
       </c>
       <c r="C4" s="8">
-        <f ca="1">FORECAST(C$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(C$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.7704346329793603</v>
       </c>
       <c r="D4" s="8">
-        <f ca="1">FORECAST(D$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(D$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(D$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(D$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.7704346329793603</v>
       </c>
       <c r="E4" s="8">
-        <f ca="1">FORECAST(E$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(E$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(E$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(E$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.7704346329793603</v>
       </c>
       <c r="F4" s="8">
-        <f ca="1">FORECAST(F$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(F$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(F$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(F$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.4349432144459204</v>
       </c>
       <c r="G4" s="8">
-        <f ca="1">FORECAST(G$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(G$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(G$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(G$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.0994517959124805</v>
       </c>
       <c r="H4" s="8">
-        <f ca="1">FORECAST(H$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(H$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(H$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(H$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.1124598124614766</v>
       </c>
       <c r="I4" s="8">
-        <f ca="1">FORECAST(I$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(I$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(I$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(I$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.1254678290104729</v>
       </c>
       <c r="J4" s="8">
-        <f ca="1">FORECAST(J$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(J$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(J$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(J$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.1423476961804364</v>
       </c>
       <c r="L4" s="8">
-        <f ca="1">FORECAST(L$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(L$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(L$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(L$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(L$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(L$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.7704346329793603</v>
       </c>
       <c r="M4" s="8">
-        <f ca="1">FORECAST(M$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(M$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(M$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(M$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(M$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(M$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.7704346329793603</v>
       </c>
       <c r="N4" s="8">
-        <f ca="1">FORECAST(N$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(N$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(N$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(N$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(N$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(N$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.7704346329793603</v>
       </c>
       <c r="O4" s="8">
-        <f ca="1">FORECAST(O$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(O$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(O$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(O$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(O$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(O$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.4349432144459204</v>
       </c>
       <c r="P4" s="8">
-        <f ca="1">FORECAST(P$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(P$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(P$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(P$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(P$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(P$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.0994517959124805</v>
       </c>
       <c r="Q4" s="8">
-        <f ca="1">FORECAST(Q$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(Q$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Q$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Q$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(Q$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Q$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.1124598124614766</v>
       </c>
       <c r="R4" s="8">
-        <f ca="1">FORECAST(R$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(R$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(R$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(R$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(R$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(R$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.1254678290104729</v>
       </c>
       <c r="S4" s="8">
-        <f ca="1">FORECAST(S$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(S$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(S$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(S$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.1423476961804364</v>
       </c>
       <c r="U4" s="8">
-        <f ca="1">FORECAST(U$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(U$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(U$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(U$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.7704346329793603</v>
       </c>
       <c r="V4" s="8">
-        <f ca="1">FORECAST(V$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(V$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(V$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(V$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.7704346329793603</v>
       </c>
       <c r="W4" s="8">
-        <f ca="1">FORECAST(W$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(W$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(W$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(W$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.7704346329793603</v>
       </c>
       <c r="X4" s="8">
-        <f ca="1">FORECAST(X$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(X$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(X$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(X$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.4349432144459204</v>
       </c>
       <c r="Y4" s="8">
-        <f ca="1">FORECAST(Y$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Y$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(Y$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Y$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.0994517959124805</v>
       </c>
       <c r="Z4" s="8">
-        <f ca="1">FORECAST(Z$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Z$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(Z$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Z$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.1124598124614766</v>
       </c>
       <c r="AA4" s="8">
-        <f ca="1">FORECAST(AA$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(AA$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(AA$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(AA$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.1254678290104729</v>
       </c>
       <c r="AB4" s="8">
-        <f ca="1">FORECAST(AB$8,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(AB$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(AB$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(AB$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>-1.1423476961804364</v>
       </c>
     </row>
@@ -28497,99 +27653,99 @@
         <v>14</v>
       </c>
       <c r="C5" s="8">
-        <f ca="1">FORECAST(C$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(C$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="D5" s="8">
-        <f ca="1">FORECAST(D$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(D$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(D$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(D$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="E5" s="8">
-        <f ca="1">FORECAST(E$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(E$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(E$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(E$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="F5" s="8">
-        <f ca="1">FORECAST(F$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(F$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(F$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(F$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="G5" s="8">
-        <f ca="1">FORECAST(G$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(G$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(G$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(G$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="H5" s="8">
-        <f ca="1">FORECAST(H$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(H$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(H$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(H$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="I5" s="8">
-        <f ca="1">FORECAST(I$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(I$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(I$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(I$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="J5" s="8">
-        <f ca="1">FORECAST(J$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(J$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(J$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(J$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="L5" s="8">
-        <f ca="1">FORECAST(L$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(L$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(L$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(L$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(L$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(L$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="M5" s="8">
-        <f ca="1">FORECAST(M$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(M$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(M$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(M$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(M$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(M$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="N5" s="8">
-        <f ca="1">FORECAST(N$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(N$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(N$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(N$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(N$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(N$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="O5" s="8">
-        <f ca="1">FORECAST(O$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(O$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(O$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(O$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(O$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(O$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="P5" s="8">
-        <f ca="1">FORECAST(P$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(P$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(P$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(P$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(P$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(P$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="Q5" s="8">
-        <f ca="1">FORECAST(Q$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(Q$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Q$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Q$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(Q$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Q$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="R5" s="8">
-        <f ca="1">FORECAST(R$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(R$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(R$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(R$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(R$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(R$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="S5" s="8">
-        <f ca="1">FORECAST(S$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(S$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(S$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(S$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="U5" s="8">
-        <f ca="1">FORECAST(U$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(U$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(U$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(U$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="V5" s="8">
-        <f ca="1">FORECAST(V$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(V$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(V$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(V$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="W5" s="8">
-        <f ca="1">FORECAST(W$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(W$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(W$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(W$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="X5" s="8">
-        <f ca="1">FORECAST(X$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(X$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(X$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(X$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="Y5" s="8">
-        <f ca="1">FORECAST(Y$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Y$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(Y$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Y$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="Z5" s="8">
-        <f ca="1">FORECAST(Z$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Z$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(Z$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Z$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="AA5" s="8">
-        <f ca="1">FORECAST(AA$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(AA$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(AA$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(AA$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
       <c r="AB5" s="8">
-        <f ca="1">FORECAST(AB$8,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(AB$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(AB$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(AB$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
     </row>
@@ -28598,99 +27754,99 @@
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <f ca="1">FORECAST(C$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(C$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(C$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="D6" s="8">
-        <f ca="1">FORECAST(D$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(D$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(D$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(D$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(D$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="E6" s="8">
-        <f ca="1">FORECAST(E$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(E$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(E$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(E$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(E$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="F6" s="8">
-        <f ca="1">FORECAST(F$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(F$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(F$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(F$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(F$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="G6" s="8">
-        <f ca="1">FORECAST(G$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(G$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(G$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(G$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(G$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="H6" s="8">
-        <f ca="1">FORECAST(H$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(H$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(H$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(H$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="I6" s="8">
-        <f ca="1">FORECAST(I$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(I$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(I$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(I$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(I$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="J6" s="8">
-        <f ca="1">FORECAST(J$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(J$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(J$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(J$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(J$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="L6" s="8">
-        <f ca="1">FORECAST(L$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(L$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(L$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(L$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(L$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(L$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="M6" s="8">
-        <f ca="1">FORECAST(M$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(M$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(M$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(M$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(M$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(M$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="N6" s="8">
-        <f ca="1">FORECAST(N$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(N$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(N$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(N$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(N$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(N$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="O6" s="8">
-        <f ca="1">FORECAST(O$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(O$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(O$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(O$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(O$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(O$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="P6" s="8">
-        <f ca="1">FORECAST(P$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(P$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(P$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(P$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(P$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(P$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="Q6" s="8">
-        <f ca="1">FORECAST(Q$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(Q$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Q$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Q$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(Q$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Q$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="R6" s="8">
-        <f ca="1">FORECAST(R$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(R$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(R$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(R$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(R$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(R$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="S6" s="8">
-        <f ca="1">FORECAST(S$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(S$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(S$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(S$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(S$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="U6" s="8">
-        <f ca="1">FORECAST(U$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(U$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(U$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(U$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(U$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="V6" s="8">
-        <f ca="1">FORECAST(V$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(V$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(V$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(V$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(V$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="W6" s="8">
-        <f ca="1">FORECAST(W$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(W$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(W$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(W$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(W$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="X6" s="8">
-        <f ca="1">FORECAST(X$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(X$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(X$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(X$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(X$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="Y6" s="8">
-        <f ca="1">FORECAST(Y$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Y$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Y$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(Y$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Y$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="Z6" s="8">
-        <f ca="1">FORECAST(Z$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(Z$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(Z$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(Z$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(Z$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="AA6" s="8">
-        <f ca="1">FORECAST(AA$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AA$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(AA$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(AA$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(AA$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
       <c r="AB6" s="8">
-        <f ca="1">FORECAST(AB$8,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(AB$8,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <f ca="1">FORECAST(AB$8,OFFSET('Coefficients Table'!$H$2:$H$8,MATCH(AB$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(AB$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
     </row>

--- a/SOC_Photon/Battery State/BattleBorn.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficients Table" sheetId="7" r:id="rId1"/>
@@ -2167,11 +2167,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="436486072"/>
-        <c:axId val="436486464"/>
+        <c:axId val="669540448"/>
+        <c:axId val="669549464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="436486072"/>
+        <c:axId val="669540448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2219,7 +2219,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2286,12 +2285,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436486464"/>
+        <c:crossAx val="669549464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436486464"/>
+        <c:axId val="669549464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.1"/>
@@ -2339,7 +2338,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2406,7 +2404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436486072"/>
+        <c:crossAx val="669540448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2421,7 +2419,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2528,6 +2525,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2862,11 +2860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="442238920"/>
-        <c:axId val="442232648"/>
+        <c:axId val="566387928"/>
+        <c:axId val="566390280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="442238920"/>
+        <c:axId val="566387928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2924,12 +2922,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442232648"/>
+        <c:crossAx val="566390280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442232648"/>
+        <c:axId val="566390280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -2988,7 +2986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442238920"/>
+        <c:crossAx val="566387928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3003,6 +3001,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3459,11 +3458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="442237744"/>
-        <c:axId val="442236176"/>
+        <c:axId val="566385968"/>
+        <c:axId val="566386752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="442237744"/>
+        <c:axId val="566385968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3521,12 +3520,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442236176"/>
+        <c:crossAx val="566386752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442236176"/>
+        <c:axId val="566386752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3585,7 +3584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442237744"/>
+        <c:crossAx val="566385968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3600,6 +3599,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3711,6 +3711,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4048,11 +4049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="442230688"/>
-        <c:axId val="442231080"/>
+        <c:axId val="667283400"/>
+        <c:axId val="667284576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="442230688"/>
+        <c:axId val="667283400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4110,12 +4111,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442231080"/>
+        <c:crossAx val="667284576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442231080"/>
+        <c:axId val="667284576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4174,7 +4175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442230688"/>
+        <c:crossAx val="667283400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -4189,6 +4190,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4300,6 +4302,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4637,11 +4640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="442234608"/>
-        <c:axId val="442239704"/>
+        <c:axId val="667285752"/>
+        <c:axId val="667232440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="442234608"/>
+        <c:axId val="667285752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4699,12 +4702,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442239704"/>
+        <c:crossAx val="667232440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442239704"/>
+        <c:axId val="667232440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4763,7 +4766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442234608"/>
+        <c:crossAx val="667285752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -4778,6 +4781,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4884,6 +4888,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5239,11 +5244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442240488"/>
-        <c:axId val="442241664"/>
+        <c:axId val="667240672"/>
+        <c:axId val="667242632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="442240488"/>
+        <c:axId val="667240672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5300,7 +5305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442241664"/>
+        <c:crossAx val="667242632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5308,7 +5313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442241664"/>
+        <c:axId val="667242632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5365,7 +5370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442240488"/>
+        <c:crossAx val="667240672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5379,6 +5384,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5485,6 +5491,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5521,8 +5528,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3627665120627045E-2"/>
-          <c:y val="6.3366703744901748E-2"/>
+          <c:x val="0.10216647790601517"/>
+          <c:y val="3.7411939191694478E-2"/>
           <c:w val="0.87420338510768347"/>
           <c:h val="0.68283832429733826"/>
         </c:manualLayout>
@@ -6451,14 +6458,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="442238136"/>
-        <c:axId val="442236568"/>
+        <c:axId val="667257528"/>
+        <c:axId val="667258704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="442238136"/>
+        <c:axId val="667257528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.1000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6513,16 +6520,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442236568"/>
+        <c:crossAx val="667258704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442236568"/>
+        <c:axId val="667258704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="13.5"/>
-          <c:min val="10"/>
+          <c:max val="14.5"/>
+          <c:min val="9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6577,7 +6584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442238136"/>
+        <c:crossAx val="667257528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6591,6 +6598,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6710,6 +6718,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7795,11 +7804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="442232256"/>
-        <c:axId val="442242448"/>
+        <c:axId val="667252040"/>
+        <c:axId val="667268896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="442232256"/>
+        <c:axId val="667252040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7921,13 +7930,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442242448"/>
+        <c:crossAx val="667268896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442242448"/>
+        <c:axId val="667268896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7975,6 +7984,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8041,7 +8051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442232256"/>
+        <c:crossAx val="667252040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8176,7 +8186,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9859,11 +9868,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="436487640"/>
-        <c:axId val="435205008"/>
+        <c:axId val="669560440"/>
+        <c:axId val="669580432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="436487640"/>
+        <c:axId val="669560440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="97.5"/>
@@ -9911,7 +9920,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9978,12 +9986,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435205008"/>
+        <c:crossAx val="669580432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435205008"/>
+        <c:axId val="669580432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -10030,7 +10038,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10097,7 +10104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436487640"/>
+        <c:crossAx val="669560440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10111,7 +10118,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10218,7 +10224,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11901,11 +11906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439037968"/>
-        <c:axId val="439038752"/>
+        <c:axId val="669582000"/>
+        <c:axId val="669583176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439037968"/>
+        <c:axId val="669582000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11953,7 +11958,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12020,12 +12024,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439038752"/>
+        <c:crossAx val="669583176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439038752"/>
+        <c:axId val="669583176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12073,7 +12077,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12140,7 +12143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439037968"/>
+        <c:crossAx val="669582000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12154,7 +12157,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12269,6 +12271,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13354,11 +13357,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439039928"/>
-        <c:axId val="439040320"/>
+        <c:axId val="669483216"/>
+        <c:axId val="669486744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439039928"/>
+        <c:axId val="669483216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13480,13 +13483,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439040320"/>
+        <c:crossAx val="669486744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439040320"/>
+        <c:axId val="669486744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -13534,6 +13537,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13600,7 +13604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439039928"/>
+        <c:crossAx val="669483216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13730,6 +13734,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14677,11 +14682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439034832"/>
-        <c:axId val="439041496"/>
+        <c:axId val="669493408"/>
+        <c:axId val="669498504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439034832"/>
+        <c:axId val="669493408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -14802,13 +14807,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439041496"/>
+        <c:crossAx val="669498504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439041496"/>
+        <c:axId val="669498504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -14861,6 +14866,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14927,7 +14933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439034832"/>
+        <c:crossAx val="669493408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15032,6 +15038,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15222,11 +15229,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439036400"/>
-        <c:axId val="439041104"/>
+        <c:axId val="566404392"/>
+        <c:axId val="566399688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439036400"/>
+        <c:axId val="566404392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15283,12 +15290,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439041104"/>
+        <c:crossAx val="566399688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439041104"/>
+        <c:axId val="566399688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15345,7 +15352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439036400"/>
+        <c:crossAx val="566404392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15434,6 +15441,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15756,11 +15764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439039144"/>
-        <c:axId val="439042280"/>
+        <c:axId val="566401256"/>
+        <c:axId val="566402432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439039144"/>
+        <c:axId val="566401256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15818,12 +15826,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439042280"/>
+        <c:crossAx val="566402432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439042280"/>
+        <c:axId val="566402432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.5"/>
@@ -15882,7 +15890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439039144"/>
+        <c:crossAx val="566401256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15896,6 +15904,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16007,6 +16016,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16344,11 +16354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439035224"/>
-        <c:axId val="439036792"/>
+        <c:axId val="566398512"/>
+        <c:axId val="566402824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439035224"/>
+        <c:axId val="566398512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16406,12 +16416,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439036792"/>
+        <c:crossAx val="566402824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439036792"/>
+        <c:axId val="566402824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -16470,7 +16480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439035224"/>
+        <c:crossAx val="566398512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -16485,6 +16495,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16596,6 +16607,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16933,11 +16945,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="442235784"/>
-        <c:axId val="442231472"/>
+        <c:axId val="566403216"/>
+        <c:axId val="566396944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="442235784"/>
+        <c:axId val="566403216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16995,12 +17007,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442231472"/>
+        <c:crossAx val="566396944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442231472"/>
+        <c:axId val="566396944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -17059,7 +17071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442235784"/>
+        <c:crossAx val="566403216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -17074,6 +17086,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26402,15 +26415,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26431,16 +26444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26461,16 +26474,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26493,16 +26506,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26525,16 +26538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26557,16 +26570,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26589,16 +26602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26651,16 +26664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27001,9 +27014,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -30722,7 +30735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -31227,8 +31240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SOC_Photon/Battery State/BattleBorn.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficients Table" sheetId="7" r:id="rId1"/>
@@ -74,12 +74,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>SoC</t>
   </si>
   <si>
     <t>VoC 0C</t>
@@ -26570,16 +26567,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26664,16 +26661,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26694,16 +26691,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27030,22 +27027,22 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>0</v>
@@ -27230,7 +27227,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -27259,7 +27256,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="8">
         <f ca="1">FORECAST(C$8,OFFSET('Coefficients Table'!$C$2:$C$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
@@ -27360,7 +27357,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="8">
         <f ca="1">FORECAST(C$8,OFFSET('Coefficients Table'!$D$2:$D$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
@@ -27461,7 +27458,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8">
         <f ca="1">FORECAST(C$8,OFFSET('Coefficients Table'!$E$2:$E$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
@@ -27562,7 +27559,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8">
         <f ca="1">FORECAST(C$8,OFFSET('Coefficients Table'!$F$2:$F$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
@@ -27663,7 +27660,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8">
         <f ca="1">FORECAST(C$8,OFFSET('Coefficients Table'!$G$2:$G$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2),OFFSET('Coefficients Table'!$B$2:$B$8,MATCH(C$8,'Coefficients Table'!$B$2:$B$8,1)-1,0,2))</f>
@@ -27865,7 +27862,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="10">
         <v>4</v>
@@ -27942,10 +27939,10 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="10">
         <v>-10</v>
@@ -28023,80 +28020,80 @@
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="O9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="V9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Z9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="AA9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="AB9" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -30735,8 +30732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30746,31 +30743,31 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -30833,10 +30830,10 @@
         <v>13.15</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -30872,7 +30869,7 @@
         <v>-10</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -31240,18 +31237,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R1">
         <v>20</v>
@@ -31262,10 +31259,10 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R2">
         <f>FORECAST(R$1,$B7:$H7,$B$6:$H$6)</f>
@@ -31278,7 +31275,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="Q3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R3">
         <f>FORECAST(R$1,$B8:$H8,$B$6:$H$6)</f>
@@ -31287,7 +31284,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="Q4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R7" si="0">FORECAST(R$1,$B9:$H9,$B$6:$H$6)</f>
@@ -31296,7 +31293,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="Q5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
@@ -31305,7 +31302,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>-10</v>
@@ -31329,7 +31326,7 @@
         <v>50</v>
       </c>
       <c r="Q6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
@@ -31338,7 +31335,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>0.47799999999999998</v>
@@ -31371,7 +31368,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>-1.143251503157807</v>
@@ -31401,7 +31398,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3.3483399767315909</v>
@@ -31427,7 +31424,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>-1.7704346329793603</v>
@@ -31453,7 +31450,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>0.4</v>
@@ -31505,77 +31502,77 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="str">
         <f>'Cap Curves'!C1</f>
         <v>VoC -10C</v>
       </c>
       <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
         <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
       </c>
       <c r="E14" t="str">
         <f>'Cap Curves'!D1</f>
         <v>VoC 0C</v>
       </c>
       <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
         <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
       </c>
       <c r="H14" t="str">
         <f>'Cap Curves'!E1</f>
         <v>VoC 10C</v>
       </c>
       <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
         <v>23</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
       </c>
       <c r="K14" t="str">
         <f>'Cap Curves'!F1</f>
         <v>VoC 20C</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N14" t="str">
         <f>'Cap Curves'!G1</f>
         <v>VoC 30C</v>
       </c>
       <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" t="s">
         <v>25</v>
-      </c>
-      <c r="P14" t="s">
-        <v>26</v>
       </c>
       <c r="Q14" t="str">
         <f>'Cap Curves'!H1</f>
         <v>VoC 40C</v>
       </c>
       <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" t="s">
         <v>27</v>
-      </c>
-      <c r="S14" t="s">
-        <v>28</v>
       </c>
       <c r="T14" t="str">
         <f>'Cap Curves'!I1</f>
         <v>VoC 50C</v>
       </c>
       <c r="U14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
